--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>TGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>258900</v>
+        <v>239200</v>
       </c>
       <c r="E8" s="3">
-        <v>284800</v>
+        <v>249900</v>
       </c>
       <c r="F8" s="3">
-        <v>198600</v>
+        <v>274900</v>
       </c>
       <c r="G8" s="3">
-        <v>217800</v>
+        <v>191700</v>
       </c>
       <c r="H8" s="3">
-        <v>258200</v>
+        <v>210200</v>
       </c>
       <c r="I8" s="3">
-        <v>218400</v>
+        <v>249200</v>
       </c>
       <c r="J8" s="3">
+        <v>210800</v>
+      </c>
+      <c r="K8" s="3">
         <v>190900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>227800</v>
+        <v>267600</v>
       </c>
       <c r="E9" s="3">
-        <v>186900</v>
+        <v>219900</v>
       </c>
       <c r="F9" s="3">
-        <v>197300</v>
+        <v>180400</v>
       </c>
       <c r="G9" s="3">
-        <v>216800</v>
+        <v>190500</v>
       </c>
       <c r="H9" s="3">
-        <v>275600</v>
+        <v>209300</v>
       </c>
       <c r="I9" s="3">
-        <v>186000</v>
+        <v>266000</v>
       </c>
       <c r="J9" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K9" s="3">
         <v>297500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31000</v>
+        <v>-28400</v>
       </c>
       <c r="E10" s="3">
-        <v>97900</v>
+        <v>30000</v>
       </c>
       <c r="F10" s="3">
+        <v>94500</v>
+      </c>
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
-        <v>-17400</v>
-      </c>
       <c r="I10" s="3">
-        <v>32300</v>
+        <v>-16800</v>
       </c>
       <c r="J10" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-106600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="3">
         <v>1300</v>
       </c>
       <c r="F12" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="G12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
-        <v>4500</v>
-      </c>
       <c r="I12" s="3">
-        <v>7700</v>
+        <v>4300</v>
       </c>
       <c r="J12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K12" s="3">
         <v>13400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="3">
-        <v>15400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
-        <v>10500</v>
-      </c>
       <c r="J14" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,12 +950,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>237600</v>
+        <v>283800</v>
       </c>
       <c r="E17" s="3">
-        <v>225300</v>
+        <v>229400</v>
       </c>
       <c r="F17" s="3">
-        <v>218000</v>
+        <v>217500</v>
       </c>
       <c r="G17" s="3">
-        <v>218300</v>
+        <v>210400</v>
       </c>
       <c r="H17" s="3">
-        <v>274500</v>
+        <v>210700</v>
       </c>
       <c r="I17" s="3">
-        <v>218700</v>
+        <v>265000</v>
       </c>
       <c r="J17" s="3">
+        <v>211100</v>
+      </c>
+      <c r="K17" s="3">
         <v>195200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>21300</v>
+        <v>-44600</v>
       </c>
       <c r="E18" s="3">
-        <v>59500</v>
+        <v>20500</v>
       </c>
       <c r="F18" s="3">
-        <v>-19300</v>
+        <v>57400</v>
       </c>
       <c r="G18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-16300</v>
-      </c>
       <c r="I18" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>47700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23700</v>
+        <v>7400</v>
       </c>
       <c r="E20" s="3">
-        <v>11600</v>
+        <v>-22900</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>11200</v>
       </c>
       <c r="G20" s="3">
-        <v>-33100</v>
+        <v>5200</v>
       </c>
       <c r="H20" s="3">
-        <v>-12500</v>
+        <v>-31900</v>
       </c>
       <c r="I20" s="3">
-        <v>-6100</v>
+        <v>-12100</v>
       </c>
       <c r="J20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K20" s="3">
         <v>8600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>50900</v>
+        <v>42700</v>
       </c>
       <c r="E21" s="3">
-        <v>107000</v>
+        <v>49100</v>
       </c>
       <c r="F21" s="3">
-        <v>26000</v>
+        <v>103300</v>
       </c>
       <c r="G21" s="3">
-        <v>3800</v>
+        <v>25100</v>
       </c>
       <c r="H21" s="3">
-        <v>6800</v>
+        <v>3700</v>
       </c>
       <c r="I21" s="3">
-        <v>19500</v>
+        <v>6600</v>
       </c>
       <c r="J21" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K21" s="3">
         <v>20600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24100</v>
+        <v>25100</v>
       </c>
       <c r="E22" s="3">
         <v>23300</v>
       </c>
       <c r="F22" s="3">
-        <v>20800</v>
+        <v>22500</v>
       </c>
       <c r="G22" s="3">
-        <v>17600</v>
+        <v>20100</v>
       </c>
       <c r="H22" s="3">
-        <v>18300</v>
+        <v>17000</v>
       </c>
       <c r="I22" s="3">
         <v>17700</v>
       </c>
       <c r="J22" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K22" s="3">
         <v>10700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26600</v>
+        <v>-62300</v>
       </c>
       <c r="E23" s="3">
-        <v>47800</v>
+        <v>-25700</v>
       </c>
       <c r="F23" s="3">
-        <v>-34700</v>
+        <v>46100</v>
       </c>
       <c r="G23" s="3">
-        <v>-51200</v>
+        <v>-33500</v>
       </c>
       <c r="H23" s="3">
-        <v>-47200</v>
+        <v>-49400</v>
       </c>
       <c r="I23" s="3">
-        <v>-24200</v>
+        <v>-45500</v>
       </c>
       <c r="J23" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>22000</v>
-      </c>
       <c r="F24" s="3">
-        <v>-11100</v>
+        <v>21200</v>
       </c>
       <c r="G24" s="3">
-        <v>-4200</v>
+        <v>-10700</v>
       </c>
       <c r="H24" s="3">
-        <v>-6600</v>
+        <v>-4100</v>
       </c>
       <c r="I24" s="3">
-        <v>2000</v>
+        <v>-6400</v>
       </c>
       <c r="J24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26900</v>
+        <v>-38800</v>
       </c>
       <c r="E26" s="3">
-        <v>25800</v>
+        <v>-26000</v>
       </c>
       <c r="F26" s="3">
-        <v>-23600</v>
+        <v>24900</v>
       </c>
       <c r="G26" s="3">
-        <v>-46900</v>
+        <v>-22800</v>
       </c>
       <c r="H26" s="3">
-        <v>-40600</v>
+        <v>-45300</v>
       </c>
       <c r="I26" s="3">
-        <v>-26200</v>
+        <v>-39200</v>
       </c>
       <c r="J26" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26900</v>
+        <v>-38800</v>
       </c>
       <c r="E27" s="3">
-        <v>25800</v>
+        <v>-26000</v>
       </c>
       <c r="F27" s="3">
-        <v>-23600</v>
+        <v>24900</v>
       </c>
       <c r="G27" s="3">
-        <v>-46900</v>
+        <v>-22800</v>
       </c>
       <c r="H27" s="3">
-        <v>-40600</v>
+        <v>-45300</v>
       </c>
       <c r="I27" s="3">
-        <v>-26200</v>
+        <v>-39200</v>
       </c>
       <c r="J27" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23700</v>
+        <v>-7400</v>
       </c>
       <c r="E32" s="3">
-        <v>-11600</v>
+        <v>22900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-11200</v>
       </c>
       <c r="G32" s="3">
-        <v>33100</v>
+        <v>-5200</v>
       </c>
       <c r="H32" s="3">
-        <v>12500</v>
+        <v>31900</v>
       </c>
       <c r="I32" s="3">
-        <v>6100</v>
+        <v>12100</v>
       </c>
       <c r="J32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26900</v>
+        <v>-38800</v>
       </c>
       <c r="E33" s="3">
-        <v>25800</v>
+        <v>-26000</v>
       </c>
       <c r="F33" s="3">
-        <v>-23600</v>
+        <v>24900</v>
       </c>
       <c r="G33" s="3">
-        <v>-46900</v>
+        <v>-22800</v>
       </c>
       <c r="H33" s="3">
-        <v>-40600</v>
+        <v>-45300</v>
       </c>
       <c r="I33" s="3">
-        <v>-26200</v>
+        <v>-39200</v>
       </c>
       <c r="J33" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26900</v>
+        <v>-38800</v>
       </c>
       <c r="E35" s="3">
-        <v>25800</v>
+        <v>-26000</v>
       </c>
       <c r="F35" s="3">
-        <v>-23600</v>
+        <v>24900</v>
       </c>
       <c r="G35" s="3">
-        <v>-46900</v>
+        <v>-22800</v>
       </c>
       <c r="H35" s="3">
-        <v>-40600</v>
+        <v>-45300</v>
       </c>
       <c r="I35" s="3">
-        <v>-26200</v>
+        <v>-39200</v>
       </c>
       <c r="J35" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34400</v>
+        <v>38600</v>
       </c>
       <c r="E41" s="3">
-        <v>60400</v>
+        <v>33200</v>
       </c>
       <c r="F41" s="3">
-        <v>67000</v>
+        <v>58300</v>
       </c>
       <c r="G41" s="3">
-        <v>51600</v>
+        <v>64700</v>
       </c>
       <c r="H41" s="3">
-        <v>40100</v>
+        <v>49800</v>
       </c>
       <c r="I41" s="3">
-        <v>62400</v>
+        <v>38700</v>
       </c>
       <c r="J41" s="3">
+        <v>60200</v>
+      </c>
+      <c r="K41" s="3">
         <v>203200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>213400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F42" s="3">
         <v>1800</v>
       </c>
-      <c r="F42" s="3">
-        <v>1100</v>
-      </c>
       <c r="G42" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H42" s="3">
         <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="J42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K42" s="3">
         <v>13000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11100</v>
+        <v>10000</v>
       </c>
       <c r="E43" s="3">
-        <v>16300</v>
+        <v>10700</v>
       </c>
       <c r="F43" s="3">
-        <v>9700</v>
+        <v>15700</v>
       </c>
       <c r="G43" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="H43" s="3">
-        <v>29900</v>
+        <v>9600</v>
       </c>
       <c r="I43" s="3">
-        <v>65000</v>
+        <v>28900</v>
       </c>
       <c r="J43" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K43" s="3">
         <v>53500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29300</v>
+        <v>31700</v>
       </c>
       <c r="E44" s="3">
-        <v>29800</v>
+        <v>28300</v>
       </c>
       <c r="F44" s="3">
-        <v>45600</v>
+        <v>28800</v>
       </c>
       <c r="G44" s="3">
-        <v>30600</v>
+        <v>44000</v>
       </c>
       <c r="H44" s="3">
-        <v>27200</v>
+        <v>29500</v>
       </c>
       <c r="I44" s="3">
-        <v>35500</v>
+        <v>26200</v>
       </c>
       <c r="J44" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K44" s="3">
         <v>34100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
-        <v>1400</v>
-      </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
-        <v>4900</v>
-      </c>
       <c r="I45" s="3">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="J45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>78600</v>
+        <v>82700</v>
       </c>
       <c r="E46" s="3">
-        <v>109700</v>
+        <v>75800</v>
       </c>
       <c r="F46" s="3">
-        <v>124500</v>
+        <v>105800</v>
       </c>
       <c r="G46" s="3">
-        <v>94500</v>
+        <v>120100</v>
       </c>
       <c r="H46" s="3">
-        <v>102900</v>
+        <v>91200</v>
       </c>
       <c r="I46" s="3">
-        <v>172300</v>
+        <v>99200</v>
       </c>
       <c r="J46" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K46" s="3">
         <v>172200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>335700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F47" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="G47" s="3">
-        <v>19800</v>
+        <v>7500</v>
       </c>
       <c r="H47" s="3">
-        <v>21400</v>
+        <v>19100</v>
       </c>
       <c r="I47" s="3">
-        <v>19800</v>
+        <v>20600</v>
       </c>
       <c r="J47" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K47" s="3">
         <v>118100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>618300</v>
+        <v>550500</v>
       </c>
       <c r="E48" s="3">
-        <v>600200</v>
+        <v>596500</v>
       </c>
       <c r="F48" s="3">
-        <v>549700</v>
+        <v>579000</v>
       </c>
       <c r="G48" s="3">
-        <v>1196600</v>
+        <v>530300</v>
       </c>
       <c r="H48" s="3">
-        <v>597500</v>
+        <v>1154400</v>
       </c>
       <c r="I48" s="3">
-        <v>510800</v>
+        <v>576400</v>
       </c>
       <c r="J48" s="3">
+        <v>492800</v>
+      </c>
+      <c r="K48" s="3">
         <v>426600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>338500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="E49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29300</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>28700</v>
+        <v>28300</v>
       </c>
       <c r="F52" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="G52" s="3">
-        <v>40500</v>
+        <v>27600</v>
       </c>
       <c r="H52" s="3">
-        <v>21900</v>
+        <v>39100</v>
       </c>
       <c r="I52" s="3">
-        <v>27400</v>
+        <v>21100</v>
       </c>
       <c r="J52" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K52" s="3">
         <v>43500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>732300</v>
+        <v>642000</v>
       </c>
       <c r="E54" s="3">
-        <v>744300</v>
+        <v>706500</v>
       </c>
       <c r="F54" s="3">
-        <v>714700</v>
+        <v>718100</v>
       </c>
       <c r="G54" s="3">
-        <v>733400</v>
+        <v>689500</v>
       </c>
       <c r="H54" s="3">
-        <v>747200</v>
+        <v>707500</v>
       </c>
       <c r="I54" s="3">
-        <v>730400</v>
+        <v>720900</v>
       </c>
       <c r="J54" s="3">
+        <v>704600</v>
+      </c>
+      <c r="K54" s="3">
         <v>750100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>764200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,68 +2137,75 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16500</v>
+        <v>17600</v>
       </c>
       <c r="E57" s="3">
-        <v>18000</v>
+        <v>15900</v>
       </c>
       <c r="F57" s="3">
-        <v>21200</v>
+        <v>17300</v>
       </c>
       <c r="G57" s="3">
-        <v>42500</v>
+        <v>20500</v>
       </c>
       <c r="H57" s="3">
-        <v>27800</v>
+        <v>41000</v>
       </c>
       <c r="I57" s="3">
-        <v>20200</v>
+        <v>26800</v>
       </c>
       <c r="J57" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K57" s="3">
         <v>62500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>8500</v>
+        <v>7200</v>
       </c>
       <c r="F58" s="3">
-        <v>12200</v>
+        <v>8200</v>
       </c>
       <c r="G58" s="3">
-        <v>45000</v>
+        <v>11700</v>
       </c>
       <c r="H58" s="3">
-        <v>15200</v>
+        <v>43400</v>
       </c>
       <c r="I58" s="3">
-        <v>17000</v>
+        <v>14600</v>
       </c>
       <c r="J58" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K58" s="3">
         <v>19100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2077,119 +2213,131 @@
         <v>19400</v>
       </c>
       <c r="E59" s="3">
-        <v>19800</v>
+        <v>18700</v>
       </c>
       <c r="F59" s="3">
-        <v>7900</v>
+        <v>19100</v>
       </c>
       <c r="G59" s="3">
-        <v>7000</v>
+        <v>7600</v>
       </c>
       <c r="H59" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="I59" s="3">
-        <v>50800</v>
+        <v>6800</v>
       </c>
       <c r="J59" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K59" s="3">
         <v>21100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43200</v>
+        <v>48900</v>
       </c>
       <c r="E60" s="3">
-        <v>46200</v>
+        <v>41700</v>
       </c>
       <c r="F60" s="3">
-        <v>41300</v>
+        <v>44600</v>
       </c>
       <c r="G60" s="3">
-        <v>71900</v>
+        <v>39800</v>
       </c>
       <c r="H60" s="3">
-        <v>50000</v>
+        <v>69300</v>
       </c>
       <c r="I60" s="3">
-        <v>88000</v>
+        <v>48300</v>
       </c>
       <c r="J60" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K60" s="3">
         <v>56600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>260200</v>
+        <v>259300</v>
       </c>
       <c r="E61" s="3">
-        <v>239300</v>
+        <v>251000</v>
       </c>
       <c r="F61" s="3">
-        <v>280900</v>
+        <v>230900</v>
       </c>
       <c r="G61" s="3">
-        <v>229900</v>
+        <v>271000</v>
       </c>
       <c r="H61" s="3">
-        <v>220900</v>
+        <v>221800</v>
       </c>
       <c r="I61" s="3">
-        <v>195400</v>
+        <v>213200</v>
       </c>
       <c r="J61" s="3">
+        <v>188500</v>
+      </c>
+      <c r="K61" s="3">
         <v>176700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>167900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>167600</v>
+        <v>114700</v>
       </c>
       <c r="E62" s="3">
-        <v>182400</v>
+        <v>161700</v>
       </c>
       <c r="F62" s="3">
-        <v>137400</v>
+        <v>176000</v>
       </c>
       <c r="G62" s="3">
-        <v>153200</v>
+        <v>132600</v>
       </c>
       <c r="H62" s="3">
-        <v>158300</v>
+        <v>147800</v>
       </c>
       <c r="I62" s="3">
-        <v>126200</v>
+        <v>152700</v>
       </c>
       <c r="J62" s="3">
+        <v>121700</v>
+      </c>
+      <c r="K62" s="3">
         <v>181400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>167800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>471000</v>
+        <v>422900</v>
       </c>
       <c r="E66" s="3">
-        <v>468000</v>
+        <v>454400</v>
       </c>
       <c r="F66" s="3">
-        <v>459600</v>
+        <v>451500</v>
       </c>
       <c r="G66" s="3">
-        <v>454600</v>
+        <v>443400</v>
       </c>
       <c r="H66" s="3">
-        <v>429300</v>
+        <v>438600</v>
       </c>
       <c r="I66" s="3">
-        <v>409500</v>
+        <v>414200</v>
       </c>
       <c r="J66" s="3">
+        <v>395100</v>
+      </c>
+      <c r="K66" s="3">
         <v>414700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>382500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-105200</v>
+        <v>-140200</v>
       </c>
       <c r="E72" s="3">
-        <v>-77400</v>
+        <v>-101500</v>
       </c>
       <c r="F72" s="3">
-        <v>-103200</v>
+        <v>-74700</v>
       </c>
       <c r="G72" s="3">
-        <v>-79600</v>
+        <v>-99600</v>
       </c>
       <c r="H72" s="3">
-        <v>-32700</v>
+        <v>-76800</v>
       </c>
       <c r="I72" s="3">
-        <v>7900</v>
+        <v>-31500</v>
       </c>
       <c r="J72" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K72" s="3">
         <v>34100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>66700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>261300</v>
+        <v>219100</v>
       </c>
       <c r="E76" s="3">
-        <v>276300</v>
+        <v>252100</v>
       </c>
       <c r="F76" s="3">
-        <v>255100</v>
+        <v>266600</v>
       </c>
       <c r="G76" s="3">
-        <v>278800</v>
+        <v>246200</v>
       </c>
       <c r="H76" s="3">
-        <v>317900</v>
+        <v>269000</v>
       </c>
       <c r="I76" s="3">
-        <v>320900</v>
+        <v>306700</v>
       </c>
       <c r="J76" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K76" s="3">
         <v>335400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>381700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26900</v>
+        <v>-38800</v>
       </c>
       <c r="E81" s="3">
-        <v>25800</v>
+        <v>-26000</v>
       </c>
       <c r="F81" s="3">
-        <v>-23600</v>
+        <v>24900</v>
       </c>
       <c r="G81" s="3">
-        <v>-46900</v>
+        <v>-22800</v>
       </c>
       <c r="H81" s="3">
-        <v>-40600</v>
+        <v>-45300</v>
       </c>
       <c r="I81" s="3">
-        <v>-26200</v>
+        <v>-39200</v>
       </c>
       <c r="J81" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53300</v>
+        <v>79800</v>
       </c>
       <c r="E83" s="3">
-        <v>35900</v>
+        <v>51400</v>
       </c>
       <c r="F83" s="3">
-        <v>39900</v>
+        <v>34700</v>
       </c>
       <c r="G83" s="3">
-        <v>37300</v>
+        <v>38500</v>
       </c>
       <c r="H83" s="3">
-        <v>35600</v>
+        <v>36000</v>
       </c>
       <c r="I83" s="3">
-        <v>26000</v>
+        <v>34400</v>
       </c>
       <c r="J83" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K83" s="3">
         <v>16300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>70800</v>
+        <v>31000</v>
       </c>
       <c r="E89" s="3">
-        <v>158900</v>
+        <v>68400</v>
       </c>
       <c r="F89" s="3">
-        <v>25500</v>
+        <v>153400</v>
       </c>
       <c r="G89" s="3">
-        <v>38900</v>
+        <v>24600</v>
       </c>
       <c r="H89" s="3">
-        <v>38100</v>
+        <v>37600</v>
       </c>
       <c r="I89" s="3">
-        <v>50900</v>
+        <v>36700</v>
       </c>
       <c r="J89" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K89" s="3">
         <v>51300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-71400</v>
+        <v>-36900</v>
       </c>
       <c r="E91" s="3">
-        <v>-73200</v>
+        <v>-68900</v>
       </c>
       <c r="F91" s="3">
-        <v>-14200</v>
+        <v>-70700</v>
       </c>
       <c r="G91" s="3">
-        <v>-14300</v>
+        <v>-13700</v>
       </c>
       <c r="H91" s="3">
-        <v>-29200</v>
+        <v>-13800</v>
       </c>
       <c r="I91" s="3">
-        <v>-74200</v>
+        <v>-28200</v>
       </c>
       <c r="J91" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-145200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71100</v>
+        <v>-12300</v>
       </c>
       <c r="E94" s="3">
-        <v>-76600</v>
+        <v>-68600</v>
       </c>
       <c r="F94" s="3">
-        <v>-14400</v>
+        <v>-74000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2100</v>
+        <v>-13900</v>
       </c>
       <c r="H94" s="3">
-        <v>-29600</v>
+        <v>-2000</v>
       </c>
       <c r="I94" s="3">
-        <v>-70700</v>
+        <v>-28600</v>
       </c>
       <c r="J94" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-127900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-89900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25300</v>
+        <v>-12200</v>
       </c>
       <c r="E100" s="3">
-        <v>-85000</v>
+        <v>-24400</v>
       </c>
       <c r="F100" s="3">
-        <v>4700</v>
+        <v>-82100</v>
       </c>
       <c r="G100" s="3">
-        <v>-23100</v>
+        <v>4500</v>
       </c>
       <c r="H100" s="3">
-        <v>-33200</v>
+        <v>-22300</v>
       </c>
       <c r="I100" s="3">
-        <v>-21500</v>
+        <v>-32000</v>
       </c>
       <c r="J100" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-27200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>133300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3900</v>
-      </c>
       <c r="F101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
-        <v>3300</v>
-      </c>
       <c r="H101" s="3">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26000</v>
+        <v>5500</v>
       </c>
       <c r="E102" s="3">
-        <v>-6600</v>
+        <v>-25100</v>
       </c>
       <c r="F102" s="3">
-        <v>15400</v>
+        <v>-6400</v>
       </c>
       <c r="G102" s="3">
-        <v>17100</v>
+        <v>14900</v>
       </c>
       <c r="H102" s="3">
-        <v>-22300</v>
+        <v>16500</v>
       </c>
       <c r="I102" s="3">
-        <v>-39200</v>
+        <v>-21500</v>
       </c>
       <c r="J102" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-107500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>239200</v>
+        <v>250500</v>
       </c>
       <c r="E8" s="3">
-        <v>249900</v>
+        <v>261700</v>
       </c>
       <c r="F8" s="3">
-        <v>274900</v>
+        <v>287900</v>
       </c>
       <c r="G8" s="3">
-        <v>191700</v>
+        <v>200800</v>
       </c>
       <c r="H8" s="3">
-        <v>210200</v>
+        <v>220200</v>
       </c>
       <c r="I8" s="3">
-        <v>249200</v>
+        <v>261000</v>
       </c>
       <c r="J8" s="3">
-        <v>210800</v>
+        <v>220800</v>
       </c>
       <c r="K8" s="3">
         <v>190900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>267600</v>
+        <v>280300</v>
       </c>
       <c r="E9" s="3">
-        <v>219900</v>
+        <v>230300</v>
       </c>
       <c r="F9" s="3">
-        <v>180400</v>
+        <v>189000</v>
       </c>
       <c r="G9" s="3">
-        <v>190500</v>
+        <v>199500</v>
       </c>
       <c r="H9" s="3">
-        <v>209300</v>
+        <v>219200</v>
       </c>
       <c r="I9" s="3">
-        <v>266000</v>
+        <v>278600</v>
       </c>
       <c r="J9" s="3">
-        <v>179600</v>
+        <v>188100</v>
       </c>
       <c r="K9" s="3">
         <v>297500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-28400</v>
+        <v>-29800</v>
       </c>
       <c r="E10" s="3">
-        <v>30000</v>
+        <v>31400</v>
       </c>
       <c r="F10" s="3">
-        <v>94500</v>
+        <v>98900</v>
       </c>
       <c r="G10" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H10" s="3">
         <v>1000</v>
       </c>
       <c r="I10" s="3">
-        <v>-16800</v>
+        <v>-17600</v>
       </c>
       <c r="J10" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="K10" s="3">
         <v>-106600</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="3">
         <v>1300</v>
@@ -840,16 +840,16 @@
         <v>1300</v>
       </c>
       <c r="G12" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H12" s="3">
         <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="K12" s="3">
         <v>13400</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>300</v>
       </c>
       <c r="I14" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J14" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>283800</v>
+        <v>297200</v>
       </c>
       <c r="E17" s="3">
-        <v>229400</v>
+        <v>240200</v>
       </c>
       <c r="F17" s="3">
-        <v>217500</v>
+        <v>227800</v>
       </c>
       <c r="G17" s="3">
-        <v>210400</v>
+        <v>220400</v>
       </c>
       <c r="H17" s="3">
-        <v>210700</v>
+        <v>220700</v>
       </c>
       <c r="I17" s="3">
-        <v>265000</v>
+        <v>277500</v>
       </c>
       <c r="J17" s="3">
-        <v>211100</v>
+        <v>221100</v>
       </c>
       <c r="K17" s="3">
         <v>195200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-44600</v>
+        <v>-46700</v>
       </c>
       <c r="E18" s="3">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="F18" s="3">
-        <v>57400</v>
+        <v>60100</v>
       </c>
       <c r="G18" s="3">
-        <v>-18600</v>
+        <v>-19500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-15800</v>
+        <v>-16500</v>
       </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-4300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="E20" s="3">
-        <v>-22900</v>
+        <v>-24000</v>
       </c>
       <c r="F20" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="G20" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-31900</v>
+        <v>-33400</v>
       </c>
       <c r="I20" s="3">
-        <v>-12100</v>
+        <v>-12700</v>
       </c>
       <c r="J20" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="K20" s="3">
         <v>8600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42700</v>
+        <v>44400</v>
       </c>
       <c r="E21" s="3">
-        <v>49100</v>
+        <v>51300</v>
       </c>
       <c r="F21" s="3">
-        <v>103300</v>
+        <v>108100</v>
       </c>
       <c r="G21" s="3">
-        <v>25100</v>
+        <v>26200</v>
       </c>
       <c r="H21" s="3">
         <v>3700</v>
       </c>
       <c r="I21" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J21" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="K21" s="3">
         <v>20600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="E22" s="3">
-        <v>23300</v>
+        <v>24400</v>
       </c>
       <c r="F22" s="3">
-        <v>22500</v>
+        <v>23600</v>
       </c>
       <c r="G22" s="3">
-        <v>20100</v>
+        <v>21000</v>
       </c>
       <c r="H22" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="I22" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="J22" s="3">
-        <v>17100</v>
+        <v>17900</v>
       </c>
       <c r="K22" s="3">
         <v>10700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62300</v>
+        <v>-65200</v>
       </c>
       <c r="E23" s="3">
-        <v>-25700</v>
+        <v>-26900</v>
       </c>
       <c r="F23" s="3">
-        <v>46100</v>
+        <v>48300</v>
       </c>
       <c r="G23" s="3">
-        <v>-33500</v>
+        <v>-35100</v>
       </c>
       <c r="H23" s="3">
-        <v>-49400</v>
+        <v>-51700</v>
       </c>
       <c r="I23" s="3">
-        <v>-45500</v>
+        <v>-47700</v>
       </c>
       <c r="J23" s="3">
-        <v>-23400</v>
+        <v>-24500</v>
       </c>
       <c r="K23" s="3">
         <v>-6400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-23500</v>
+        <v>-24600</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="G24" s="3">
-        <v>-10700</v>
+        <v>-11200</v>
       </c>
       <c r="H24" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="I24" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="J24" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K24" s="3">
         <v>400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-38800</v>
+        <v>-40600</v>
       </c>
       <c r="E26" s="3">
-        <v>-26000</v>
+        <v>-27200</v>
       </c>
       <c r="F26" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G26" s="3">
-        <v>-22800</v>
+        <v>-23900</v>
       </c>
       <c r="H26" s="3">
-        <v>-45300</v>
+        <v>-47500</v>
       </c>
       <c r="I26" s="3">
-        <v>-39200</v>
+        <v>-41000</v>
       </c>
       <c r="J26" s="3">
-        <v>-25300</v>
+        <v>-26500</v>
       </c>
       <c r="K26" s="3">
         <v>-6900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38800</v>
+        <v>-40600</v>
       </c>
       <c r="E27" s="3">
-        <v>-26000</v>
+        <v>-27200</v>
       </c>
       <c r="F27" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G27" s="3">
-        <v>-22800</v>
+        <v>-23900</v>
       </c>
       <c r="H27" s="3">
-        <v>-45300</v>
+        <v>-47500</v>
       </c>
       <c r="I27" s="3">
-        <v>-39200</v>
+        <v>-41000</v>
       </c>
       <c r="J27" s="3">
-        <v>-25300</v>
+        <v>-26500</v>
       </c>
       <c r="K27" s="3">
         <v>-6900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7400</v>
+        <v>-7800</v>
       </c>
       <c r="E32" s="3">
-        <v>22900</v>
+        <v>24000</v>
       </c>
       <c r="F32" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5200</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>31900</v>
+        <v>33400</v>
       </c>
       <c r="I32" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="J32" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="K32" s="3">
         <v>-8600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38800</v>
+        <v>-40600</v>
       </c>
       <c r="E33" s="3">
-        <v>-26000</v>
+        <v>-27200</v>
       </c>
       <c r="F33" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G33" s="3">
-        <v>-22800</v>
+        <v>-23900</v>
       </c>
       <c r="H33" s="3">
-        <v>-45300</v>
+        <v>-47500</v>
       </c>
       <c r="I33" s="3">
-        <v>-39200</v>
+        <v>-41000</v>
       </c>
       <c r="J33" s="3">
-        <v>-25300</v>
+        <v>-26500</v>
       </c>
       <c r="K33" s="3">
         <v>-6900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38800</v>
+        <v>-40600</v>
       </c>
       <c r="E35" s="3">
-        <v>-26000</v>
+        <v>-27200</v>
       </c>
       <c r="F35" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G35" s="3">
-        <v>-22800</v>
+        <v>-23900</v>
       </c>
       <c r="H35" s="3">
-        <v>-45300</v>
+        <v>-47500</v>
       </c>
       <c r="I35" s="3">
-        <v>-39200</v>
+        <v>-41000</v>
       </c>
       <c r="J35" s="3">
-        <v>-25300</v>
+        <v>-26500</v>
       </c>
       <c r="K35" s="3">
         <v>-6900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38600</v>
+        <v>40500</v>
       </c>
       <c r="E41" s="3">
-        <v>33200</v>
+        <v>34800</v>
       </c>
       <c r="F41" s="3">
-        <v>58300</v>
+        <v>61100</v>
       </c>
       <c r="G41" s="3">
-        <v>64700</v>
+        <v>67800</v>
       </c>
       <c r="H41" s="3">
-        <v>49800</v>
+        <v>52200</v>
       </c>
       <c r="I41" s="3">
-        <v>38700</v>
+        <v>40600</v>
       </c>
       <c r="J41" s="3">
-        <v>60200</v>
+        <v>63100</v>
       </c>
       <c r="K41" s="3">
         <v>203200</v>
@@ -1685,16 +1685,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G42" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H42" s="3">
         <v>700</v>
@@ -1703,7 +1703,7 @@
         <v>700</v>
       </c>
       <c r="J42" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K42" s="3">
         <v>13000</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
-        <v>10700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>15700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>9600</v>
-      </c>
       <c r="I43" s="3">
-        <v>28900</v>
+        <v>30300</v>
       </c>
       <c r="J43" s="3">
-        <v>62700</v>
+        <v>65700</v>
       </c>
       <c r="K43" s="3">
         <v>53500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31700</v>
+        <v>33200</v>
       </c>
       <c r="E44" s="3">
-        <v>28300</v>
+        <v>29700</v>
       </c>
       <c r="F44" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="G44" s="3">
-        <v>44000</v>
+        <v>46100</v>
       </c>
       <c r="H44" s="3">
-        <v>29500</v>
+        <v>30900</v>
       </c>
       <c r="I44" s="3">
-        <v>26200</v>
+        <v>27500</v>
       </c>
       <c r="J44" s="3">
-        <v>34300</v>
+        <v>35900</v>
       </c>
       <c r="K44" s="3">
         <v>34100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
         <v>1100</v>
       </c>
       <c r="F45" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H45" s="3">
         <v>1700</v>
       </c>
       <c r="I45" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J45" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="K45" s="3">
         <v>10600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>82700</v>
+        <v>86700</v>
       </c>
       <c r="E46" s="3">
-        <v>75800</v>
+        <v>79500</v>
       </c>
       <c r="F46" s="3">
-        <v>105800</v>
+        <v>110900</v>
       </c>
       <c r="G46" s="3">
-        <v>120100</v>
+        <v>125800</v>
       </c>
       <c r="H46" s="3">
-        <v>91200</v>
+        <v>95600</v>
       </c>
       <c r="I46" s="3">
-        <v>99200</v>
+        <v>104000</v>
       </c>
       <c r="J46" s="3">
-        <v>166300</v>
+        <v>174200</v>
       </c>
       <c r="K46" s="3">
         <v>172200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G47" s="3">
-        <v>7500</v>
+        <v>7900</v>
       </c>
       <c r="H47" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="I47" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="J47" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="K47" s="3">
         <v>118100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>550500</v>
+        <v>576900</v>
       </c>
       <c r="E48" s="3">
-        <v>596500</v>
+        <v>625100</v>
       </c>
       <c r="F48" s="3">
-        <v>579000</v>
+        <v>606800</v>
       </c>
       <c r="G48" s="3">
-        <v>530300</v>
+        <v>555800</v>
       </c>
       <c r="H48" s="3">
-        <v>1154400</v>
+        <v>1209800</v>
       </c>
       <c r="I48" s="3">
-        <v>576400</v>
+        <v>604000</v>
       </c>
       <c r="J48" s="3">
-        <v>492800</v>
+        <v>516500</v>
       </c>
       <c r="K48" s="3">
         <v>426600</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F49" s="3">
         <v>3900</v>
       </c>
-      <c r="E49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3800</v>
-      </c>
       <c r="G49" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>11</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E52" s="3">
-        <v>28300</v>
+        <v>29700</v>
       </c>
       <c r="F52" s="3">
+        <v>29000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J52" s="3">
         <v>27700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>27600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>39100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>21100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>26400</v>
       </c>
       <c r="K52" s="3">
         <v>43500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>642000</v>
+        <v>672800</v>
       </c>
       <c r="E54" s="3">
-        <v>706500</v>
+        <v>740300</v>
       </c>
       <c r="F54" s="3">
-        <v>718100</v>
+        <v>752500</v>
       </c>
       <c r="G54" s="3">
-        <v>689500</v>
+        <v>722600</v>
       </c>
       <c r="H54" s="3">
-        <v>707500</v>
+        <v>741500</v>
       </c>
       <c r="I54" s="3">
-        <v>720900</v>
+        <v>755400</v>
       </c>
       <c r="J54" s="3">
-        <v>704600</v>
+        <v>738400</v>
       </c>
       <c r="K54" s="3">
         <v>750100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17600</v>
+        <v>18400</v>
       </c>
       <c r="E57" s="3">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="F57" s="3">
-        <v>17300</v>
+        <v>18200</v>
       </c>
       <c r="G57" s="3">
-        <v>20500</v>
+        <v>21400</v>
       </c>
       <c r="H57" s="3">
-        <v>41000</v>
+        <v>43000</v>
       </c>
       <c r="I57" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="J57" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="K57" s="3">
         <v>62500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="E58" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="G58" s="3">
-        <v>11700</v>
+        <v>12300</v>
       </c>
       <c r="H58" s="3">
-        <v>43400</v>
+        <v>45500</v>
       </c>
       <c r="I58" s="3">
-        <v>14600</v>
+        <v>15300</v>
       </c>
       <c r="J58" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="K58" s="3">
         <v>19100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19400</v>
+        <v>20300</v>
       </c>
       <c r="E59" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="F59" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="G59" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="H59" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="I59" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="J59" s="3">
-        <v>49000</v>
+        <v>51300</v>
       </c>
       <c r="K59" s="3">
         <v>21100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48900</v>
+        <v>51200</v>
       </c>
       <c r="E60" s="3">
+        <v>43700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>46700</v>
+      </c>
+      <c r="G60" s="3">
         <v>41700</v>
       </c>
-      <c r="F60" s="3">
-        <v>44600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>39800</v>
-      </c>
       <c r="H60" s="3">
-        <v>69300</v>
+        <v>72600</v>
       </c>
       <c r="I60" s="3">
-        <v>48300</v>
+        <v>50600</v>
       </c>
       <c r="J60" s="3">
-        <v>84900</v>
+        <v>89000</v>
       </c>
       <c r="K60" s="3">
         <v>56600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>259300</v>
+        <v>271700</v>
       </c>
       <c r="E61" s="3">
-        <v>251000</v>
+        <v>263100</v>
       </c>
       <c r="F61" s="3">
-        <v>230900</v>
+        <v>242000</v>
       </c>
       <c r="G61" s="3">
-        <v>271000</v>
+        <v>284000</v>
       </c>
       <c r="H61" s="3">
-        <v>221800</v>
+        <v>232400</v>
       </c>
       <c r="I61" s="3">
-        <v>213200</v>
+        <v>223400</v>
       </c>
       <c r="J61" s="3">
-        <v>188500</v>
+        <v>197500</v>
       </c>
       <c r="K61" s="3">
         <v>176700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>114700</v>
+        <v>120200</v>
       </c>
       <c r="E62" s="3">
-        <v>161700</v>
+        <v>169400</v>
       </c>
       <c r="F62" s="3">
-        <v>176000</v>
+        <v>184400</v>
       </c>
       <c r="G62" s="3">
-        <v>132600</v>
+        <v>139000</v>
       </c>
       <c r="H62" s="3">
-        <v>147800</v>
+        <v>154900</v>
       </c>
       <c r="I62" s="3">
-        <v>152700</v>
+        <v>160100</v>
       </c>
       <c r="J62" s="3">
-        <v>121700</v>
+        <v>127500</v>
       </c>
       <c r="K62" s="3">
         <v>181400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>422900</v>
+        <v>443200</v>
       </c>
       <c r="E66" s="3">
-        <v>454400</v>
+        <v>476200</v>
       </c>
       <c r="F66" s="3">
-        <v>451500</v>
+        <v>473100</v>
       </c>
       <c r="G66" s="3">
-        <v>443400</v>
+        <v>464600</v>
       </c>
       <c r="H66" s="3">
-        <v>438600</v>
+        <v>459600</v>
       </c>
       <c r="I66" s="3">
-        <v>414200</v>
+        <v>434000</v>
       </c>
       <c r="J66" s="3">
-        <v>395100</v>
+        <v>414000</v>
       </c>
       <c r="K66" s="3">
         <v>414700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-140200</v>
+        <v>-147000</v>
       </c>
       <c r="E72" s="3">
-        <v>-101500</v>
+        <v>-106300</v>
       </c>
       <c r="F72" s="3">
-        <v>-74700</v>
+        <v>-78300</v>
       </c>
       <c r="G72" s="3">
-        <v>-99600</v>
+        <v>-104400</v>
       </c>
       <c r="H72" s="3">
-        <v>-76800</v>
+        <v>-80500</v>
       </c>
       <c r="I72" s="3">
-        <v>-31500</v>
+        <v>-33000</v>
       </c>
       <c r="J72" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="K72" s="3">
         <v>34100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>219100</v>
+        <v>229600</v>
       </c>
       <c r="E76" s="3">
-        <v>252100</v>
+        <v>264200</v>
       </c>
       <c r="F76" s="3">
-        <v>266600</v>
+        <v>279400</v>
       </c>
       <c r="G76" s="3">
-        <v>246200</v>
+        <v>258000</v>
       </c>
       <c r="H76" s="3">
-        <v>269000</v>
+        <v>281900</v>
       </c>
       <c r="I76" s="3">
-        <v>306700</v>
+        <v>321400</v>
       </c>
       <c r="J76" s="3">
-        <v>309500</v>
+        <v>324400</v>
       </c>
       <c r="K76" s="3">
         <v>335400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38800</v>
+        <v>-40600</v>
       </c>
       <c r="E81" s="3">
-        <v>-26000</v>
+        <v>-27200</v>
       </c>
       <c r="F81" s="3">
-        <v>24900</v>
+        <v>26100</v>
       </c>
       <c r="G81" s="3">
-        <v>-22800</v>
+        <v>-23900</v>
       </c>
       <c r="H81" s="3">
-        <v>-45300</v>
+        <v>-47500</v>
       </c>
       <c r="I81" s="3">
-        <v>-39200</v>
+        <v>-41000</v>
       </c>
       <c r="J81" s="3">
-        <v>-25300</v>
+        <v>-26500</v>
       </c>
       <c r="K81" s="3">
         <v>-6900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79800</v>
+        <v>83500</v>
       </c>
       <c r="E83" s="3">
-        <v>51400</v>
+        <v>53900</v>
       </c>
       <c r="F83" s="3">
-        <v>34700</v>
+        <v>36300</v>
       </c>
       <c r="G83" s="3">
-        <v>38500</v>
+        <v>40400</v>
       </c>
       <c r="H83" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I83" s="3">
         <v>36000</v>
       </c>
-      <c r="I83" s="3">
-        <v>34400</v>
-      </c>
       <c r="J83" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="K83" s="3">
         <v>16300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31000</v>
+        <v>32500</v>
       </c>
       <c r="E89" s="3">
-        <v>68400</v>
+        <v>71600</v>
       </c>
       <c r="F89" s="3">
-        <v>153400</v>
+        <v>160700</v>
       </c>
       <c r="G89" s="3">
-        <v>24600</v>
+        <v>25800</v>
       </c>
       <c r="H89" s="3">
-        <v>37600</v>
+        <v>39300</v>
       </c>
       <c r="I89" s="3">
-        <v>36700</v>
+        <v>38500</v>
       </c>
       <c r="J89" s="3">
-        <v>49100</v>
+        <v>51400</v>
       </c>
       <c r="K89" s="3">
         <v>51300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36900</v>
+        <v>-38600</v>
       </c>
       <c r="E91" s="3">
-        <v>-68900</v>
+        <v>-72200</v>
       </c>
       <c r="F91" s="3">
-        <v>-70700</v>
+        <v>-74000</v>
       </c>
       <c r="G91" s="3">
-        <v>-13700</v>
+        <v>-14300</v>
       </c>
       <c r="H91" s="3">
-        <v>-13800</v>
+        <v>-14400</v>
       </c>
       <c r="I91" s="3">
-        <v>-28200</v>
+        <v>-29500</v>
       </c>
       <c r="J91" s="3">
-        <v>-71600</v>
+        <v>-75000</v>
       </c>
       <c r="K91" s="3">
         <v>-145200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12300</v>
+        <v>-12900</v>
       </c>
       <c r="E94" s="3">
-        <v>-68600</v>
+        <v>-71800</v>
       </c>
       <c r="F94" s="3">
-        <v>-74000</v>
+        <v>-77500</v>
       </c>
       <c r="G94" s="3">
-        <v>-13900</v>
+        <v>-14500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I94" s="3">
-        <v>-28600</v>
+        <v>-30000</v>
       </c>
       <c r="J94" s="3">
-        <v>-68200</v>
+        <v>-71400</v>
       </c>
       <c r="K94" s="3">
         <v>-127900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12200</v>
+        <v>-12700</v>
       </c>
       <c r="E100" s="3">
-        <v>-24400</v>
+        <v>-25600</v>
       </c>
       <c r="F100" s="3">
-        <v>-82100</v>
+        <v>-86000</v>
       </c>
       <c r="G100" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="H100" s="3">
-        <v>-22300</v>
+        <v>-23300</v>
       </c>
       <c r="I100" s="3">
-        <v>-32000</v>
+        <v>-33500</v>
       </c>
       <c r="J100" s="3">
-        <v>-20700</v>
+        <v>-21700</v>
       </c>
       <c r="K100" s="3">
         <v>-27200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
         <v>-500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3700</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
       </c>
       <c r="H101" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K101" s="3">
         <v>-3800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="E102" s="3">
-        <v>-25100</v>
+        <v>-26300</v>
       </c>
       <c r="F102" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="G102" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="H102" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="I102" s="3">
-        <v>-21500</v>
+        <v>-22500</v>
       </c>
       <c r="J102" s="3">
-        <v>-37900</v>
+        <v>-39700</v>
       </c>
       <c r="K102" s="3">
         <v>-107500</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>250500</v>
+        <v>253400</v>
       </c>
       <c r="E8" s="3">
-        <v>261700</v>
+        <v>264700</v>
       </c>
       <c r="F8" s="3">
-        <v>287900</v>
+        <v>291200</v>
       </c>
       <c r="G8" s="3">
-        <v>200800</v>
+        <v>203100</v>
       </c>
       <c r="H8" s="3">
-        <v>220200</v>
+        <v>222700</v>
       </c>
       <c r="I8" s="3">
-        <v>261000</v>
+        <v>264000</v>
       </c>
       <c r="J8" s="3">
-        <v>220800</v>
+        <v>223300</v>
       </c>
       <c r="K8" s="3">
         <v>190900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>280300</v>
+        <v>283500</v>
       </c>
       <c r="E9" s="3">
-        <v>230300</v>
+        <v>233000</v>
       </c>
       <c r="F9" s="3">
-        <v>189000</v>
+        <v>191200</v>
       </c>
       <c r="G9" s="3">
-        <v>199500</v>
+        <v>201800</v>
       </c>
       <c r="H9" s="3">
-        <v>219200</v>
+        <v>221700</v>
       </c>
       <c r="I9" s="3">
-        <v>278600</v>
+        <v>281800</v>
       </c>
       <c r="J9" s="3">
-        <v>188100</v>
+        <v>190200</v>
       </c>
       <c r="K9" s="3">
         <v>297500</v>
@@ -783,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-29800</v>
+        <v>-30100</v>
       </c>
       <c r="E10" s="3">
-        <v>31400</v>
+        <v>31700</v>
       </c>
       <c r="F10" s="3">
-        <v>98900</v>
+        <v>100100</v>
       </c>
       <c r="G10" s="3">
         <v>1400</v>
@@ -798,10 +798,10 @@
         <v>1000</v>
       </c>
       <c r="I10" s="3">
-        <v>-17600</v>
+        <v>-17800</v>
       </c>
       <c r="J10" s="3">
-        <v>32700</v>
+        <v>33100</v>
       </c>
       <c r="K10" s="3">
         <v>-106600</v>
@@ -846,10 +846,10 @@
         <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J12" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="K12" s="3">
         <v>13400</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>2000</v>
       </c>
       <c r="J14" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>297200</v>
+        <v>300600</v>
       </c>
       <c r="E17" s="3">
-        <v>240200</v>
+        <v>243000</v>
       </c>
       <c r="F17" s="3">
-        <v>227800</v>
+        <v>230400</v>
       </c>
       <c r="G17" s="3">
-        <v>220400</v>
+        <v>222900</v>
       </c>
       <c r="H17" s="3">
-        <v>220700</v>
+        <v>223200</v>
       </c>
       <c r="I17" s="3">
-        <v>277500</v>
+        <v>280700</v>
       </c>
       <c r="J17" s="3">
-        <v>221100</v>
+        <v>223600</v>
       </c>
       <c r="K17" s="3">
         <v>195200</v>
@@ -1008,22 +1008,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-46700</v>
+        <v>-47200</v>
       </c>
       <c r="E18" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="F18" s="3">
-        <v>60100</v>
+        <v>60800</v>
       </c>
       <c r="G18" s="3">
-        <v>-19500</v>
+        <v>-19800</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-16500</v>
+        <v>-16700</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E20" s="3">
-        <v>-24000</v>
+        <v>-24200</v>
       </c>
       <c r="F20" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="G20" s="3">
         <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-33400</v>
+        <v>-33800</v>
       </c>
       <c r="I20" s="3">
-        <v>-12700</v>
+        <v>-12800</v>
       </c>
       <c r="J20" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="K20" s="3">
         <v>8600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>44400</v>
+        <v>45000</v>
       </c>
       <c r="E21" s="3">
-        <v>51300</v>
+        <v>51900</v>
       </c>
       <c r="F21" s="3">
-        <v>108100</v>
+        <v>109300</v>
       </c>
       <c r="G21" s="3">
-        <v>26200</v>
+        <v>26500</v>
       </c>
       <c r="H21" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I21" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="J21" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="K21" s="3">
         <v>20600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26300</v>
+        <v>26600</v>
       </c>
       <c r="E22" s="3">
-        <v>24400</v>
+        <v>24700</v>
       </c>
       <c r="F22" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="G22" s="3">
-        <v>21000</v>
+        <v>21300</v>
       </c>
       <c r="H22" s="3">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="I22" s="3">
-        <v>18500</v>
+        <v>18800</v>
       </c>
       <c r="J22" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="K22" s="3">
         <v>10700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-65200</v>
+        <v>-66000</v>
       </c>
       <c r="E23" s="3">
-        <v>-26900</v>
+        <v>-27200</v>
       </c>
       <c r="F23" s="3">
-        <v>48300</v>
+        <v>48800</v>
       </c>
       <c r="G23" s="3">
-        <v>-35100</v>
+        <v>-35500</v>
       </c>
       <c r="H23" s="3">
-        <v>-51700</v>
+        <v>-52300</v>
       </c>
       <c r="I23" s="3">
-        <v>-47700</v>
+        <v>-48200</v>
       </c>
       <c r="J23" s="3">
-        <v>-24500</v>
+        <v>-24800</v>
       </c>
       <c r="K23" s="3">
         <v>-6400</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-24600</v>
+        <v>-24900</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>22200</v>
+        <v>22500</v>
       </c>
       <c r="G24" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="H24" s="3">
         <v>-4300</v>
       </c>
       <c r="I24" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="J24" s="3">
         <v>2000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40600</v>
+        <v>-41100</v>
       </c>
       <c r="E26" s="3">
-        <v>-27200</v>
+        <v>-27500</v>
       </c>
       <c r="F26" s="3">
-        <v>26100</v>
+        <v>26400</v>
       </c>
       <c r="G26" s="3">
-        <v>-23900</v>
+        <v>-24200</v>
       </c>
       <c r="H26" s="3">
-        <v>-47500</v>
+        <v>-48000</v>
       </c>
       <c r="I26" s="3">
-        <v>-41000</v>
+        <v>-41500</v>
       </c>
       <c r="J26" s="3">
-        <v>-26500</v>
+        <v>-26800</v>
       </c>
       <c r="K26" s="3">
         <v>-6900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-40600</v>
+        <v>-41100</v>
       </c>
       <c r="E27" s="3">
-        <v>-27200</v>
+        <v>-27500</v>
       </c>
       <c r="F27" s="3">
-        <v>26100</v>
+        <v>26400</v>
       </c>
       <c r="G27" s="3">
-        <v>-23900</v>
+        <v>-24200</v>
       </c>
       <c r="H27" s="3">
-        <v>-47500</v>
+        <v>-48000</v>
       </c>
       <c r="I27" s="3">
-        <v>-41000</v>
+        <v>-41500</v>
       </c>
       <c r="J27" s="3">
-        <v>-26500</v>
+        <v>-26800</v>
       </c>
       <c r="K27" s="3">
         <v>-6900</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="E32" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="F32" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="G32" s="3">
         <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>33400</v>
+        <v>33800</v>
       </c>
       <c r="I32" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="J32" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K32" s="3">
         <v>-8600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-40600</v>
+        <v>-41100</v>
       </c>
       <c r="E33" s="3">
-        <v>-27200</v>
+        <v>-27500</v>
       </c>
       <c r="F33" s="3">
-        <v>26100</v>
+        <v>26400</v>
       </c>
       <c r="G33" s="3">
-        <v>-23900</v>
+        <v>-24200</v>
       </c>
       <c r="H33" s="3">
-        <v>-47500</v>
+        <v>-48000</v>
       </c>
       <c r="I33" s="3">
-        <v>-41000</v>
+        <v>-41500</v>
       </c>
       <c r="J33" s="3">
-        <v>-26500</v>
+        <v>-26800</v>
       </c>
       <c r="K33" s="3">
         <v>-6900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-40600</v>
+        <v>-41100</v>
       </c>
       <c r="E35" s="3">
-        <v>-27200</v>
+        <v>-27500</v>
       </c>
       <c r="F35" s="3">
-        <v>26100</v>
+        <v>26400</v>
       </c>
       <c r="G35" s="3">
-        <v>-23900</v>
+        <v>-24200</v>
       </c>
       <c r="H35" s="3">
-        <v>-47500</v>
+        <v>-48000</v>
       </c>
       <c r="I35" s="3">
-        <v>-41000</v>
+        <v>-41500</v>
       </c>
       <c r="J35" s="3">
-        <v>-26500</v>
+        <v>-26800</v>
       </c>
       <c r="K35" s="3">
         <v>-6900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40500</v>
+        <v>41000</v>
       </c>
       <c r="E41" s="3">
-        <v>34800</v>
+        <v>35200</v>
       </c>
       <c r="F41" s="3">
-        <v>61100</v>
+        <v>61800</v>
       </c>
       <c r="G41" s="3">
-        <v>67800</v>
+        <v>68500</v>
       </c>
       <c r="H41" s="3">
-        <v>52200</v>
+        <v>52700</v>
       </c>
       <c r="I41" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="J41" s="3">
-        <v>63100</v>
+        <v>63800</v>
       </c>
       <c r="K41" s="3">
         <v>203200</v>
@@ -1688,7 +1688,7 @@
         <v>600</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F42" s="3">
         <v>1900</v>
@@ -1700,7 +1700,7 @@
         <v>700</v>
       </c>
       <c r="I42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>3800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E43" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="F43" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="G43" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="H43" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="I43" s="3">
-        <v>30300</v>
+        <v>30600</v>
       </c>
       <c r="J43" s="3">
-        <v>65700</v>
+        <v>66400</v>
       </c>
       <c r="K43" s="3">
         <v>53500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33200</v>
+        <v>33600</v>
       </c>
       <c r="E44" s="3">
-        <v>29700</v>
+        <v>30000</v>
       </c>
       <c r="F44" s="3">
-        <v>30200</v>
+        <v>30500</v>
       </c>
       <c r="G44" s="3">
-        <v>46100</v>
+        <v>46600</v>
       </c>
       <c r="H44" s="3">
-        <v>30900</v>
+        <v>31300</v>
       </c>
       <c r="I44" s="3">
-        <v>27500</v>
+        <v>27800</v>
       </c>
       <c r="J44" s="3">
-        <v>35900</v>
+        <v>36300</v>
       </c>
       <c r="K44" s="3">
         <v>34100</v>
@@ -1796,13 +1796,13 @@
         <v>1100</v>
       </c>
       <c r="H45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J45" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K45" s="3">
         <v>10600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>86700</v>
+        <v>87600</v>
       </c>
       <c r="E46" s="3">
-        <v>79500</v>
+        <v>80400</v>
       </c>
       <c r="F46" s="3">
-        <v>110900</v>
+        <v>112200</v>
       </c>
       <c r="G46" s="3">
-        <v>125800</v>
+        <v>127300</v>
       </c>
       <c r="H46" s="3">
-        <v>95600</v>
+        <v>96700</v>
       </c>
       <c r="I46" s="3">
-        <v>104000</v>
+        <v>105200</v>
       </c>
       <c r="J46" s="3">
-        <v>174200</v>
+        <v>176200</v>
       </c>
       <c r="K46" s="3">
         <v>172200</v>
@@ -1859,16 +1859,16 @@
         <v>1800</v>
       </c>
       <c r="G47" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H47" s="3">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="I47" s="3">
-        <v>21600</v>
+        <v>21900</v>
       </c>
       <c r="J47" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="K47" s="3">
         <v>118100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>576900</v>
+        <v>583500</v>
       </c>
       <c r="E48" s="3">
-        <v>625100</v>
+        <v>632200</v>
       </c>
       <c r="F48" s="3">
-        <v>606800</v>
+        <v>613800</v>
       </c>
       <c r="G48" s="3">
-        <v>555800</v>
+        <v>562100</v>
       </c>
       <c r="H48" s="3">
-        <v>1209800</v>
+        <v>1223600</v>
       </c>
       <c r="I48" s="3">
-        <v>604000</v>
+        <v>611000</v>
       </c>
       <c r="J48" s="3">
-        <v>516500</v>
+        <v>522400</v>
       </c>
       <c r="K48" s="3">
         <v>426600</v>
@@ -1922,16 +1922,16 @@
         <v>4300</v>
       </c>
       <c r="F49" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G49" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I49" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>11</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E52" s="3">
-        <v>29700</v>
+        <v>30000</v>
       </c>
       <c r="F52" s="3">
-        <v>29000</v>
+        <v>29400</v>
       </c>
       <c r="G52" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="H52" s="3">
-        <v>41000</v>
+        <v>41400</v>
       </c>
       <c r="I52" s="3">
-        <v>22100</v>
+        <v>22400</v>
       </c>
       <c r="J52" s="3">
-        <v>27700</v>
+        <v>28000</v>
       </c>
       <c r="K52" s="3">
         <v>43500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>672800</v>
+        <v>680500</v>
       </c>
       <c r="E54" s="3">
-        <v>740300</v>
+        <v>748800</v>
       </c>
       <c r="F54" s="3">
-        <v>752500</v>
+        <v>761100</v>
       </c>
       <c r="G54" s="3">
-        <v>722600</v>
+        <v>730900</v>
       </c>
       <c r="H54" s="3">
-        <v>741500</v>
+        <v>750000</v>
       </c>
       <c r="I54" s="3">
-        <v>755400</v>
+        <v>764100</v>
       </c>
       <c r="J54" s="3">
-        <v>738400</v>
+        <v>746900</v>
       </c>
       <c r="K54" s="3">
         <v>750100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F57" s="3">
         <v>18400</v>
       </c>
-      <c r="E57" s="3">
-        <v>16600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>18200</v>
-      </c>
       <c r="G57" s="3">
-        <v>21400</v>
+        <v>21700</v>
       </c>
       <c r="H57" s="3">
-        <v>43000</v>
+        <v>43400</v>
       </c>
       <c r="I57" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="J57" s="3">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="K57" s="3">
         <v>62500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="G58" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="H58" s="3">
-        <v>45500</v>
+        <v>46000</v>
       </c>
       <c r="I58" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="J58" s="3">
-        <v>17200</v>
+        <v>17400</v>
       </c>
       <c r="K58" s="3">
         <v>19100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="E59" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="F59" s="3">
-        <v>20000</v>
+        <v>20200</v>
       </c>
       <c r="G59" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="H59" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I59" s="3">
         <v>7200</v>
       </c>
       <c r="J59" s="3">
-        <v>51300</v>
+        <v>51900</v>
       </c>
       <c r="K59" s="3">
         <v>21100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51200</v>
+        <v>51800</v>
       </c>
       <c r="E60" s="3">
-        <v>43700</v>
+        <v>44200</v>
       </c>
       <c r="F60" s="3">
-        <v>46700</v>
+        <v>47300</v>
       </c>
       <c r="G60" s="3">
-        <v>41700</v>
+        <v>42200</v>
       </c>
       <c r="H60" s="3">
-        <v>72600</v>
+        <v>73500</v>
       </c>
       <c r="I60" s="3">
-        <v>50600</v>
+        <v>51100</v>
       </c>
       <c r="J60" s="3">
-        <v>89000</v>
+        <v>90000</v>
       </c>
       <c r="K60" s="3">
         <v>56600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>271700</v>
+        <v>274800</v>
       </c>
       <c r="E61" s="3">
-        <v>263100</v>
+        <v>266100</v>
       </c>
       <c r="F61" s="3">
-        <v>242000</v>
+        <v>244800</v>
       </c>
       <c r="G61" s="3">
-        <v>284000</v>
+        <v>287200</v>
       </c>
       <c r="H61" s="3">
-        <v>232400</v>
+        <v>235100</v>
       </c>
       <c r="I61" s="3">
-        <v>223400</v>
+        <v>225900</v>
       </c>
       <c r="J61" s="3">
-        <v>197500</v>
+        <v>199800</v>
       </c>
       <c r="K61" s="3">
         <v>176700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>120200</v>
+        <v>121600</v>
       </c>
       <c r="E62" s="3">
-        <v>169400</v>
+        <v>171400</v>
       </c>
       <c r="F62" s="3">
-        <v>184400</v>
+        <v>186500</v>
       </c>
       <c r="G62" s="3">
-        <v>139000</v>
+        <v>140500</v>
       </c>
       <c r="H62" s="3">
-        <v>154900</v>
+        <v>156600</v>
       </c>
       <c r="I62" s="3">
-        <v>160100</v>
+        <v>161900</v>
       </c>
       <c r="J62" s="3">
-        <v>127500</v>
+        <v>129000</v>
       </c>
       <c r="K62" s="3">
         <v>181400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>443200</v>
+        <v>448300</v>
       </c>
       <c r="E66" s="3">
-        <v>476200</v>
+        <v>481600</v>
       </c>
       <c r="F66" s="3">
-        <v>473100</v>
+        <v>478500</v>
       </c>
       <c r="G66" s="3">
-        <v>464600</v>
+        <v>470000</v>
       </c>
       <c r="H66" s="3">
-        <v>459600</v>
+        <v>464900</v>
       </c>
       <c r="I66" s="3">
-        <v>434000</v>
+        <v>439000</v>
       </c>
       <c r="J66" s="3">
-        <v>414000</v>
+        <v>418800</v>
       </c>
       <c r="K66" s="3">
         <v>414700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-147000</v>
+        <v>-148600</v>
       </c>
       <c r="E72" s="3">
-        <v>-106300</v>
+        <v>-107500</v>
       </c>
       <c r="F72" s="3">
-        <v>-78300</v>
+        <v>-79200</v>
       </c>
       <c r="G72" s="3">
-        <v>-104400</v>
+        <v>-105600</v>
       </c>
       <c r="H72" s="3">
-        <v>-80500</v>
+        <v>-81400</v>
       </c>
       <c r="I72" s="3">
-        <v>-33000</v>
+        <v>-33400</v>
       </c>
       <c r="J72" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="K72" s="3">
         <v>34100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>229600</v>
+        <v>232200</v>
       </c>
       <c r="E76" s="3">
-        <v>264200</v>
+        <v>267200</v>
       </c>
       <c r="F76" s="3">
-        <v>279400</v>
+        <v>282600</v>
       </c>
       <c r="G76" s="3">
-        <v>258000</v>
+        <v>260900</v>
       </c>
       <c r="H76" s="3">
-        <v>281900</v>
+        <v>285100</v>
       </c>
       <c r="I76" s="3">
-        <v>321400</v>
+        <v>325100</v>
       </c>
       <c r="J76" s="3">
-        <v>324400</v>
+        <v>328100</v>
       </c>
       <c r="K76" s="3">
         <v>335400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-40600</v>
+        <v>-41100</v>
       </c>
       <c r="E81" s="3">
-        <v>-27200</v>
+        <v>-27500</v>
       </c>
       <c r="F81" s="3">
-        <v>26100</v>
+        <v>26400</v>
       </c>
       <c r="G81" s="3">
-        <v>-23900</v>
+        <v>-24200</v>
       </c>
       <c r="H81" s="3">
-        <v>-47500</v>
+        <v>-48000</v>
       </c>
       <c r="I81" s="3">
-        <v>-41000</v>
+        <v>-41500</v>
       </c>
       <c r="J81" s="3">
-        <v>-26500</v>
+        <v>-26800</v>
       </c>
       <c r="K81" s="3">
         <v>-6900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>83500</v>
+        <v>84500</v>
       </c>
       <c r="E83" s="3">
-        <v>53900</v>
+        <v>54500</v>
       </c>
       <c r="F83" s="3">
-        <v>36300</v>
+        <v>36700</v>
       </c>
       <c r="G83" s="3">
-        <v>40400</v>
+        <v>40800</v>
       </c>
       <c r="H83" s="3">
-        <v>37700</v>
+        <v>38200</v>
       </c>
       <c r="I83" s="3">
-        <v>36000</v>
+        <v>36400</v>
       </c>
       <c r="J83" s="3">
-        <v>26300</v>
+        <v>26600</v>
       </c>
       <c r="K83" s="3">
         <v>16300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="E89" s="3">
-        <v>71600</v>
+        <v>72400</v>
       </c>
       <c r="F89" s="3">
-        <v>160700</v>
+        <v>162500</v>
       </c>
       <c r="G89" s="3">
-        <v>25800</v>
+        <v>26100</v>
       </c>
       <c r="H89" s="3">
-        <v>39300</v>
+        <v>39800</v>
       </c>
       <c r="I89" s="3">
-        <v>38500</v>
+        <v>38900</v>
       </c>
       <c r="J89" s="3">
-        <v>51400</v>
+        <v>52000</v>
       </c>
       <c r="K89" s="3">
         <v>51300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38600</v>
+        <v>-39100</v>
       </c>
       <c r="E91" s="3">
-        <v>-72200</v>
+        <v>-73000</v>
       </c>
       <c r="F91" s="3">
-        <v>-74000</v>
+        <v>-74800</v>
       </c>
       <c r="G91" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="H91" s="3">
-        <v>-14400</v>
+        <v>-14600</v>
       </c>
       <c r="I91" s="3">
-        <v>-29500</v>
+        <v>-29900</v>
       </c>
       <c r="J91" s="3">
-        <v>-75000</v>
+        <v>-75800</v>
       </c>
       <c r="K91" s="3">
         <v>-145200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="E94" s="3">
-        <v>-71800</v>
+        <v>-72700</v>
       </c>
       <c r="F94" s="3">
-        <v>-77500</v>
+        <v>-78400</v>
       </c>
       <c r="G94" s="3">
-        <v>-14500</v>
+        <v>-14700</v>
       </c>
       <c r="H94" s="3">
         <v>-2100</v>
       </c>
       <c r="I94" s="3">
-        <v>-30000</v>
+        <v>-30300</v>
       </c>
       <c r="J94" s="3">
-        <v>-71400</v>
+        <v>-72300</v>
       </c>
       <c r="K94" s="3">
         <v>-127900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12700</v>
+        <v>-12900</v>
       </c>
       <c r="E100" s="3">
-        <v>-25600</v>
+        <v>-25900</v>
       </c>
       <c r="F100" s="3">
-        <v>-86000</v>
+        <v>-86900</v>
       </c>
       <c r="G100" s="3">
         <v>4800</v>
       </c>
       <c r="H100" s="3">
-        <v>-23300</v>
+        <v>-23600</v>
       </c>
       <c r="I100" s="3">
-        <v>-33500</v>
+        <v>-33900</v>
       </c>
       <c r="J100" s="3">
-        <v>-21700</v>
+        <v>-22000</v>
       </c>
       <c r="K100" s="3">
         <v>-27200</v>
@@ -3469,7 +3469,7 @@
         <v>-500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E102" s="3">
-        <v>-26300</v>
+        <v>-26600</v>
       </c>
       <c r="F102" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="G102" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="H102" s="3">
-        <v>17300</v>
+        <v>17500</v>
       </c>
       <c r="I102" s="3">
-        <v>-22500</v>
+        <v>-22800</v>
       </c>
       <c r="J102" s="3">
-        <v>-39700</v>
+        <v>-40100</v>
       </c>
       <c r="K102" s="3">
         <v>-107500</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>TGB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>253400</v>
+        <v>272200</v>
       </c>
       <c r="E8" s="3">
-        <v>264700</v>
+        <v>261000</v>
       </c>
       <c r="F8" s="3">
-        <v>291200</v>
+        <v>272700</v>
       </c>
       <c r="G8" s="3">
-        <v>203100</v>
+        <v>300000</v>
       </c>
       <c r="H8" s="3">
-        <v>222700</v>
+        <v>209300</v>
       </c>
       <c r="I8" s="3">
-        <v>264000</v>
+        <v>229400</v>
       </c>
       <c r="J8" s="3">
+        <v>272000</v>
+      </c>
+      <c r="K8" s="3">
         <v>223300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>190900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>283500</v>
+        <v>253400</v>
       </c>
       <c r="E9" s="3">
-        <v>233000</v>
+        <v>292100</v>
       </c>
       <c r="F9" s="3">
-        <v>191200</v>
+        <v>240000</v>
       </c>
       <c r="G9" s="3">
-        <v>201800</v>
+        <v>196900</v>
       </c>
       <c r="H9" s="3">
-        <v>221700</v>
+        <v>207800</v>
       </c>
       <c r="I9" s="3">
-        <v>281800</v>
+        <v>228400</v>
       </c>
       <c r="J9" s="3">
+        <v>290300</v>
+      </c>
+      <c r="K9" s="3">
         <v>190200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>297500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-30100</v>
+        <v>18800</v>
       </c>
       <c r="E10" s="3">
-        <v>31700</v>
+        <v>-31000</v>
       </c>
       <c r="F10" s="3">
-        <v>100100</v>
+        <v>32700</v>
       </c>
       <c r="G10" s="3">
+        <v>103100</v>
+      </c>
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
-        <v>-17800</v>
-      </c>
       <c r="J10" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K10" s="3">
         <v>33100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-106600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>66300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="F12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G12" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
-        <v>4600</v>
-      </c>
       <c r="J12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="3">
-        <v>15800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>2000</v>
-      </c>
       <c r="J14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>10800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -953,12 +975,15 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300600</v>
+        <v>267400</v>
       </c>
       <c r="E17" s="3">
-        <v>243000</v>
+        <v>309700</v>
       </c>
       <c r="F17" s="3">
-        <v>230400</v>
+        <v>250300</v>
       </c>
       <c r="G17" s="3">
-        <v>222900</v>
+        <v>237400</v>
       </c>
       <c r="H17" s="3">
-        <v>223200</v>
+        <v>229600</v>
       </c>
       <c r="I17" s="3">
-        <v>280700</v>
+        <v>230000</v>
       </c>
       <c r="J17" s="3">
+        <v>289200</v>
+      </c>
+      <c r="K17" s="3">
         <v>223600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>195200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47200</v>
+        <v>4800</v>
       </c>
       <c r="E18" s="3">
-        <v>21700</v>
+        <v>-48700</v>
       </c>
       <c r="F18" s="3">
-        <v>60800</v>
+        <v>22400</v>
       </c>
       <c r="G18" s="3">
-        <v>-19800</v>
+        <v>62600</v>
       </c>
       <c r="H18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-16700</v>
-      </c>
       <c r="J18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>47700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7900</v>
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
-        <v>-24200</v>
+        <v>8100</v>
       </c>
       <c r="F20" s="3">
-        <v>11900</v>
+        <v>-25000</v>
       </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>12200</v>
       </c>
       <c r="H20" s="3">
-        <v>-33800</v>
+        <v>5700</v>
       </c>
       <c r="I20" s="3">
-        <v>-12800</v>
+        <v>-34800</v>
       </c>
       <c r="J20" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45000</v>
+        <v>79500</v>
       </c>
       <c r="E21" s="3">
-        <v>51900</v>
+        <v>46700</v>
       </c>
       <c r="F21" s="3">
-        <v>109300</v>
+        <v>53700</v>
       </c>
       <c r="G21" s="3">
-        <v>26500</v>
+        <v>112800</v>
       </c>
       <c r="H21" s="3">
-        <v>3800</v>
+        <v>27500</v>
       </c>
       <c r="I21" s="3">
-        <v>6900</v>
+        <v>4100</v>
       </c>
       <c r="J21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K21" s="3">
         <v>19900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26600</v>
+        <v>29600</v>
       </c>
       <c r="E22" s="3">
-        <v>24700</v>
+        <v>27400</v>
       </c>
       <c r="F22" s="3">
-        <v>23800</v>
+        <v>25400</v>
       </c>
       <c r="G22" s="3">
-        <v>21300</v>
+        <v>24600</v>
       </c>
       <c r="H22" s="3">
-        <v>18000</v>
+        <v>21900</v>
       </c>
       <c r="I22" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="J22" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K22" s="3">
         <v>18100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-66000</v>
+        <v>-25900</v>
       </c>
       <c r="E23" s="3">
-        <v>-27200</v>
+        <v>-68000</v>
       </c>
       <c r="F23" s="3">
-        <v>48800</v>
+        <v>-28000</v>
       </c>
       <c r="G23" s="3">
-        <v>-35500</v>
+        <v>50300</v>
       </c>
       <c r="H23" s="3">
-        <v>-52300</v>
+        <v>-36600</v>
       </c>
       <c r="I23" s="3">
-        <v>-48200</v>
+        <v>-53900</v>
       </c>
       <c r="J23" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-24800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-24900</v>
+        <v>-7200</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>-25600</v>
       </c>
       <c r="F24" s="3">
-        <v>22500</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>-11300</v>
+        <v>23100</v>
       </c>
       <c r="H24" s="3">
-        <v>-4300</v>
+        <v>-11700</v>
       </c>
       <c r="I24" s="3">
-        <v>-6800</v>
+        <v>-4400</v>
       </c>
       <c r="J24" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41100</v>
+        <v>-18700</v>
       </c>
       <c r="E26" s="3">
-        <v>-27500</v>
+        <v>-42300</v>
       </c>
       <c r="F26" s="3">
-        <v>26400</v>
+        <v>-28400</v>
       </c>
       <c r="G26" s="3">
-        <v>-24200</v>
+        <v>27200</v>
       </c>
       <c r="H26" s="3">
-        <v>-48000</v>
+        <v>-24900</v>
       </c>
       <c r="I26" s="3">
-        <v>-41500</v>
+        <v>-49400</v>
       </c>
       <c r="J26" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-26800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41100</v>
+        <v>-18700</v>
       </c>
       <c r="E27" s="3">
-        <v>-27500</v>
+        <v>-42300</v>
       </c>
       <c r="F27" s="3">
-        <v>26400</v>
+        <v>-28400</v>
       </c>
       <c r="G27" s="3">
-        <v>-24200</v>
+        <v>27200</v>
       </c>
       <c r="H27" s="3">
-        <v>-48000</v>
+        <v>-24900</v>
       </c>
       <c r="I27" s="3">
-        <v>-41500</v>
+        <v>-49400</v>
       </c>
       <c r="J27" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-26800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7900</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
-        <v>24200</v>
+        <v>-8100</v>
       </c>
       <c r="F32" s="3">
-        <v>-11900</v>
+        <v>25000</v>
       </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-12200</v>
       </c>
       <c r="H32" s="3">
-        <v>33800</v>
+        <v>-5700</v>
       </c>
       <c r="I32" s="3">
-        <v>12800</v>
+        <v>34800</v>
       </c>
       <c r="J32" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K32" s="3">
         <v>6300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41100</v>
+        <v>-18700</v>
       </c>
       <c r="E33" s="3">
-        <v>-27500</v>
+        <v>-42300</v>
       </c>
       <c r="F33" s="3">
-        <v>26400</v>
+        <v>-28400</v>
       </c>
       <c r="G33" s="3">
-        <v>-24200</v>
+        <v>27200</v>
       </c>
       <c r="H33" s="3">
-        <v>-48000</v>
+        <v>-24900</v>
       </c>
       <c r="I33" s="3">
-        <v>-41500</v>
+        <v>-49400</v>
       </c>
       <c r="J33" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-26800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41100</v>
+        <v>-18700</v>
       </c>
       <c r="E35" s="3">
-        <v>-27500</v>
+        <v>-42300</v>
       </c>
       <c r="F35" s="3">
-        <v>26400</v>
+        <v>-28400</v>
       </c>
       <c r="G35" s="3">
-        <v>-24200</v>
+        <v>27200</v>
       </c>
       <c r="H35" s="3">
-        <v>-48000</v>
+        <v>-24900</v>
       </c>
       <c r="I35" s="3">
-        <v>-41500</v>
+        <v>-49400</v>
       </c>
       <c r="J35" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-26800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41000</v>
+        <v>67500</v>
       </c>
       <c r="E41" s="3">
-        <v>35200</v>
+        <v>42200</v>
       </c>
       <c r="F41" s="3">
-        <v>61800</v>
+        <v>36200</v>
       </c>
       <c r="G41" s="3">
-        <v>68500</v>
+        <v>63600</v>
       </c>
       <c r="H41" s="3">
-        <v>52700</v>
+        <v>70600</v>
       </c>
       <c r="I41" s="3">
-        <v>41000</v>
+        <v>54300</v>
       </c>
       <c r="J41" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K41" s="3">
         <v>63800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>203200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>213400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E42" s="3">
         <v>600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10600</v>
+        <v>5300</v>
       </c>
       <c r="E43" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F43" s="3">
-        <v>16600</v>
+        <v>11700</v>
       </c>
       <c r="G43" s="3">
-        <v>9900</v>
+        <v>17100</v>
       </c>
       <c r="H43" s="3">
         <v>10200</v>
       </c>
       <c r="I43" s="3">
-        <v>30600</v>
+        <v>10500</v>
       </c>
       <c r="J43" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K43" s="3">
         <v>66400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33600</v>
+        <v>46700</v>
       </c>
       <c r="E44" s="3">
-        <v>30000</v>
+        <v>34600</v>
       </c>
       <c r="F44" s="3">
-        <v>30500</v>
+        <v>30900</v>
       </c>
       <c r="G44" s="3">
-        <v>46600</v>
+        <v>31400</v>
       </c>
       <c r="H44" s="3">
-        <v>31300</v>
+        <v>48000</v>
       </c>
       <c r="I44" s="3">
-        <v>27800</v>
+        <v>32200</v>
       </c>
       <c r="J44" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K44" s="3">
         <v>36300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="E45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
-        <v>5000</v>
-      </c>
       <c r="J45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>87600</v>
+        <v>124700</v>
       </c>
       <c r="E46" s="3">
-        <v>80400</v>
+        <v>90300</v>
       </c>
       <c r="F46" s="3">
-        <v>112200</v>
+        <v>82800</v>
       </c>
       <c r="G46" s="3">
-        <v>127300</v>
+        <v>115600</v>
       </c>
       <c r="H46" s="3">
-        <v>96700</v>
+        <v>131100</v>
       </c>
       <c r="I46" s="3">
-        <v>105200</v>
+        <v>99600</v>
       </c>
       <c r="J46" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K46" s="3">
         <v>176200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>172200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>335700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>8000</v>
+        <v>1900</v>
       </c>
       <c r="H47" s="3">
-        <v>20300</v>
+        <v>8200</v>
       </c>
       <c r="I47" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="J47" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K47" s="3">
         <v>20200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>66600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>583500</v>
+        <v>588900</v>
       </c>
       <c r="E48" s="3">
+        <v>601100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>651300</v>
+      </c>
+      <c r="G48" s="3">
         <v>632200</v>
       </c>
-      <c r="F48" s="3">
-        <v>613800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>562100</v>
-      </c>
       <c r="H48" s="3">
-        <v>1223600</v>
+        <v>579100</v>
       </c>
       <c r="I48" s="3">
-        <v>611000</v>
+        <v>1260500</v>
       </c>
       <c r="J48" s="3">
+        <v>629400</v>
+      </c>
+      <c r="K48" s="3">
         <v>522400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>426600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>338500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G49" s="3">
         <v>4100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4300</v>
       </c>
       <c r="H49" s="3">
         <v>4400</v>
       </c>
       <c r="I49" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J49" s="3" t="s">
+        <v>4500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
-        <v>30000</v>
+        <v>3500</v>
       </c>
       <c r="F52" s="3">
-        <v>29400</v>
+        <v>30900</v>
       </c>
       <c r="G52" s="3">
-        <v>29300</v>
+        <v>30200</v>
       </c>
       <c r="H52" s="3">
-        <v>41400</v>
+        <v>30200</v>
       </c>
       <c r="I52" s="3">
-        <v>22400</v>
+        <v>42700</v>
       </c>
       <c r="J52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K52" s="3">
         <v>28000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>680500</v>
+        <v>721900</v>
       </c>
       <c r="E54" s="3">
-        <v>748800</v>
+        <v>701000</v>
       </c>
       <c r="F54" s="3">
-        <v>761100</v>
+        <v>771400</v>
       </c>
       <c r="G54" s="3">
-        <v>730900</v>
+        <v>784100</v>
       </c>
       <c r="H54" s="3">
-        <v>750000</v>
+        <v>752900</v>
       </c>
       <c r="I54" s="3">
-        <v>764100</v>
+        <v>772600</v>
       </c>
       <c r="J54" s="3">
+        <v>787100</v>
+      </c>
+      <c r="K54" s="3">
         <v>746900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>750100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>764200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18600</v>
+        <v>26000</v>
       </c>
       <c r="E57" s="3">
-        <v>16800</v>
+        <v>19200</v>
       </c>
       <c r="F57" s="3">
-        <v>18400</v>
+        <v>17300</v>
       </c>
       <c r="G57" s="3">
-        <v>21700</v>
+        <v>18900</v>
       </c>
       <c r="H57" s="3">
-        <v>43400</v>
+        <v>22300</v>
       </c>
       <c r="I57" s="3">
-        <v>28400</v>
+        <v>44800</v>
       </c>
       <c r="J57" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K57" s="3">
         <v>20700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12700</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>7600</v>
+        <v>13100</v>
       </c>
       <c r="F58" s="3">
-        <v>8700</v>
+        <v>7800</v>
       </c>
       <c r="G58" s="3">
-        <v>12400</v>
+        <v>8900</v>
       </c>
       <c r="H58" s="3">
-        <v>46000</v>
+        <v>12800</v>
       </c>
       <c r="I58" s="3">
-        <v>15500</v>
+        <v>47400</v>
       </c>
       <c r="J58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K58" s="3">
         <v>17400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20500</v>
+        <v>22300</v>
       </c>
       <c r="E59" s="3">
-        <v>19800</v>
+        <v>21100</v>
       </c>
       <c r="F59" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="G59" s="3">
-        <v>8100</v>
+        <v>20800</v>
       </c>
       <c r="H59" s="3">
-        <v>7200</v>
+        <v>8300</v>
       </c>
       <c r="I59" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="J59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K59" s="3">
         <v>51900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51800</v>
+        <v>62200</v>
       </c>
       <c r="E60" s="3">
-        <v>44200</v>
+        <v>53400</v>
       </c>
       <c r="F60" s="3">
-        <v>47300</v>
+        <v>45500</v>
       </c>
       <c r="G60" s="3">
-        <v>42200</v>
+        <v>48700</v>
       </c>
       <c r="H60" s="3">
-        <v>73500</v>
+        <v>43500</v>
       </c>
       <c r="I60" s="3">
-        <v>51100</v>
+        <v>75700</v>
       </c>
       <c r="J60" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K60" s="3">
         <v>90000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>274800</v>
+        <v>274200</v>
       </c>
       <c r="E61" s="3">
-        <v>266100</v>
+        <v>283100</v>
       </c>
       <c r="F61" s="3">
-        <v>244800</v>
+        <v>274100</v>
       </c>
       <c r="G61" s="3">
-        <v>287200</v>
+        <v>252100</v>
       </c>
       <c r="H61" s="3">
-        <v>235100</v>
+        <v>295900</v>
       </c>
       <c r="I61" s="3">
-        <v>225900</v>
+        <v>242200</v>
       </c>
       <c r="J61" s="3">
+        <v>232800</v>
+      </c>
+      <c r="K61" s="3">
         <v>199800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>176700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>167900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>121600</v>
+        <v>133800</v>
       </c>
       <c r="E62" s="3">
-        <v>171400</v>
+        <v>125300</v>
       </c>
       <c r="F62" s="3">
-        <v>186500</v>
+        <v>176500</v>
       </c>
       <c r="G62" s="3">
-        <v>140500</v>
+        <v>192100</v>
       </c>
       <c r="H62" s="3">
-        <v>156600</v>
+        <v>144800</v>
       </c>
       <c r="I62" s="3">
-        <v>161900</v>
+        <v>161300</v>
       </c>
       <c r="J62" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K62" s="3">
         <v>129000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>181400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>167800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>448300</v>
+        <v>470300</v>
       </c>
       <c r="E66" s="3">
-        <v>481600</v>
+        <v>461800</v>
       </c>
       <c r="F66" s="3">
-        <v>478500</v>
+        <v>496100</v>
       </c>
       <c r="G66" s="3">
-        <v>470000</v>
+        <v>493000</v>
       </c>
       <c r="H66" s="3">
-        <v>464900</v>
+        <v>484100</v>
       </c>
       <c r="I66" s="3">
-        <v>439000</v>
+        <v>478900</v>
       </c>
       <c r="J66" s="3">
+        <v>452200</v>
+      </c>
+      <c r="K66" s="3">
         <v>418800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>414700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>382500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-148600</v>
+        <v>-171800</v>
       </c>
       <c r="E72" s="3">
-        <v>-107500</v>
+        <v>-153100</v>
       </c>
       <c r="F72" s="3">
-        <v>-79200</v>
+        <v>-110800</v>
       </c>
       <c r="G72" s="3">
-        <v>-105600</v>
+        <v>-81600</v>
       </c>
       <c r="H72" s="3">
-        <v>-81400</v>
+        <v>-108800</v>
       </c>
       <c r="I72" s="3">
-        <v>-33400</v>
+        <v>-83900</v>
       </c>
       <c r="J72" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="K72" s="3">
         <v>8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>66700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>232200</v>
+        <v>251700</v>
       </c>
       <c r="E76" s="3">
-        <v>267200</v>
+        <v>239200</v>
       </c>
       <c r="F76" s="3">
-        <v>282600</v>
+        <v>275200</v>
       </c>
       <c r="G76" s="3">
-        <v>260900</v>
+        <v>291100</v>
       </c>
       <c r="H76" s="3">
-        <v>285100</v>
+        <v>268800</v>
       </c>
       <c r="I76" s="3">
-        <v>325100</v>
+        <v>293700</v>
       </c>
       <c r="J76" s="3">
+        <v>334900</v>
+      </c>
+      <c r="K76" s="3">
         <v>328100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>335400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>381700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41100</v>
+        <v>-18700</v>
       </c>
       <c r="E81" s="3">
-        <v>-27500</v>
+        <v>-42300</v>
       </c>
       <c r="F81" s="3">
-        <v>26400</v>
+        <v>-28400</v>
       </c>
       <c r="G81" s="3">
-        <v>-24200</v>
+        <v>27200</v>
       </c>
       <c r="H81" s="3">
-        <v>-48000</v>
+        <v>-24900</v>
       </c>
       <c r="I81" s="3">
-        <v>-41500</v>
+        <v>-49400</v>
       </c>
       <c r="J81" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-26800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>84500</v>
+        <v>75600</v>
       </c>
       <c r="E83" s="3">
-        <v>54500</v>
+        <v>87000</v>
       </c>
       <c r="F83" s="3">
-        <v>36700</v>
+        <v>56100</v>
       </c>
       <c r="G83" s="3">
-        <v>40800</v>
+        <v>37800</v>
       </c>
       <c r="H83" s="3">
-        <v>38200</v>
+        <v>42000</v>
       </c>
       <c r="I83" s="3">
-        <v>36400</v>
+        <v>39300</v>
       </c>
       <c r="J83" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K83" s="3">
         <v>26600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32800</v>
+        <v>84200</v>
       </c>
       <c r="E89" s="3">
-        <v>72400</v>
+        <v>33800</v>
       </c>
       <c r="F89" s="3">
-        <v>162500</v>
+        <v>74600</v>
       </c>
       <c r="G89" s="3">
-        <v>26100</v>
+        <v>167400</v>
       </c>
       <c r="H89" s="3">
-        <v>39800</v>
+        <v>26800</v>
       </c>
       <c r="I89" s="3">
-        <v>38900</v>
+        <v>41000</v>
       </c>
       <c r="J89" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K89" s="3">
         <v>52000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39100</v>
+        <v>-51900</v>
       </c>
       <c r="E91" s="3">
-        <v>-73000</v>
+        <v>-40200</v>
       </c>
       <c r="F91" s="3">
-        <v>-74800</v>
+        <v>-75200</v>
       </c>
       <c r="G91" s="3">
-        <v>-14500</v>
+        <v>-77100</v>
       </c>
       <c r="H91" s="3">
-        <v>-14600</v>
+        <v>-14900</v>
       </c>
       <c r="I91" s="3">
-        <v>-29900</v>
+        <v>-15000</v>
       </c>
       <c r="J91" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-75800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-145200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13000</v>
+        <v>-47300</v>
       </c>
       <c r="E94" s="3">
-        <v>-72700</v>
+        <v>-13400</v>
       </c>
       <c r="F94" s="3">
-        <v>-78400</v>
+        <v>-74900</v>
       </c>
       <c r="G94" s="3">
-        <v>-14700</v>
+        <v>-80700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2100</v>
+        <v>-15100</v>
       </c>
       <c r="I94" s="3">
-        <v>-30300</v>
+        <v>-2200</v>
       </c>
       <c r="J94" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-72300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-127900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12900</v>
+        <v>-9500</v>
       </c>
       <c r="E100" s="3">
-        <v>-25900</v>
+        <v>-13300</v>
       </c>
       <c r="F100" s="3">
-        <v>-86900</v>
+        <v>-26600</v>
       </c>
       <c r="G100" s="3">
-        <v>4800</v>
+        <v>-89600</v>
       </c>
       <c r="H100" s="3">
-        <v>-23600</v>
+        <v>5000</v>
       </c>
       <c r="I100" s="3">
-        <v>-33900</v>
+        <v>-24300</v>
       </c>
       <c r="J100" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>133300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-4000</v>
-      </c>
       <c r="G101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>3400</v>
-      </c>
       <c r="I101" s="3">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K101" s="3">
         <v>2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5800</v>
+        <v>25300</v>
       </c>
       <c r="E102" s="3">
-        <v>-26600</v>
+        <v>6000</v>
       </c>
       <c r="F102" s="3">
-        <v>-6800</v>
+        <v>-27400</v>
       </c>
       <c r="G102" s="3">
-        <v>15800</v>
+        <v>-7000</v>
       </c>
       <c r="H102" s="3">
-        <v>17500</v>
+        <v>16300</v>
       </c>
       <c r="I102" s="3">
-        <v>-22800</v>
+        <v>18000</v>
       </c>
       <c r="J102" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-40100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-107500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>272200</v>
+        <v>284600</v>
       </c>
       <c r="E8" s="3">
-        <v>261000</v>
+        <v>272900</v>
       </c>
       <c r="F8" s="3">
-        <v>272700</v>
+        <v>285100</v>
       </c>
       <c r="G8" s="3">
-        <v>300000</v>
+        <v>313600</v>
       </c>
       <c r="H8" s="3">
-        <v>209300</v>
+        <v>218800</v>
       </c>
       <c r="I8" s="3">
-        <v>229400</v>
+        <v>239800</v>
       </c>
       <c r="J8" s="3">
-        <v>272000</v>
+        <v>284300</v>
       </c>
       <c r="K8" s="3">
         <v>223300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>253400</v>
+        <v>264900</v>
       </c>
       <c r="E9" s="3">
-        <v>292100</v>
+        <v>305300</v>
       </c>
       <c r="F9" s="3">
-        <v>240000</v>
+        <v>250900</v>
       </c>
       <c r="G9" s="3">
-        <v>196900</v>
+        <v>205900</v>
       </c>
       <c r="H9" s="3">
-        <v>207800</v>
+        <v>217300</v>
       </c>
       <c r="I9" s="3">
-        <v>228400</v>
+        <v>238700</v>
       </c>
       <c r="J9" s="3">
-        <v>290300</v>
+        <v>303500</v>
       </c>
       <c r="K9" s="3">
         <v>190200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="E10" s="3">
-        <v>-31000</v>
+        <v>-32500</v>
       </c>
       <c r="F10" s="3">
-        <v>32700</v>
+        <v>34200</v>
       </c>
       <c r="G10" s="3">
-        <v>103100</v>
+        <v>107800</v>
       </c>
       <c r="H10" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I10" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J10" s="3">
-        <v>-18400</v>
+        <v>-19200</v>
       </c>
       <c r="K10" s="3">
         <v>33100</v>
@@ -844,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F12" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G12" s="3">
         <v>1400</v>
@@ -859,10 +859,10 @@
         <v>1700</v>
       </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J12" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>267400</v>
+        <v>279600</v>
       </c>
       <c r="E17" s="3">
-        <v>309700</v>
+        <v>323800</v>
       </c>
       <c r="F17" s="3">
-        <v>250300</v>
+        <v>261700</v>
       </c>
       <c r="G17" s="3">
-        <v>237400</v>
+        <v>248100</v>
       </c>
       <c r="H17" s="3">
-        <v>229600</v>
+        <v>240000</v>
       </c>
       <c r="I17" s="3">
-        <v>230000</v>
+        <v>240400</v>
       </c>
       <c r="J17" s="3">
-        <v>289200</v>
+        <v>302300</v>
       </c>
       <c r="K17" s="3">
         <v>223600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="3">
-        <v>-48700</v>
+        <v>-50900</v>
       </c>
       <c r="F18" s="3">
-        <v>22400</v>
+        <v>23400</v>
       </c>
       <c r="G18" s="3">
-        <v>62600</v>
+        <v>65500</v>
       </c>
       <c r="H18" s="3">
-        <v>-20300</v>
+        <v>-21300</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J18" s="3">
-        <v>-17200</v>
+        <v>-18000</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
@@ -1092,22 +1092,22 @@
         <v>-1100</v>
       </c>
       <c r="E20" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="F20" s="3">
-        <v>-25000</v>
+        <v>-26100</v>
       </c>
       <c r="G20" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="H20" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>-34800</v>
+        <v>-36400</v>
       </c>
       <c r="J20" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="K20" s="3">
         <v>-6300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>79500</v>
+        <v>83000</v>
       </c>
       <c r="E21" s="3">
-        <v>46700</v>
+        <v>48800</v>
       </c>
       <c r="F21" s="3">
-        <v>53700</v>
+        <v>56100</v>
       </c>
       <c r="G21" s="3">
-        <v>112800</v>
+        <v>117900</v>
       </c>
       <c r="H21" s="3">
-        <v>27500</v>
+        <v>28700</v>
       </c>
       <c r="I21" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J21" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="K21" s="3">
         <v>19900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29600</v>
+        <v>30900</v>
       </c>
       <c r="E22" s="3">
-        <v>27400</v>
+        <v>28700</v>
       </c>
       <c r="F22" s="3">
-        <v>25400</v>
+        <v>26600</v>
       </c>
       <c r="G22" s="3">
-        <v>24600</v>
+        <v>25700</v>
       </c>
       <c r="H22" s="3">
-        <v>21900</v>
+        <v>22900</v>
       </c>
       <c r="I22" s="3">
-        <v>18500</v>
+        <v>19400</v>
       </c>
       <c r="J22" s="3">
-        <v>19300</v>
+        <v>20200</v>
       </c>
       <c r="K22" s="3">
         <v>18100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25900</v>
+        <v>-27000</v>
       </c>
       <c r="E23" s="3">
-        <v>-68000</v>
+        <v>-71100</v>
       </c>
       <c r="F23" s="3">
-        <v>-28000</v>
+        <v>-29300</v>
       </c>
       <c r="G23" s="3">
-        <v>50300</v>
+        <v>52600</v>
       </c>
       <c r="H23" s="3">
-        <v>-36600</v>
+        <v>-38200</v>
       </c>
       <c r="I23" s="3">
-        <v>-53900</v>
+        <v>-56300</v>
       </c>
       <c r="J23" s="3">
-        <v>-49700</v>
+        <v>-52000</v>
       </c>
       <c r="K23" s="3">
         <v>-24800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7200</v>
+        <v>-7500</v>
       </c>
       <c r="E24" s="3">
-        <v>-25600</v>
+        <v>-26800</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="H24" s="3">
-        <v>-11700</v>
+        <v>-12200</v>
       </c>
       <c r="I24" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="J24" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18700</v>
+        <v>-19500</v>
       </c>
       <c r="E26" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="F26" s="3">
-        <v>-28400</v>
+        <v>-29700</v>
       </c>
       <c r="G26" s="3">
-        <v>27200</v>
+        <v>28400</v>
       </c>
       <c r="H26" s="3">
-        <v>-24900</v>
+        <v>-26000</v>
       </c>
       <c r="I26" s="3">
-        <v>-49400</v>
+        <v>-51700</v>
       </c>
       <c r="J26" s="3">
-        <v>-42700</v>
+        <v>-44700</v>
       </c>
       <c r="K26" s="3">
         <v>-26800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18700</v>
+        <v>-19500</v>
       </c>
       <c r="E27" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="F27" s="3">
-        <v>-28400</v>
+        <v>-29700</v>
       </c>
       <c r="G27" s="3">
-        <v>27200</v>
+        <v>28400</v>
       </c>
       <c r="H27" s="3">
-        <v>-24900</v>
+        <v>-26000</v>
       </c>
       <c r="I27" s="3">
-        <v>-49400</v>
+        <v>-51700</v>
       </c>
       <c r="J27" s="3">
-        <v>-42700</v>
+        <v>-44700</v>
       </c>
       <c r="K27" s="3">
         <v>-26800</v>
@@ -1524,22 +1524,22 @@
         <v>1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8100</v>
+        <v>-8500</v>
       </c>
       <c r="F32" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="G32" s="3">
-        <v>-12200</v>
+        <v>-12800</v>
       </c>
       <c r="H32" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>34800</v>
+        <v>36400</v>
       </c>
       <c r="J32" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="K32" s="3">
         <v>6300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18700</v>
+        <v>-19500</v>
       </c>
       <c r="E33" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="F33" s="3">
-        <v>-28400</v>
+        <v>-29700</v>
       </c>
       <c r="G33" s="3">
-        <v>27200</v>
+        <v>28400</v>
       </c>
       <c r="H33" s="3">
-        <v>-24900</v>
+        <v>-26000</v>
       </c>
       <c r="I33" s="3">
-        <v>-49400</v>
+        <v>-51700</v>
       </c>
       <c r="J33" s="3">
-        <v>-42700</v>
+        <v>-44700</v>
       </c>
       <c r="K33" s="3">
         <v>-26800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18700</v>
+        <v>-19500</v>
       </c>
       <c r="E35" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="F35" s="3">
-        <v>-28400</v>
+        <v>-29700</v>
       </c>
       <c r="G35" s="3">
-        <v>27200</v>
+        <v>28400</v>
       </c>
       <c r="H35" s="3">
-        <v>-24900</v>
+        <v>-26000</v>
       </c>
       <c r="I35" s="3">
-        <v>-49400</v>
+        <v>-51700</v>
       </c>
       <c r="J35" s="3">
-        <v>-42700</v>
+        <v>-44700</v>
       </c>
       <c r="K35" s="3">
         <v>-26800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>67500</v>
+        <v>70600</v>
       </c>
       <c r="E41" s="3">
-        <v>42200</v>
+        <v>44100</v>
       </c>
       <c r="F41" s="3">
-        <v>36200</v>
+        <v>37900</v>
       </c>
       <c r="G41" s="3">
-        <v>63600</v>
+        <v>66500</v>
       </c>
       <c r="H41" s="3">
-        <v>70600</v>
+        <v>73800</v>
       </c>
       <c r="I41" s="3">
-        <v>54300</v>
+        <v>56800</v>
       </c>
       <c r="J41" s="3">
-        <v>42300</v>
+        <v>44200</v>
       </c>
       <c r="K41" s="3">
         <v>63800</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="3">
         <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H42" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I42" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I43" s="3">
         <v>10900</v>
       </c>
-      <c r="F43" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>10500</v>
-      </c>
       <c r="J43" s="3">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="K43" s="3">
         <v>66400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>46700</v>
+        <v>48800</v>
       </c>
       <c r="E44" s="3">
-        <v>34600</v>
+        <v>36200</v>
       </c>
       <c r="F44" s="3">
-        <v>30900</v>
+        <v>32300</v>
       </c>
       <c r="G44" s="3">
-        <v>31400</v>
+        <v>32900</v>
       </c>
       <c r="H44" s="3">
-        <v>48000</v>
+        <v>50200</v>
       </c>
       <c r="I44" s="3">
-        <v>32200</v>
+        <v>33700</v>
       </c>
       <c r="J44" s="3">
-        <v>28600</v>
+        <v>29900</v>
       </c>
       <c r="K44" s="3">
         <v>36300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
         <v>1200</v>
       </c>
       <c r="G45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H45" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J45" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="K45" s="3">
         <v>5900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>124700</v>
+        <v>130300</v>
       </c>
       <c r="E46" s="3">
-        <v>90300</v>
+        <v>94400</v>
       </c>
       <c r="F46" s="3">
-        <v>82800</v>
+        <v>86600</v>
       </c>
       <c r="G46" s="3">
-        <v>115600</v>
+        <v>120800</v>
       </c>
       <c r="H46" s="3">
-        <v>131100</v>
+        <v>137100</v>
       </c>
       <c r="I46" s="3">
-        <v>99600</v>
+        <v>104100</v>
       </c>
       <c r="J46" s="3">
-        <v>108400</v>
+        <v>113300</v>
       </c>
       <c r="K46" s="3">
         <v>176200</v>
@@ -1957,22 +1957,22 @@
         <v>1000</v>
       </c>
       <c r="E47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="I47" s="3">
-        <v>20900</v>
+        <v>21800</v>
       </c>
       <c r="J47" s="3">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="K47" s="3">
         <v>20200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>588900</v>
+        <v>615700</v>
       </c>
       <c r="E48" s="3">
-        <v>601100</v>
+        <v>628400</v>
       </c>
       <c r="F48" s="3">
-        <v>651300</v>
+        <v>680900</v>
       </c>
       <c r="G48" s="3">
-        <v>632200</v>
+        <v>661000</v>
       </c>
       <c r="H48" s="3">
-        <v>579100</v>
+        <v>605400</v>
       </c>
       <c r="I48" s="3">
-        <v>1260500</v>
+        <v>1317800</v>
       </c>
       <c r="J48" s="3">
-        <v>629400</v>
+        <v>658000</v>
       </c>
       <c r="K48" s="3">
         <v>522400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="F49" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I49" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J49" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="3">
-        <v>30900</v>
+        <v>32300</v>
       </c>
       <c r="G52" s="3">
-        <v>30200</v>
+        <v>31600</v>
       </c>
       <c r="H52" s="3">
-        <v>30200</v>
+        <v>31500</v>
       </c>
       <c r="I52" s="3">
-        <v>42700</v>
+        <v>44600</v>
       </c>
       <c r="J52" s="3">
-        <v>23100</v>
+        <v>24100</v>
       </c>
       <c r="K52" s="3">
         <v>28000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>721900</v>
+        <v>754700</v>
       </c>
       <c r="E54" s="3">
-        <v>701000</v>
+        <v>732900</v>
       </c>
       <c r="F54" s="3">
-        <v>771400</v>
+        <v>806400</v>
       </c>
       <c r="G54" s="3">
-        <v>784100</v>
+        <v>819700</v>
       </c>
       <c r="H54" s="3">
-        <v>752900</v>
+        <v>787100</v>
       </c>
       <c r="I54" s="3">
-        <v>772600</v>
+        <v>807700</v>
       </c>
       <c r="J54" s="3">
-        <v>787100</v>
+        <v>822900</v>
       </c>
       <c r="K54" s="3">
         <v>746900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26000</v>
+        <v>27200</v>
       </c>
       <c r="E57" s="3">
-        <v>19200</v>
+        <v>20000</v>
       </c>
       <c r="F57" s="3">
-        <v>17300</v>
+        <v>18100</v>
       </c>
       <c r="G57" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="H57" s="3">
-        <v>22300</v>
+        <v>23400</v>
       </c>
       <c r="I57" s="3">
-        <v>44800</v>
+        <v>46800</v>
       </c>
       <c r="J57" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="K57" s="3">
         <v>20700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="E58" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="F58" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="G58" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="H58" s="3">
-        <v>12800</v>
+        <v>13400</v>
       </c>
       <c r="I58" s="3">
-        <v>47400</v>
+        <v>49600</v>
       </c>
       <c r="J58" s="3">
-        <v>16000</v>
+        <v>16700</v>
       </c>
       <c r="K58" s="3">
         <v>17400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22300</v>
+        <v>23300</v>
       </c>
       <c r="E59" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="F59" s="3">
-        <v>20400</v>
+        <v>21300</v>
       </c>
       <c r="G59" s="3">
-        <v>20800</v>
+        <v>21800</v>
       </c>
       <c r="H59" s="3">
-        <v>8300</v>
+        <v>8700</v>
       </c>
       <c r="I59" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="J59" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="K59" s="3">
         <v>51900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>62200</v>
+        <v>65100</v>
       </c>
       <c r="E60" s="3">
-        <v>53400</v>
+        <v>55800</v>
       </c>
       <c r="F60" s="3">
-        <v>45500</v>
+        <v>47600</v>
       </c>
       <c r="G60" s="3">
-        <v>48700</v>
+        <v>50900</v>
       </c>
       <c r="H60" s="3">
-        <v>43500</v>
+        <v>45400</v>
       </c>
       <c r="I60" s="3">
-        <v>75700</v>
+        <v>79100</v>
       </c>
       <c r="J60" s="3">
-        <v>52700</v>
+        <v>55100</v>
       </c>
       <c r="K60" s="3">
         <v>90000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>274200</v>
+        <v>286700</v>
       </c>
       <c r="E61" s="3">
-        <v>283100</v>
+        <v>296000</v>
       </c>
       <c r="F61" s="3">
-        <v>274100</v>
+        <v>286500</v>
       </c>
       <c r="G61" s="3">
-        <v>252100</v>
+        <v>263600</v>
       </c>
       <c r="H61" s="3">
-        <v>295900</v>
+        <v>309300</v>
       </c>
       <c r="I61" s="3">
-        <v>242200</v>
+        <v>253200</v>
       </c>
       <c r="J61" s="3">
-        <v>232800</v>
+        <v>243300</v>
       </c>
       <c r="K61" s="3">
         <v>199800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>133800</v>
+        <v>139900</v>
       </c>
       <c r="E62" s="3">
-        <v>125300</v>
+        <v>131000</v>
       </c>
       <c r="F62" s="3">
-        <v>176500</v>
+        <v>184500</v>
       </c>
       <c r="G62" s="3">
-        <v>192100</v>
+        <v>200900</v>
       </c>
       <c r="H62" s="3">
-        <v>144800</v>
+        <v>151400</v>
       </c>
       <c r="I62" s="3">
-        <v>161300</v>
+        <v>168700</v>
       </c>
       <c r="J62" s="3">
-        <v>166800</v>
+        <v>174400</v>
       </c>
       <c r="K62" s="3">
         <v>129000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>470300</v>
+        <v>491600</v>
       </c>
       <c r="E66" s="3">
-        <v>461800</v>
+        <v>482800</v>
       </c>
       <c r="F66" s="3">
-        <v>496100</v>
+        <v>518700</v>
       </c>
       <c r="G66" s="3">
-        <v>493000</v>
+        <v>515400</v>
       </c>
       <c r="H66" s="3">
-        <v>484100</v>
+        <v>506100</v>
       </c>
       <c r="I66" s="3">
-        <v>478900</v>
+        <v>500600</v>
       </c>
       <c r="J66" s="3">
-        <v>452200</v>
+        <v>472800</v>
       </c>
       <c r="K66" s="3">
         <v>418800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-171800</v>
+        <v>-179600</v>
       </c>
       <c r="E72" s="3">
-        <v>-153100</v>
+        <v>-160100</v>
       </c>
       <c r="F72" s="3">
-        <v>-110800</v>
+        <v>-115800</v>
       </c>
       <c r="G72" s="3">
-        <v>-81600</v>
+        <v>-85300</v>
       </c>
       <c r="H72" s="3">
-        <v>-108800</v>
+        <v>-113700</v>
       </c>
       <c r="I72" s="3">
-        <v>-83900</v>
+        <v>-87700</v>
       </c>
       <c r="J72" s="3">
-        <v>-34400</v>
+        <v>-36000</v>
       </c>
       <c r="K72" s="3">
         <v>8100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>251700</v>
+        <v>263100</v>
       </c>
       <c r="E76" s="3">
-        <v>239200</v>
+        <v>250100</v>
       </c>
       <c r="F76" s="3">
-        <v>275200</v>
+        <v>287700</v>
       </c>
       <c r="G76" s="3">
-        <v>291100</v>
+        <v>304300</v>
       </c>
       <c r="H76" s="3">
-        <v>268800</v>
+        <v>281000</v>
       </c>
       <c r="I76" s="3">
-        <v>293700</v>
+        <v>307000</v>
       </c>
       <c r="J76" s="3">
-        <v>334900</v>
+        <v>350100</v>
       </c>
       <c r="K76" s="3">
         <v>328100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18700</v>
+        <v>-19500</v>
       </c>
       <c r="E81" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="F81" s="3">
-        <v>-28400</v>
+        <v>-29700</v>
       </c>
       <c r="G81" s="3">
-        <v>27200</v>
+        <v>28400</v>
       </c>
       <c r="H81" s="3">
-        <v>-24900</v>
+        <v>-26000</v>
       </c>
       <c r="I81" s="3">
-        <v>-49400</v>
+        <v>-51700</v>
       </c>
       <c r="J81" s="3">
-        <v>-42700</v>
+        <v>-44700</v>
       </c>
       <c r="K81" s="3">
         <v>-26800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>75600</v>
+        <v>79000</v>
       </c>
       <c r="E83" s="3">
-        <v>87000</v>
+        <v>91000</v>
       </c>
       <c r="F83" s="3">
-        <v>56100</v>
+        <v>58700</v>
       </c>
       <c r="G83" s="3">
-        <v>37800</v>
+        <v>39600</v>
       </c>
       <c r="H83" s="3">
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="I83" s="3">
-        <v>39300</v>
+        <v>41100</v>
       </c>
       <c r="J83" s="3">
-        <v>37500</v>
+        <v>39200</v>
       </c>
       <c r="K83" s="3">
         <v>26600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>84200</v>
+        <v>88000</v>
       </c>
       <c r="E89" s="3">
-        <v>33800</v>
+        <v>35400</v>
       </c>
       <c r="F89" s="3">
-        <v>74600</v>
+        <v>78000</v>
       </c>
       <c r="G89" s="3">
-        <v>167400</v>
+        <v>175000</v>
       </c>
       <c r="H89" s="3">
-        <v>26800</v>
+        <v>28100</v>
       </c>
       <c r="I89" s="3">
-        <v>41000</v>
+        <v>42900</v>
       </c>
       <c r="J89" s="3">
-        <v>40100</v>
+        <v>41900</v>
       </c>
       <c r="K89" s="3">
         <v>52000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51900</v>
+        <v>-54300</v>
       </c>
       <c r="E91" s="3">
-        <v>-40200</v>
+        <v>-42100</v>
       </c>
       <c r="F91" s="3">
-        <v>-75200</v>
+        <v>-78600</v>
       </c>
       <c r="G91" s="3">
-        <v>-77100</v>
+        <v>-80600</v>
       </c>
       <c r="H91" s="3">
-        <v>-14900</v>
+        <v>-15600</v>
       </c>
       <c r="I91" s="3">
-        <v>-15000</v>
+        <v>-15700</v>
       </c>
       <c r="J91" s="3">
-        <v>-30800</v>
+        <v>-32200</v>
       </c>
       <c r="K91" s="3">
         <v>-75800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-47300</v>
+        <v>-49400</v>
       </c>
       <c r="E94" s="3">
-        <v>-13400</v>
+        <v>-14000</v>
       </c>
       <c r="F94" s="3">
-        <v>-74900</v>
+        <v>-78300</v>
       </c>
       <c r="G94" s="3">
-        <v>-80700</v>
+        <v>-84400</v>
       </c>
       <c r="H94" s="3">
-        <v>-15100</v>
+        <v>-15800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J94" s="3">
-        <v>-31200</v>
+        <v>-32600</v>
       </c>
       <c r="K94" s="3">
         <v>-72300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="E100" s="3">
-        <v>-13300</v>
+        <v>-13900</v>
       </c>
       <c r="F100" s="3">
-        <v>-26600</v>
+        <v>-27900</v>
       </c>
       <c r="G100" s="3">
-        <v>-89600</v>
+        <v>-93600</v>
       </c>
       <c r="H100" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="I100" s="3">
-        <v>-24300</v>
+        <v>-25400</v>
       </c>
       <c r="J100" s="3">
-        <v>-35000</v>
+        <v>-36500</v>
       </c>
       <c r="K100" s="3">
         <v>-22000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F101" s="3">
         <v>-500</v>
       </c>
       <c r="G101" s="3">
-        <v>-4100</v>
+        <v>-4300</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
       </c>
       <c r="I101" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K101" s="3">
         <v>2100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25300</v>
+        <v>26500</v>
       </c>
       <c r="E102" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F102" s="3">
-        <v>-27400</v>
+        <v>-28700</v>
       </c>
       <c r="G102" s="3">
-        <v>-7000</v>
+        <v>-7300</v>
       </c>
       <c r="H102" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="I102" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="J102" s="3">
-        <v>-23400</v>
+        <v>-24500</v>
       </c>
       <c r="K102" s="3">
         <v>-40100</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>284600</v>
+        <v>267600</v>
       </c>
       <c r="E8" s="3">
-        <v>272900</v>
+        <v>256600</v>
       </c>
       <c r="F8" s="3">
-        <v>285100</v>
+        <v>268100</v>
       </c>
       <c r="G8" s="3">
-        <v>313600</v>
+        <v>294900</v>
       </c>
       <c r="H8" s="3">
-        <v>218800</v>
+        <v>205700</v>
       </c>
       <c r="I8" s="3">
-        <v>239800</v>
+        <v>225600</v>
       </c>
       <c r="J8" s="3">
-        <v>284300</v>
+        <v>267400</v>
       </c>
       <c r="K8" s="3">
         <v>223300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>264900</v>
+        <v>249100</v>
       </c>
       <c r="E9" s="3">
-        <v>305300</v>
+        <v>287200</v>
       </c>
       <c r="F9" s="3">
-        <v>250900</v>
+        <v>236000</v>
       </c>
       <c r="G9" s="3">
-        <v>205900</v>
+        <v>193600</v>
       </c>
       <c r="H9" s="3">
-        <v>217300</v>
+        <v>204300</v>
       </c>
       <c r="I9" s="3">
-        <v>238700</v>
+        <v>224500</v>
       </c>
       <c r="J9" s="3">
-        <v>303500</v>
+        <v>285400</v>
       </c>
       <c r="K9" s="3">
         <v>190200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="E10" s="3">
-        <v>-32500</v>
+        <v>-30500</v>
       </c>
       <c r="F10" s="3">
-        <v>34200</v>
+        <v>32100</v>
       </c>
       <c r="G10" s="3">
-        <v>107800</v>
+        <v>101400</v>
       </c>
       <c r="H10" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I10" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J10" s="3">
-        <v>-19200</v>
+        <v>-18000</v>
       </c>
       <c r="K10" s="3">
         <v>33100</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F12" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I12" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>300</v>
       </c>
       <c r="J14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K14" s="3">
         <v>10800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>279600</v>
+        <v>262900</v>
       </c>
       <c r="E17" s="3">
-        <v>323800</v>
+        <v>304500</v>
       </c>
       <c r="F17" s="3">
-        <v>261700</v>
+        <v>246100</v>
       </c>
       <c r="G17" s="3">
-        <v>248100</v>
+        <v>233400</v>
       </c>
       <c r="H17" s="3">
-        <v>240000</v>
+        <v>225700</v>
       </c>
       <c r="I17" s="3">
-        <v>240400</v>
+        <v>226100</v>
       </c>
       <c r="J17" s="3">
-        <v>302300</v>
+        <v>284300</v>
       </c>
       <c r="K17" s="3">
         <v>223600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E18" s="3">
-        <v>-50900</v>
+        <v>-47900</v>
       </c>
       <c r="F18" s="3">
-        <v>23400</v>
+        <v>22000</v>
       </c>
       <c r="G18" s="3">
-        <v>65500</v>
+        <v>61600</v>
       </c>
       <c r="H18" s="3">
-        <v>-21300</v>
+        <v>-20000</v>
       </c>
       <c r="I18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-18000</v>
+        <v>-16900</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
@@ -1092,22 +1092,22 @@
         <v>-1100</v>
       </c>
       <c r="E20" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-26100</v>
+        <v>-24500</v>
       </c>
       <c r="G20" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="I20" s="3">
-        <v>-36400</v>
+        <v>-34200</v>
       </c>
       <c r="J20" s="3">
-        <v>-13800</v>
+        <v>-13000</v>
       </c>
       <c r="K20" s="3">
         <v>-6300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>83000</v>
+        <v>78900</v>
       </c>
       <c r="E21" s="3">
-        <v>48800</v>
+        <v>46900</v>
       </c>
       <c r="F21" s="3">
-        <v>56100</v>
+        <v>53400</v>
       </c>
       <c r="G21" s="3">
-        <v>117900</v>
+        <v>111300</v>
       </c>
       <c r="H21" s="3">
-        <v>28700</v>
+        <v>27500</v>
       </c>
       <c r="I21" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J21" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="K21" s="3">
         <v>19900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30900</v>
+        <v>29100</v>
       </c>
       <c r="E22" s="3">
-        <v>28700</v>
+        <v>27000</v>
       </c>
       <c r="F22" s="3">
-        <v>26600</v>
+        <v>25000</v>
       </c>
       <c r="G22" s="3">
-        <v>25700</v>
+        <v>24100</v>
       </c>
       <c r="H22" s="3">
-        <v>22900</v>
+        <v>21600</v>
       </c>
       <c r="I22" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="J22" s="3">
-        <v>20200</v>
+        <v>19000</v>
       </c>
       <c r="K22" s="3">
         <v>18100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27000</v>
+        <v>-25400</v>
       </c>
       <c r="E23" s="3">
-        <v>-71100</v>
+        <v>-66800</v>
       </c>
       <c r="F23" s="3">
-        <v>-29300</v>
+        <v>-27500</v>
       </c>
       <c r="G23" s="3">
-        <v>52600</v>
+        <v>49500</v>
       </c>
       <c r="H23" s="3">
-        <v>-38200</v>
+        <v>-35900</v>
       </c>
       <c r="I23" s="3">
-        <v>-56300</v>
+        <v>-53000</v>
       </c>
       <c r="J23" s="3">
-        <v>-52000</v>
+        <v>-48900</v>
       </c>
       <c r="K23" s="3">
         <v>-24800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7500</v>
+        <v>-7100</v>
       </c>
       <c r="E24" s="3">
-        <v>-26800</v>
+        <v>-25200</v>
       </c>
       <c r="F24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="H24" s="3">
-        <v>-12200</v>
+        <v>-11500</v>
       </c>
       <c r="I24" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="J24" s="3">
-        <v>-7300</v>
+        <v>-6900</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19500</v>
+        <v>-18300</v>
       </c>
       <c r="E26" s="3">
-        <v>-44300</v>
+        <v>-41600</v>
       </c>
       <c r="F26" s="3">
-        <v>-29700</v>
+        <v>-27900</v>
       </c>
       <c r="G26" s="3">
-        <v>28400</v>
+        <v>26700</v>
       </c>
       <c r="H26" s="3">
-        <v>-26000</v>
+        <v>-24500</v>
       </c>
       <c r="I26" s="3">
-        <v>-51700</v>
+        <v>-48600</v>
       </c>
       <c r="J26" s="3">
-        <v>-44700</v>
+        <v>-42000</v>
       </c>
       <c r="K26" s="3">
         <v>-26800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19500</v>
+        <v>-18300</v>
       </c>
       <c r="E27" s="3">
-        <v>-44300</v>
+        <v>-41600</v>
       </c>
       <c r="F27" s="3">
-        <v>-29700</v>
+        <v>-27900</v>
       </c>
       <c r="G27" s="3">
-        <v>28400</v>
+        <v>26700</v>
       </c>
       <c r="H27" s="3">
-        <v>-26000</v>
+        <v>-24500</v>
       </c>
       <c r="I27" s="3">
-        <v>-51700</v>
+        <v>-48600</v>
       </c>
       <c r="J27" s="3">
-        <v>-44700</v>
+        <v>-42000</v>
       </c>
       <c r="K27" s="3">
         <v>-26800</v>
@@ -1524,22 +1524,22 @@
         <v>1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8500</v>
+        <v>-8000</v>
       </c>
       <c r="F32" s="3">
-        <v>26100</v>
+        <v>24500</v>
       </c>
       <c r="G32" s="3">
-        <v>-12800</v>
+        <v>-12000</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="I32" s="3">
-        <v>36400</v>
+        <v>34200</v>
       </c>
       <c r="J32" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="K32" s="3">
         <v>6300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19500</v>
+        <v>-18300</v>
       </c>
       <c r="E33" s="3">
-        <v>-44300</v>
+        <v>-41600</v>
       </c>
       <c r="F33" s="3">
-        <v>-29700</v>
+        <v>-27900</v>
       </c>
       <c r="G33" s="3">
-        <v>28400</v>
+        <v>26700</v>
       </c>
       <c r="H33" s="3">
-        <v>-26000</v>
+        <v>-24500</v>
       </c>
       <c r="I33" s="3">
-        <v>-51700</v>
+        <v>-48600</v>
       </c>
       <c r="J33" s="3">
-        <v>-44700</v>
+        <v>-42000</v>
       </c>
       <c r="K33" s="3">
         <v>-26800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19500</v>
+        <v>-18300</v>
       </c>
       <c r="E35" s="3">
-        <v>-44300</v>
+        <v>-41600</v>
       </c>
       <c r="F35" s="3">
-        <v>-29700</v>
+        <v>-27900</v>
       </c>
       <c r="G35" s="3">
-        <v>28400</v>
+        <v>26700</v>
       </c>
       <c r="H35" s="3">
-        <v>-26000</v>
+        <v>-24500</v>
       </c>
       <c r="I35" s="3">
-        <v>-51700</v>
+        <v>-48600</v>
       </c>
       <c r="J35" s="3">
-        <v>-44700</v>
+        <v>-42000</v>
       </c>
       <c r="K35" s="3">
         <v>-26800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>70600</v>
+        <v>66400</v>
       </c>
       <c r="E41" s="3">
-        <v>44100</v>
+        <v>41500</v>
       </c>
       <c r="F41" s="3">
-        <v>37900</v>
+        <v>35600</v>
       </c>
       <c r="G41" s="3">
-        <v>66500</v>
+        <v>62600</v>
       </c>
       <c r="H41" s="3">
-        <v>73800</v>
+        <v>69400</v>
       </c>
       <c r="I41" s="3">
-        <v>56800</v>
+        <v>53400</v>
       </c>
       <c r="J41" s="3">
-        <v>44200</v>
+        <v>41600</v>
       </c>
       <c r="K41" s="3">
         <v>63800</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E42" s="3">
         <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G42" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I42" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J42" s="3">
         <v>800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="F43" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="G43" s="3">
-        <v>17900</v>
+        <v>16900</v>
       </c>
       <c r="H43" s="3">
-        <v>10700</v>
+        <v>10100</v>
       </c>
       <c r="I43" s="3">
-        <v>10900</v>
+        <v>10300</v>
       </c>
       <c r="J43" s="3">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="K43" s="3">
         <v>66400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>48800</v>
+        <v>45900</v>
       </c>
       <c r="E44" s="3">
-        <v>36200</v>
+        <v>34000</v>
       </c>
       <c r="F44" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="G44" s="3">
-        <v>32900</v>
+        <v>30900</v>
       </c>
       <c r="H44" s="3">
-        <v>50200</v>
+        <v>47200</v>
       </c>
       <c r="I44" s="3">
-        <v>33700</v>
+        <v>31700</v>
       </c>
       <c r="J44" s="3">
-        <v>29900</v>
+        <v>28100</v>
       </c>
       <c r="K44" s="3">
         <v>36300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J45" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="K45" s="3">
         <v>5900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>130300</v>
+        <v>122600</v>
       </c>
       <c r="E46" s="3">
-        <v>94400</v>
+        <v>88800</v>
       </c>
       <c r="F46" s="3">
-        <v>86600</v>
+        <v>81400</v>
       </c>
       <c r="G46" s="3">
-        <v>120800</v>
+        <v>113600</v>
       </c>
       <c r="H46" s="3">
-        <v>137100</v>
+        <v>128900</v>
       </c>
       <c r="I46" s="3">
-        <v>104100</v>
+        <v>97900</v>
       </c>
       <c r="J46" s="3">
-        <v>113300</v>
+        <v>106500</v>
       </c>
       <c r="K46" s="3">
         <v>176200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H47" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="I47" s="3">
-        <v>21800</v>
+        <v>20500</v>
       </c>
       <c r="J47" s="3">
-        <v>23500</v>
+        <v>22100</v>
       </c>
       <c r="K47" s="3">
         <v>20200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>615700</v>
+        <v>579000</v>
       </c>
       <c r="E48" s="3">
-        <v>628400</v>
+        <v>591000</v>
       </c>
       <c r="F48" s="3">
-        <v>680900</v>
+        <v>640300</v>
       </c>
       <c r="G48" s="3">
-        <v>661000</v>
+        <v>621600</v>
       </c>
       <c r="H48" s="3">
-        <v>605400</v>
+        <v>569300</v>
       </c>
       <c r="I48" s="3">
-        <v>1317800</v>
+        <v>1239300</v>
       </c>
       <c r="J48" s="3">
-        <v>658000</v>
+        <v>618800</v>
       </c>
       <c r="K48" s="3">
         <v>522400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F49" s="3">
         <v>4400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I49" s="3">
         <v>4400</v>
       </c>
-      <c r="F49" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4700</v>
-      </c>
       <c r="J49" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
-        <v>3600</v>
-      </c>
       <c r="F52" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="G52" s="3">
-        <v>31600</v>
+        <v>29700</v>
       </c>
       <c r="H52" s="3">
-        <v>31500</v>
+        <v>29700</v>
       </c>
       <c r="I52" s="3">
-        <v>44600</v>
+        <v>42000</v>
       </c>
       <c r="J52" s="3">
-        <v>24100</v>
+        <v>22700</v>
       </c>
       <c r="K52" s="3">
         <v>28000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>754700</v>
+        <v>709800</v>
       </c>
       <c r="E54" s="3">
-        <v>732900</v>
+        <v>689200</v>
       </c>
       <c r="F54" s="3">
-        <v>806400</v>
+        <v>758400</v>
       </c>
       <c r="G54" s="3">
-        <v>819700</v>
+        <v>770900</v>
       </c>
       <c r="H54" s="3">
-        <v>787100</v>
+        <v>740200</v>
       </c>
       <c r="I54" s="3">
-        <v>807700</v>
+        <v>759600</v>
       </c>
       <c r="J54" s="3">
-        <v>822900</v>
+        <v>773900</v>
       </c>
       <c r="K54" s="3">
         <v>746900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>27200</v>
+        <v>25600</v>
       </c>
       <c r="E57" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="F57" s="3">
-        <v>18100</v>
+        <v>17000</v>
       </c>
       <c r="G57" s="3">
-        <v>19800</v>
+        <v>18600</v>
       </c>
       <c r="H57" s="3">
-        <v>23400</v>
+        <v>22000</v>
       </c>
       <c r="I57" s="3">
-        <v>46800</v>
+        <v>44000</v>
       </c>
       <c r="J57" s="3">
-        <v>30600</v>
+        <v>28700</v>
       </c>
       <c r="K57" s="3">
         <v>20700</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="E58" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="F58" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="G58" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="H58" s="3">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="I58" s="3">
-        <v>49600</v>
+        <v>46600</v>
       </c>
       <c r="J58" s="3">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="K58" s="3">
         <v>17400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23300</v>
+        <v>21900</v>
       </c>
       <c r="E59" s="3">
-        <v>22100</v>
+        <v>20800</v>
       </c>
       <c r="F59" s="3">
-        <v>21300</v>
+        <v>20100</v>
       </c>
       <c r="G59" s="3">
-        <v>21800</v>
+        <v>20500</v>
       </c>
       <c r="H59" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="I59" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="J59" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="K59" s="3">
         <v>51900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>65100</v>
+        <v>61200</v>
       </c>
       <c r="E60" s="3">
-        <v>55800</v>
+        <v>52500</v>
       </c>
       <c r="F60" s="3">
-        <v>47600</v>
+        <v>44800</v>
       </c>
       <c r="G60" s="3">
-        <v>50900</v>
+        <v>47900</v>
       </c>
       <c r="H60" s="3">
-        <v>45400</v>
+        <v>42700</v>
       </c>
       <c r="I60" s="3">
-        <v>79100</v>
+        <v>74400</v>
       </c>
       <c r="J60" s="3">
-        <v>55100</v>
+        <v>51800</v>
       </c>
       <c r="K60" s="3">
         <v>90000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>286700</v>
+        <v>269600</v>
       </c>
       <c r="E61" s="3">
-        <v>296000</v>
+        <v>278400</v>
       </c>
       <c r="F61" s="3">
-        <v>286500</v>
+        <v>269500</v>
       </c>
       <c r="G61" s="3">
-        <v>263600</v>
+        <v>247900</v>
       </c>
       <c r="H61" s="3">
-        <v>309300</v>
+        <v>290900</v>
       </c>
       <c r="I61" s="3">
-        <v>253200</v>
+        <v>238100</v>
       </c>
       <c r="J61" s="3">
-        <v>243300</v>
+        <v>228800</v>
       </c>
       <c r="K61" s="3">
         <v>199800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>139900</v>
+        <v>131500</v>
       </c>
       <c r="E62" s="3">
-        <v>131000</v>
+        <v>123200</v>
       </c>
       <c r="F62" s="3">
-        <v>184500</v>
+        <v>173500</v>
       </c>
       <c r="G62" s="3">
-        <v>200900</v>
+        <v>188900</v>
       </c>
       <c r="H62" s="3">
-        <v>151400</v>
+        <v>142300</v>
       </c>
       <c r="I62" s="3">
-        <v>168700</v>
+        <v>158600</v>
       </c>
       <c r="J62" s="3">
-        <v>174400</v>
+        <v>164000</v>
       </c>
       <c r="K62" s="3">
         <v>129000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>491600</v>
+        <v>462300</v>
       </c>
       <c r="E66" s="3">
-        <v>482800</v>
+        <v>454000</v>
       </c>
       <c r="F66" s="3">
-        <v>518700</v>
+        <v>487800</v>
       </c>
       <c r="G66" s="3">
-        <v>515400</v>
+        <v>484700</v>
       </c>
       <c r="H66" s="3">
-        <v>506100</v>
+        <v>476000</v>
       </c>
       <c r="I66" s="3">
-        <v>500600</v>
+        <v>470800</v>
       </c>
       <c r="J66" s="3">
-        <v>472800</v>
+        <v>444600</v>
       </c>
       <c r="K66" s="3">
         <v>418800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-179600</v>
+        <v>-168900</v>
       </c>
       <c r="E72" s="3">
-        <v>-160100</v>
+        <v>-150500</v>
       </c>
       <c r="F72" s="3">
-        <v>-115800</v>
+        <v>-108900</v>
       </c>
       <c r="G72" s="3">
-        <v>-85300</v>
+        <v>-80200</v>
       </c>
       <c r="H72" s="3">
-        <v>-113700</v>
+        <v>-106900</v>
       </c>
       <c r="I72" s="3">
-        <v>-87700</v>
+        <v>-82400</v>
       </c>
       <c r="J72" s="3">
-        <v>-36000</v>
+        <v>-33800</v>
       </c>
       <c r="K72" s="3">
         <v>8100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>263100</v>
+        <v>247400</v>
       </c>
       <c r="E76" s="3">
-        <v>250100</v>
+        <v>235200</v>
       </c>
       <c r="F76" s="3">
-        <v>287700</v>
+        <v>270600</v>
       </c>
       <c r="G76" s="3">
-        <v>304300</v>
+        <v>286200</v>
       </c>
       <c r="H76" s="3">
-        <v>281000</v>
+        <v>264300</v>
       </c>
       <c r="I76" s="3">
-        <v>307000</v>
+        <v>288700</v>
       </c>
       <c r="J76" s="3">
-        <v>350100</v>
+        <v>329200</v>
       </c>
       <c r="K76" s="3">
         <v>328100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19500</v>
+        <v>-18300</v>
       </c>
       <c r="E81" s="3">
-        <v>-44300</v>
+        <v>-41600</v>
       </c>
       <c r="F81" s="3">
-        <v>-29700</v>
+        <v>-27900</v>
       </c>
       <c r="G81" s="3">
-        <v>28400</v>
+        <v>26700</v>
       </c>
       <c r="H81" s="3">
-        <v>-26000</v>
+        <v>-24500</v>
       </c>
       <c r="I81" s="3">
-        <v>-51700</v>
+        <v>-48600</v>
       </c>
       <c r="J81" s="3">
-        <v>-44700</v>
+        <v>-42000</v>
       </c>
       <c r="K81" s="3">
         <v>-26800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79000</v>
+        <v>74300</v>
       </c>
       <c r="E83" s="3">
-        <v>91000</v>
+        <v>85600</v>
       </c>
       <c r="F83" s="3">
-        <v>58700</v>
+        <v>55200</v>
       </c>
       <c r="G83" s="3">
-        <v>39600</v>
+        <v>37200</v>
       </c>
       <c r="H83" s="3">
-        <v>44000</v>
+        <v>41300</v>
       </c>
       <c r="I83" s="3">
-        <v>41100</v>
+        <v>38700</v>
       </c>
       <c r="J83" s="3">
-        <v>39200</v>
+        <v>36900</v>
       </c>
       <c r="K83" s="3">
         <v>26600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>88000</v>
+        <v>82800</v>
       </c>
       <c r="E89" s="3">
-        <v>35400</v>
+        <v>33200</v>
       </c>
       <c r="F89" s="3">
-        <v>78000</v>
+        <v>73300</v>
       </c>
       <c r="G89" s="3">
-        <v>175000</v>
+        <v>164600</v>
       </c>
       <c r="H89" s="3">
-        <v>28100</v>
+        <v>26400</v>
       </c>
       <c r="I89" s="3">
-        <v>42900</v>
+        <v>40300</v>
       </c>
       <c r="J89" s="3">
-        <v>41900</v>
+        <v>39400</v>
       </c>
       <c r="K89" s="3">
         <v>52000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54300</v>
+        <v>-51100</v>
       </c>
       <c r="E91" s="3">
-        <v>-42100</v>
+        <v>-39600</v>
       </c>
       <c r="F91" s="3">
-        <v>-78600</v>
+        <v>-74000</v>
       </c>
       <c r="G91" s="3">
-        <v>-80600</v>
+        <v>-75800</v>
       </c>
       <c r="H91" s="3">
-        <v>-15600</v>
+        <v>-14700</v>
       </c>
       <c r="I91" s="3">
-        <v>-15700</v>
+        <v>-14800</v>
       </c>
       <c r="J91" s="3">
-        <v>-32200</v>
+        <v>-30300</v>
       </c>
       <c r="K91" s="3">
         <v>-75800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49400</v>
+        <v>-46500</v>
       </c>
       <c r="E94" s="3">
-        <v>-14000</v>
+        <v>-13200</v>
       </c>
       <c r="F94" s="3">
-        <v>-78300</v>
+        <v>-73600</v>
       </c>
       <c r="G94" s="3">
-        <v>-84400</v>
+        <v>-79400</v>
       </c>
       <c r="H94" s="3">
-        <v>-15800</v>
+        <v>-14900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J94" s="3">
-        <v>-32600</v>
+        <v>-30700</v>
       </c>
       <c r="K94" s="3">
         <v>-72300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9900</v>
+        <v>-9300</v>
       </c>
       <c r="E100" s="3">
-        <v>-13900</v>
+        <v>-13100</v>
       </c>
       <c r="F100" s="3">
-        <v>-27900</v>
+        <v>-26200</v>
       </c>
       <c r="G100" s="3">
-        <v>-93600</v>
+        <v>-88100</v>
       </c>
       <c r="H100" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="I100" s="3">
-        <v>-25400</v>
+        <v>-23900</v>
       </c>
       <c r="J100" s="3">
-        <v>-36500</v>
+        <v>-34400</v>
       </c>
       <c r="K100" s="3">
         <v>-22000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3">
         <v>-500</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
       </c>
       <c r="I101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3">
         <v>2100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26500</v>
+        <v>24900</v>
       </c>
       <c r="E102" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F102" s="3">
-        <v>-28700</v>
+        <v>-27000</v>
       </c>
       <c r="G102" s="3">
-        <v>-7300</v>
+        <v>-6900</v>
       </c>
       <c r="H102" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="I102" s="3">
-        <v>18800</v>
+        <v>17700</v>
       </c>
       <c r="J102" s="3">
-        <v>-24500</v>
+        <v>-23100</v>
       </c>
       <c r="K102" s="3">
         <v>-40100</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>267600</v>
+        <v>269500</v>
       </c>
       <c r="E8" s="3">
-        <v>256600</v>
+        <v>258400</v>
       </c>
       <c r="F8" s="3">
-        <v>268100</v>
+        <v>270000</v>
       </c>
       <c r="G8" s="3">
-        <v>294900</v>
+        <v>297000</v>
       </c>
       <c r="H8" s="3">
-        <v>205700</v>
+        <v>207100</v>
       </c>
       <c r="I8" s="3">
-        <v>225600</v>
+        <v>227100</v>
       </c>
       <c r="J8" s="3">
-        <v>267400</v>
+        <v>269200</v>
       </c>
       <c r="K8" s="3">
         <v>223300</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>249100</v>
+        <v>250900</v>
       </c>
       <c r="E9" s="3">
-        <v>287200</v>
+        <v>289100</v>
       </c>
       <c r="F9" s="3">
-        <v>236000</v>
+        <v>237600</v>
       </c>
       <c r="G9" s="3">
-        <v>193600</v>
+        <v>194900</v>
       </c>
       <c r="H9" s="3">
-        <v>204300</v>
+        <v>205800</v>
       </c>
       <c r="I9" s="3">
-        <v>224500</v>
+        <v>226100</v>
       </c>
       <c r="J9" s="3">
-        <v>285400</v>
+        <v>287400</v>
       </c>
       <c r="K9" s="3">
         <v>190200</v>
@@ -792,16 +792,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="E10" s="3">
-        <v>-30500</v>
+        <v>-30700</v>
       </c>
       <c r="F10" s="3">
-        <v>32100</v>
+        <v>32400</v>
       </c>
       <c r="G10" s="3">
-        <v>101400</v>
+        <v>102100</v>
       </c>
       <c r="H10" s="3">
         <v>1400</v>
@@ -810,7 +810,7 @@
         <v>1000</v>
       </c>
       <c r="J10" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="K10" s="3">
         <v>33100</v>
@@ -853,7 +853,7 @@
         <v>1400</v>
       </c>
       <c r="G12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
         <v>1600</v>
@@ -862,7 +862,7 @@
         <v>700</v>
       </c>
       <c r="J12" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>262900</v>
+        <v>264700</v>
       </c>
       <c r="E17" s="3">
-        <v>304500</v>
+        <v>306600</v>
       </c>
       <c r="F17" s="3">
-        <v>246100</v>
+        <v>247800</v>
       </c>
       <c r="G17" s="3">
-        <v>233400</v>
+        <v>235000</v>
       </c>
       <c r="H17" s="3">
-        <v>225700</v>
+        <v>227300</v>
       </c>
       <c r="I17" s="3">
-        <v>226100</v>
+        <v>227600</v>
       </c>
       <c r="J17" s="3">
-        <v>284300</v>
+        <v>286300</v>
       </c>
       <c r="K17" s="3">
         <v>223600</v>
@@ -1040,22 +1040,22 @@
         <v>4700</v>
       </c>
       <c r="E18" s="3">
-        <v>-47900</v>
+        <v>-48200</v>
       </c>
       <c r="F18" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="G18" s="3">
-        <v>61600</v>
+        <v>62000</v>
       </c>
       <c r="H18" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
       </c>
       <c r="J18" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
@@ -1095,16 +1095,16 @@
         <v>8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-24500</v>
+        <v>-24700</v>
       </c>
       <c r="G20" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="H20" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I20" s="3">
-        <v>-34200</v>
+        <v>-34500</v>
       </c>
       <c r="J20" s="3">
         <v>-13000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>78900</v>
+        <v>78200</v>
       </c>
       <c r="E21" s="3">
-        <v>46900</v>
+        <v>45700</v>
       </c>
       <c r="F21" s="3">
-        <v>53400</v>
+        <v>52800</v>
       </c>
       <c r="G21" s="3">
-        <v>111300</v>
+        <v>111400</v>
       </c>
       <c r="H21" s="3">
-        <v>27500</v>
+        <v>27000</v>
       </c>
       <c r="I21" s="3">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="J21" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="K21" s="3">
         <v>19900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="E22" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="F22" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="G22" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="H22" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="I22" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="J22" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="K22" s="3">
         <v>18100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25400</v>
+        <v>-25600</v>
       </c>
       <c r="E23" s="3">
-        <v>-66800</v>
+        <v>-67300</v>
       </c>
       <c r="F23" s="3">
-        <v>-27500</v>
+        <v>-27700</v>
       </c>
       <c r="G23" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="H23" s="3">
-        <v>-35900</v>
+        <v>-36200</v>
       </c>
       <c r="I23" s="3">
-        <v>-53000</v>
+        <v>-53300</v>
       </c>
       <c r="J23" s="3">
-        <v>-48900</v>
+        <v>-49200</v>
       </c>
       <c r="K23" s="3">
         <v>-24800</v>
@@ -1236,16 +1236,16 @@
         <v>-7100</v>
       </c>
       <c r="E24" s="3">
-        <v>-25200</v>
+        <v>-25400</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="H24" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="I24" s="3">
         <v>-4400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="E26" s="3">
-        <v>-41600</v>
+        <v>-41900</v>
       </c>
       <c r="F26" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="G26" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="H26" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="I26" s="3">
-        <v>-48600</v>
+        <v>-48900</v>
       </c>
       <c r="J26" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="K26" s="3">
         <v>-26800</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="E27" s="3">
-        <v>-41600</v>
+        <v>-41900</v>
       </c>
       <c r="F27" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="G27" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="H27" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="I27" s="3">
-        <v>-48600</v>
+        <v>-48900</v>
       </c>
       <c r="J27" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="K27" s="3">
         <v>-26800</v>
@@ -1527,16 +1527,16 @@
         <v>-8000</v>
       </c>
       <c r="F32" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="G32" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="H32" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="I32" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="J32" s="3">
         <v>13000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="E33" s="3">
-        <v>-41600</v>
+        <v>-41900</v>
       </c>
       <c r="F33" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="G33" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="H33" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="I33" s="3">
-        <v>-48600</v>
+        <v>-48900</v>
       </c>
       <c r="J33" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="K33" s="3">
         <v>-26800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="E35" s="3">
-        <v>-41600</v>
+        <v>-41900</v>
       </c>
       <c r="F35" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="G35" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="H35" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="I35" s="3">
-        <v>-48600</v>
+        <v>-48900</v>
       </c>
       <c r="J35" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="K35" s="3">
         <v>-26800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66400</v>
+        <v>66800</v>
       </c>
       <c r="E41" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="F41" s="3">
-        <v>35600</v>
+        <v>35800</v>
       </c>
       <c r="G41" s="3">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="H41" s="3">
-        <v>69400</v>
+        <v>69900</v>
       </c>
       <c r="I41" s="3">
-        <v>53400</v>
+        <v>53800</v>
       </c>
       <c r="J41" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K41" s="3">
         <v>63800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E43" s="3">
         <v>10800</v>
       </c>
       <c r="F43" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G43" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="H43" s="3">
         <v>10100</v>
       </c>
       <c r="I43" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="J43" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="K43" s="3">
         <v>66400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>45900</v>
+        <v>46200</v>
       </c>
       <c r="E44" s="3">
-        <v>34000</v>
+        <v>34200</v>
       </c>
       <c r="F44" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="G44" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="H44" s="3">
-        <v>47200</v>
+        <v>47500</v>
       </c>
       <c r="I44" s="3">
-        <v>31700</v>
+        <v>31900</v>
       </c>
       <c r="J44" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="K44" s="3">
         <v>36300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>122600</v>
+        <v>123400</v>
       </c>
       <c r="E46" s="3">
-        <v>88800</v>
+        <v>89400</v>
       </c>
       <c r="F46" s="3">
-        <v>81400</v>
+        <v>82000</v>
       </c>
       <c r="G46" s="3">
-        <v>113600</v>
+        <v>114400</v>
       </c>
       <c r="H46" s="3">
-        <v>128900</v>
+        <v>129800</v>
       </c>
       <c r="I46" s="3">
-        <v>97900</v>
+        <v>98600</v>
       </c>
       <c r="J46" s="3">
-        <v>106500</v>
+        <v>107300</v>
       </c>
       <c r="K46" s="3">
         <v>176200</v>
@@ -1969,10 +1969,10 @@
         <v>8100</v>
       </c>
       <c r="I47" s="3">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="J47" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="K47" s="3">
         <v>20200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>579000</v>
+        <v>583000</v>
       </c>
       <c r="E48" s="3">
-        <v>591000</v>
+        <v>595100</v>
       </c>
       <c r="F48" s="3">
-        <v>640300</v>
+        <v>644800</v>
       </c>
       <c r="G48" s="3">
-        <v>621600</v>
+        <v>625900</v>
       </c>
       <c r="H48" s="3">
-        <v>569300</v>
+        <v>573200</v>
       </c>
       <c r="I48" s="3">
-        <v>1239300</v>
+        <v>1247800</v>
       </c>
       <c r="J48" s="3">
-        <v>618800</v>
+        <v>623100</v>
       </c>
       <c r="K48" s="3">
         <v>522400</v>
@@ -2035,16 +2035,16 @@
         <v>4400</v>
       </c>
       <c r="G49" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H49" s="3">
         <v>4300</v>
       </c>
       <c r="I49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J49" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
@@ -2140,19 +2140,19 @@
         <v>3400</v>
       </c>
       <c r="F52" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="G52" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="H52" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="I52" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="J52" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="K52" s="3">
         <v>28000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>709800</v>
+        <v>714700</v>
       </c>
       <c r="E54" s="3">
-        <v>689200</v>
+        <v>694000</v>
       </c>
       <c r="F54" s="3">
-        <v>758400</v>
+        <v>763600</v>
       </c>
       <c r="G54" s="3">
-        <v>770900</v>
+        <v>776200</v>
       </c>
       <c r="H54" s="3">
-        <v>740200</v>
+        <v>745400</v>
       </c>
       <c r="I54" s="3">
-        <v>759600</v>
+        <v>764800</v>
       </c>
       <c r="J54" s="3">
-        <v>773900</v>
+        <v>779200</v>
       </c>
       <c r="K54" s="3">
         <v>746900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="E57" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="F57" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="G57" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="H57" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="I57" s="3">
-        <v>44000</v>
+        <v>44300</v>
       </c>
       <c r="J57" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="K57" s="3">
         <v>20700</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="E58" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="F58" s="3">
         <v>7700</v>
@@ -2322,13 +2322,13 @@
         <v>8800</v>
       </c>
       <c r="H58" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="I58" s="3">
-        <v>46600</v>
+        <v>46900</v>
       </c>
       <c r="J58" s="3">
-        <v>15700</v>
+        <v>15800</v>
       </c>
       <c r="K58" s="3">
         <v>17400</v>
@@ -2346,16 +2346,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="E59" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="F59" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="G59" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="H59" s="3">
         <v>8200</v>
@@ -2364,7 +2364,7 @@
         <v>7300</v>
       </c>
       <c r="J59" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K59" s="3">
         <v>51900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>61200</v>
+        <v>61600</v>
       </c>
       <c r="E60" s="3">
-        <v>52500</v>
+        <v>52800</v>
       </c>
       <c r="F60" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="G60" s="3">
-        <v>47900</v>
+        <v>48200</v>
       </c>
       <c r="H60" s="3">
-        <v>42700</v>
+        <v>43000</v>
       </c>
       <c r="I60" s="3">
-        <v>74400</v>
+        <v>74900</v>
       </c>
       <c r="J60" s="3">
-        <v>51800</v>
+        <v>52200</v>
       </c>
       <c r="K60" s="3">
         <v>90000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>269600</v>
+        <v>271500</v>
       </c>
       <c r="E61" s="3">
-        <v>278400</v>
+        <v>280300</v>
       </c>
       <c r="F61" s="3">
-        <v>269500</v>
+        <v>271300</v>
       </c>
       <c r="G61" s="3">
-        <v>247900</v>
+        <v>249600</v>
       </c>
       <c r="H61" s="3">
-        <v>290900</v>
+        <v>292900</v>
       </c>
       <c r="I61" s="3">
-        <v>238100</v>
+        <v>239800</v>
       </c>
       <c r="J61" s="3">
-        <v>228800</v>
+        <v>230400</v>
       </c>
       <c r="K61" s="3">
         <v>199800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131500</v>
+        <v>132500</v>
       </c>
       <c r="E62" s="3">
-        <v>123200</v>
+        <v>124000</v>
       </c>
       <c r="F62" s="3">
-        <v>173500</v>
+        <v>174700</v>
       </c>
       <c r="G62" s="3">
-        <v>188900</v>
+        <v>190200</v>
       </c>
       <c r="H62" s="3">
-        <v>142300</v>
+        <v>143300</v>
       </c>
       <c r="I62" s="3">
-        <v>158600</v>
+        <v>159700</v>
       </c>
       <c r="J62" s="3">
-        <v>164000</v>
+        <v>165100</v>
       </c>
       <c r="K62" s="3">
         <v>129000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>462300</v>
+        <v>465500</v>
       </c>
       <c r="E66" s="3">
-        <v>454000</v>
+        <v>457100</v>
       </c>
       <c r="F66" s="3">
-        <v>487800</v>
+        <v>491200</v>
       </c>
       <c r="G66" s="3">
-        <v>484700</v>
+        <v>488000</v>
       </c>
       <c r="H66" s="3">
-        <v>476000</v>
+        <v>479300</v>
       </c>
       <c r="I66" s="3">
-        <v>470800</v>
+        <v>474100</v>
       </c>
       <c r="J66" s="3">
-        <v>444600</v>
+        <v>447700</v>
       </c>
       <c r="K66" s="3">
         <v>418800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-168900</v>
+        <v>-170000</v>
       </c>
       <c r="E72" s="3">
-        <v>-150500</v>
+        <v>-151600</v>
       </c>
       <c r="F72" s="3">
-        <v>-108900</v>
+        <v>-109700</v>
       </c>
       <c r="G72" s="3">
-        <v>-80200</v>
+        <v>-80800</v>
       </c>
       <c r="H72" s="3">
-        <v>-106900</v>
+        <v>-107700</v>
       </c>
       <c r="I72" s="3">
-        <v>-82400</v>
+        <v>-83000</v>
       </c>
       <c r="J72" s="3">
-        <v>-33800</v>
+        <v>-34100</v>
       </c>
       <c r="K72" s="3">
         <v>8100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>247400</v>
+        <v>249200</v>
       </c>
       <c r="E76" s="3">
-        <v>235200</v>
+        <v>236800</v>
       </c>
       <c r="F76" s="3">
-        <v>270600</v>
+        <v>272500</v>
       </c>
       <c r="G76" s="3">
-        <v>286200</v>
+        <v>288200</v>
       </c>
       <c r="H76" s="3">
-        <v>264300</v>
+        <v>266100</v>
       </c>
       <c r="I76" s="3">
-        <v>288700</v>
+        <v>290700</v>
       </c>
       <c r="J76" s="3">
-        <v>329200</v>
+        <v>331500</v>
       </c>
       <c r="K76" s="3">
         <v>328100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="E81" s="3">
-        <v>-41600</v>
+        <v>-41900</v>
       </c>
       <c r="F81" s="3">
-        <v>-27900</v>
+        <v>-28100</v>
       </c>
       <c r="G81" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="H81" s="3">
-        <v>-24500</v>
+        <v>-24600</v>
       </c>
       <c r="I81" s="3">
-        <v>-48600</v>
+        <v>-48900</v>
       </c>
       <c r="J81" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="K81" s="3">
         <v>-26800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74300</v>
+        <v>74800</v>
       </c>
       <c r="E83" s="3">
-        <v>85600</v>
+        <v>86200</v>
       </c>
       <c r="F83" s="3">
-        <v>55200</v>
+        <v>55600</v>
       </c>
       <c r="G83" s="3">
+        <v>37500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J83" s="3">
         <v>37200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>41300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>38700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>36900</v>
       </c>
       <c r="K83" s="3">
         <v>26600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82800</v>
+        <v>83400</v>
       </c>
       <c r="E89" s="3">
-        <v>33200</v>
+        <v>33500</v>
       </c>
       <c r="F89" s="3">
-        <v>73300</v>
+        <v>73900</v>
       </c>
       <c r="G89" s="3">
-        <v>164600</v>
+        <v>165700</v>
       </c>
       <c r="H89" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="I89" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="J89" s="3">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="K89" s="3">
         <v>52000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-51100</v>
+        <v>-51400</v>
       </c>
       <c r="E91" s="3">
-        <v>-39600</v>
+        <v>-39800</v>
       </c>
       <c r="F91" s="3">
-        <v>-74000</v>
+        <v>-74500</v>
       </c>
       <c r="G91" s="3">
-        <v>-75800</v>
+        <v>-76300</v>
       </c>
       <c r="H91" s="3">
-        <v>-14700</v>
+        <v>-14800</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="J91" s="3">
-        <v>-30300</v>
+        <v>-30500</v>
       </c>
       <c r="K91" s="3">
         <v>-75800</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-46500</v>
+        <v>-46800</v>
       </c>
       <c r="E94" s="3">
-        <v>-13200</v>
+        <v>-13300</v>
       </c>
       <c r="F94" s="3">
-        <v>-73600</v>
+        <v>-74100</v>
       </c>
       <c r="G94" s="3">
-        <v>-79400</v>
+        <v>-79900</v>
       </c>
       <c r="H94" s="3">
-        <v>-14900</v>
+        <v>-15000</v>
       </c>
       <c r="I94" s="3">
         <v>-2200</v>
       </c>
       <c r="J94" s="3">
-        <v>-30700</v>
+        <v>-30900</v>
       </c>
       <c r="K94" s="3">
         <v>-72300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="E100" s="3">
         <v>-13100</v>
       </c>
       <c r="F100" s="3">
-        <v>-26200</v>
+        <v>-26400</v>
       </c>
       <c r="G100" s="3">
-        <v>-88100</v>
+        <v>-88700</v>
       </c>
       <c r="H100" s="3">
         <v>4900</v>
       </c>
       <c r="I100" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="J100" s="3">
-        <v>-34400</v>
+        <v>-34600</v>
       </c>
       <c r="K100" s="3">
         <v>-22000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>24900</v>
+        <v>25100</v>
       </c>
       <c r="E102" s="3">
         <v>5900</v>
       </c>
       <c r="F102" s="3">
-        <v>-27000</v>
+        <v>-27100</v>
       </c>
       <c r="G102" s="3">
         <v>-6900</v>
       </c>
       <c r="H102" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="I102" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="J102" s="3">
-        <v>-23100</v>
+        <v>-23200</v>
       </c>
       <c r="K102" s="3">
         <v>-40100</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>269500</v>
+        <v>340000</v>
       </c>
       <c r="E8" s="3">
-        <v>258400</v>
+        <v>269400</v>
       </c>
       <c r="F8" s="3">
-        <v>270000</v>
+        <v>258300</v>
       </c>
       <c r="G8" s="3">
-        <v>297000</v>
+        <v>269800</v>
       </c>
       <c r="H8" s="3">
+        <v>296900</v>
+      </c>
+      <c r="I8" s="3">
         <v>207100</v>
       </c>
-      <c r="I8" s="3">
-        <v>227100</v>
-      </c>
       <c r="J8" s="3">
+        <v>227000</v>
+      </c>
+      <c r="K8" s="3">
         <v>269200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>223300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>193500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>250900</v>
+        <v>211500</v>
       </c>
       <c r="E9" s="3">
-        <v>289100</v>
+        <v>250800</v>
       </c>
       <c r="F9" s="3">
-        <v>237600</v>
+        <v>289000</v>
       </c>
       <c r="G9" s="3">
+        <v>237500</v>
+      </c>
+      <c r="H9" s="3">
         <v>194900</v>
       </c>
-      <c r="H9" s="3">
-        <v>205800</v>
-      </c>
       <c r="I9" s="3">
-        <v>226100</v>
+        <v>205700</v>
       </c>
       <c r="J9" s="3">
+        <v>226000</v>
+      </c>
+      <c r="K9" s="3">
         <v>287400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>190200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>297500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E10" s="3">
         <v>18600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-30700</v>
       </c>
-      <c r="F10" s="3">
-        <v>32400</v>
-      </c>
       <c r="G10" s="3">
-        <v>102100</v>
+        <v>32300</v>
       </c>
       <c r="H10" s="3">
+        <v>102000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-18200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-106600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1400</v>
       </c>
       <c r="G12" s="3">
         <v>1400</v>
       </c>
       <c r="H12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+      <c r="D14" s="3">
+        <v>10000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>16100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,12 +1000,15 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>264700</v>
+        <v>247800</v>
       </c>
       <c r="E17" s="3">
-        <v>306600</v>
+        <v>264600</v>
       </c>
       <c r="F17" s="3">
-        <v>247800</v>
+        <v>306500</v>
       </c>
       <c r="G17" s="3">
-        <v>235000</v>
+        <v>247700</v>
       </c>
       <c r="H17" s="3">
-        <v>227300</v>
+        <v>234900</v>
       </c>
       <c r="I17" s="3">
+        <v>227200</v>
+      </c>
+      <c r="J17" s="3">
         <v>227600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>286300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>223600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>195200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-48200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>62000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>78200</v>
+        <v>138100</v>
       </c>
       <c r="E21" s="3">
-        <v>45700</v>
+        <v>78100</v>
       </c>
       <c r="F21" s="3">
-        <v>52800</v>
+        <v>45600</v>
       </c>
       <c r="G21" s="3">
+        <v>52700</v>
+      </c>
+      <c r="H21" s="3">
         <v>111400</v>
       </c>
-      <c r="H21" s="3">
-        <v>27000</v>
-      </c>
       <c r="I21" s="3">
-        <v>3800</v>
+        <v>26900</v>
       </c>
       <c r="J21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>61200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E22" s="3">
         <v>29300</v>
       </c>
-      <c r="E22" s="3">
-        <v>27200</v>
-      </c>
       <c r="F22" s="3">
+        <v>27100</v>
+      </c>
+      <c r="G22" s="3">
         <v>25200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-53300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-49200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-24800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-25400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22900</v>
       </c>
-      <c r="H24" s="3">
-        <v>-11600</v>
-      </c>
       <c r="I24" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-41900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>26900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-48900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-42300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-41900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-48900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-41900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-48900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-41900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-48900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,224 +1817,243 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E41" s="3">
         <v>66800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>41700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>35800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>69900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K41" s="3">
         <v>41800</v>
       </c>
-      <c r="F41" s="3">
-        <v>35800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>63000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>69900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>53800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>41800</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>203200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>213400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5300</v>
+        <v>7500</v>
       </c>
       <c r="E43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F43" s="3">
         <v>10800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>42700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E44" s="3">
         <v>46200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>34200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>30600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>31100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>31900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>28300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30500</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>264600</v>
+      </c>
+      <c r="E46" s="3">
         <v>123400</v>
       </c>
-      <c r="E46" s="3">
-        <v>89400</v>
-      </c>
       <c r="F46" s="3">
+        <v>89300</v>
+      </c>
+      <c r="G46" s="3">
         <v>82000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>114400</v>
       </c>
-      <c r="H46" s="3">
-        <v>129800</v>
-      </c>
       <c r="I46" s="3">
-        <v>98600</v>
+        <v>129700</v>
       </c>
       <c r="J46" s="3">
+        <v>98500</v>
+      </c>
+      <c r="K46" s="3">
         <v>107300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>176200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>172200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>335700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1957,7 +2061,7 @@
         <v>900</v>
       </c>
       <c r="E47" s="3">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="F47" s="3">
         <v>1900</v>
@@ -1966,62 +2070,68 @@
         <v>1900</v>
       </c>
       <c r="H47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I47" s="3">
         <v>8100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>118100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>583000</v>
+        <v>657500</v>
       </c>
       <c r="E48" s="3">
-        <v>595100</v>
+        <v>582800</v>
       </c>
       <c r="F48" s="3">
-        <v>644800</v>
+        <v>594800</v>
       </c>
       <c r="G48" s="3">
-        <v>625900</v>
+        <v>644500</v>
       </c>
       <c r="H48" s="3">
-        <v>573200</v>
+        <v>625600</v>
       </c>
       <c r="I48" s="3">
-        <v>1247800</v>
+        <v>573000</v>
       </c>
       <c r="J48" s="3">
+        <v>1247400</v>
+      </c>
+      <c r="K48" s="3">
         <v>623100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>522400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>426600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>338500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2029,35 +2139,38 @@
         <v>4100</v>
       </c>
       <c r="E49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F49" s="3">
         <v>4200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3800</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>29900</v>
       </c>
       <c r="H52" s="3">
         <v>29900</v>
       </c>
       <c r="I52" s="3">
-        <v>42300</v>
+        <v>29800</v>
       </c>
       <c r="J52" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K52" s="3">
         <v>22800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>714700</v>
+        <v>928500</v>
       </c>
       <c r="E54" s="3">
-        <v>694000</v>
+        <v>714400</v>
       </c>
       <c r="F54" s="3">
-        <v>763600</v>
+        <v>693700</v>
       </c>
       <c r="G54" s="3">
-        <v>776200</v>
+        <v>763300</v>
       </c>
       <c r="H54" s="3">
-        <v>745400</v>
+        <v>775900</v>
       </c>
       <c r="I54" s="3">
-        <v>764800</v>
+        <v>745100</v>
       </c>
       <c r="J54" s="3">
+        <v>764500</v>
+      </c>
+      <c r="K54" s="3">
         <v>779200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>746900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>750100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>764200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E57" s="3">
         <v>25700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E58" s="3">
         <v>13800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>46900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22100</v>
+        <v>43200</v>
       </c>
       <c r="E59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F59" s="3">
         <v>20900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E60" s="3">
         <v>61600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>52800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>45100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>43000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>74900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>271500</v>
+        <v>404000</v>
       </c>
       <c r="E61" s="3">
-        <v>280300</v>
+        <v>271400</v>
       </c>
       <c r="F61" s="3">
-        <v>271300</v>
+        <v>280200</v>
       </c>
       <c r="G61" s="3">
-        <v>249600</v>
+        <v>271200</v>
       </c>
       <c r="H61" s="3">
-        <v>292900</v>
+        <v>249500</v>
       </c>
       <c r="I61" s="3">
-        <v>239800</v>
+        <v>292800</v>
       </c>
       <c r="J61" s="3">
+        <v>239700</v>
+      </c>
+      <c r="K61" s="3">
         <v>230400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>199800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>176700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>167900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>132500</v>
+        <v>162000</v>
       </c>
       <c r="E62" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F62" s="3">
         <v>124000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>174700</v>
       </c>
-      <c r="G62" s="3">
-        <v>190200</v>
-      </c>
       <c r="H62" s="3">
+        <v>190100</v>
+      </c>
+      <c r="I62" s="3">
         <v>143300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>159700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>165100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>129000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>181400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>167800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>465500</v>
+        <v>647200</v>
       </c>
       <c r="E66" s="3">
-        <v>457100</v>
+        <v>465300</v>
       </c>
       <c r="F66" s="3">
-        <v>491200</v>
+        <v>457000</v>
       </c>
       <c r="G66" s="3">
-        <v>488000</v>
+        <v>491000</v>
       </c>
       <c r="H66" s="3">
-        <v>479300</v>
+        <v>487800</v>
       </c>
       <c r="I66" s="3">
-        <v>474100</v>
+        <v>479100</v>
       </c>
       <c r="J66" s="3">
+        <v>473900</v>
+      </c>
+      <c r="K66" s="3">
         <v>447700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>418800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>414700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>382500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-170000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-151600</v>
-      </c>
       <c r="F72" s="3">
-        <v>-109700</v>
+        <v>-151500</v>
       </c>
       <c r="G72" s="3">
-        <v>-80800</v>
+        <v>-109600</v>
       </c>
       <c r="H72" s="3">
-        <v>-107700</v>
+        <v>-80700</v>
       </c>
       <c r="I72" s="3">
+        <v>-107600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-83000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>66700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>249200</v>
+        <v>281300</v>
       </c>
       <c r="E76" s="3">
-        <v>236800</v>
+        <v>249100</v>
       </c>
       <c r="F76" s="3">
-        <v>272500</v>
+        <v>236700</v>
       </c>
       <c r="G76" s="3">
-        <v>288200</v>
+        <v>272400</v>
       </c>
       <c r="H76" s="3">
-        <v>266100</v>
+        <v>288100</v>
       </c>
       <c r="I76" s="3">
-        <v>290700</v>
+        <v>266000</v>
       </c>
       <c r="J76" s="3">
+        <v>290600</v>
+      </c>
+      <c r="K76" s="3">
         <v>331500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>328100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>335400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>381700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-41900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-48900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E83" s="3">
         <v>74800</v>
       </c>
-      <c r="E83" s="3">
-        <v>86200</v>
-      </c>
       <c r="F83" s="3">
-        <v>55600</v>
+        <v>86100</v>
       </c>
       <c r="G83" s="3">
-        <v>37500</v>
+        <v>55500</v>
       </c>
       <c r="H83" s="3">
+        <v>37400</v>
+      </c>
+      <c r="I83" s="3">
         <v>41600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>83400</v>
+        <v>137100</v>
       </c>
       <c r="E89" s="3">
+        <v>83300</v>
+      </c>
+      <c r="F89" s="3">
         <v>33500</v>
       </c>
-      <c r="F89" s="3">
-        <v>73900</v>
-      </c>
       <c r="G89" s="3">
-        <v>165700</v>
+        <v>73800</v>
       </c>
       <c r="H89" s="3">
+        <v>165600</v>
+      </c>
+      <c r="I89" s="3">
         <v>26600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>52000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>51300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-51400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-74500</v>
-      </c>
       <c r="G91" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-76300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-75800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-145200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-79900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-127900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-88700</v>
-      </c>
       <c r="H100" s="3">
+        <v>-88600</v>
+      </c>
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="I100" s="3">
-        <v>-24100</v>
-      </c>
       <c r="J100" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-34600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>133300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25100</v>
+        <v>119000</v>
       </c>
       <c r="E102" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F102" s="3">
         <v>5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-27100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-40100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-107500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>340000</v>
+        <v>332200</v>
       </c>
       <c r="E8" s="3">
-        <v>269400</v>
+        <v>263200</v>
       </c>
       <c r="F8" s="3">
-        <v>258300</v>
+        <v>252300</v>
       </c>
       <c r="G8" s="3">
-        <v>269800</v>
+        <v>263600</v>
       </c>
       <c r="H8" s="3">
-        <v>296900</v>
+        <v>290000</v>
       </c>
       <c r="I8" s="3">
-        <v>207100</v>
+        <v>202300</v>
       </c>
       <c r="J8" s="3">
-        <v>227000</v>
+        <v>221800</v>
       </c>
       <c r="K8" s="3">
         <v>269200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>211500</v>
+        <v>206600</v>
       </c>
       <c r="E9" s="3">
-        <v>250800</v>
+        <v>245000</v>
       </c>
       <c r="F9" s="3">
-        <v>289000</v>
+        <v>282400</v>
       </c>
       <c r="G9" s="3">
-        <v>237500</v>
+        <v>232000</v>
       </c>
       <c r="H9" s="3">
-        <v>194900</v>
+        <v>190400</v>
       </c>
       <c r="I9" s="3">
-        <v>205700</v>
+        <v>200900</v>
       </c>
       <c r="J9" s="3">
-        <v>226000</v>
+        <v>220800</v>
       </c>
       <c r="K9" s="3">
         <v>287400</v>
@@ -801,19 +801,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>128500</v>
+        <v>125600</v>
       </c>
       <c r="E10" s="3">
-        <v>18600</v>
+        <v>18200</v>
       </c>
       <c r="F10" s="3">
-        <v>-30700</v>
+        <v>-30000</v>
       </c>
       <c r="G10" s="3">
-        <v>32300</v>
+        <v>31600</v>
       </c>
       <c r="H10" s="3">
-        <v>102000</v>
+        <v>99700</v>
       </c>
       <c r="I10" s="3">
         <v>1400</v>
@@ -863,13 +863,13 @@
         <v>1100</v>
       </c>
       <c r="F12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I12" s="3">
         <v>1600</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>247800</v>
+        <v>242100</v>
       </c>
       <c r="E17" s="3">
-        <v>264600</v>
+        <v>258500</v>
       </c>
       <c r="F17" s="3">
-        <v>306500</v>
+        <v>299400</v>
       </c>
       <c r="G17" s="3">
-        <v>247700</v>
+        <v>242000</v>
       </c>
       <c r="H17" s="3">
-        <v>234900</v>
+        <v>229500</v>
       </c>
       <c r="I17" s="3">
-        <v>227200</v>
+        <v>222000</v>
       </c>
       <c r="J17" s="3">
-        <v>227600</v>
+        <v>222300</v>
       </c>
       <c r="K17" s="3">
         <v>286300</v>
@@ -1066,22 +1066,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>92200</v>
+        <v>90100</v>
       </c>
       <c r="E18" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F18" s="3">
-        <v>-48200</v>
+        <v>-47100</v>
       </c>
       <c r="G18" s="3">
-        <v>22200</v>
+        <v>21600</v>
       </c>
       <c r="H18" s="3">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="I18" s="3">
-        <v>-20100</v>
+        <v>-19700</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="E20" s="3">
         <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="3">
-        <v>-24700</v>
+        <v>-24100</v>
       </c>
       <c r="H20" s="3">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="J20" s="3">
-        <v>-34500</v>
+        <v>-33700</v>
       </c>
       <c r="K20" s="3">
         <v>-13000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>138100</v>
+        <v>135300</v>
       </c>
       <c r="E21" s="3">
-        <v>78100</v>
+        <v>76900</v>
       </c>
       <c r="F21" s="3">
-        <v>45600</v>
+        <v>45300</v>
       </c>
       <c r="G21" s="3">
-        <v>52700</v>
+        <v>52000</v>
       </c>
       <c r="H21" s="3">
-        <v>111400</v>
+        <v>109100</v>
       </c>
       <c r="I21" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="J21" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="K21" s="3">
         <v>6900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30500</v>
+        <v>29800</v>
       </c>
       <c r="E22" s="3">
-        <v>29300</v>
+        <v>28600</v>
       </c>
       <c r="F22" s="3">
-        <v>27100</v>
+        <v>26500</v>
       </c>
       <c r="G22" s="3">
-        <v>25200</v>
+        <v>24600</v>
       </c>
       <c r="H22" s="3">
-        <v>24300</v>
+        <v>23700</v>
       </c>
       <c r="I22" s="3">
-        <v>21700</v>
+        <v>21200</v>
       </c>
       <c r="J22" s="3">
-        <v>18300</v>
+        <v>17900</v>
       </c>
       <c r="K22" s="3">
         <v>19100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55600</v>
+        <v>54300</v>
       </c>
       <c r="E23" s="3">
-        <v>-25600</v>
+        <v>-25000</v>
       </c>
       <c r="F23" s="3">
-        <v>-67300</v>
+        <v>-65700</v>
       </c>
       <c r="G23" s="3">
-        <v>-27700</v>
+        <v>-27100</v>
       </c>
       <c r="H23" s="3">
-        <v>49800</v>
+        <v>48600</v>
       </c>
       <c r="I23" s="3">
-        <v>-36200</v>
+        <v>-35300</v>
       </c>
       <c r="J23" s="3">
-        <v>-53300</v>
+        <v>-52100</v>
       </c>
       <c r="K23" s="3">
         <v>-49200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="E24" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="F24" s="3">
-        <v>-25400</v>
+        <v>-24800</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>22900</v>
+        <v>22400</v>
       </c>
       <c r="I24" s="3">
-        <v>-11500</v>
+        <v>-11300</v>
       </c>
       <c r="J24" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="K24" s="3">
         <v>-6900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="E26" s="3">
-        <v>-18500</v>
+        <v>-18000</v>
       </c>
       <c r="F26" s="3">
-        <v>-41900</v>
+        <v>-40900</v>
       </c>
       <c r="G26" s="3">
-        <v>-28100</v>
+        <v>-27400</v>
       </c>
       <c r="H26" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="I26" s="3">
-        <v>-24600</v>
+        <v>-24100</v>
       </c>
       <c r="J26" s="3">
-        <v>-48900</v>
+        <v>-47800</v>
       </c>
       <c r="K26" s="3">
         <v>-42300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="E27" s="3">
-        <v>-18500</v>
+        <v>-18000</v>
       </c>
       <c r="F27" s="3">
-        <v>-41900</v>
+        <v>-40900</v>
       </c>
       <c r="G27" s="3">
-        <v>-28100</v>
+        <v>-27400</v>
       </c>
       <c r="H27" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="I27" s="3">
-        <v>-24600</v>
+        <v>-24100</v>
       </c>
       <c r="J27" s="3">
-        <v>-48900</v>
+        <v>-47800</v>
       </c>
       <c r="K27" s="3">
         <v>-42300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E32" s="3">
         <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="G32" s="3">
-        <v>24700</v>
+        <v>24100</v>
       </c>
       <c r="H32" s="3">
-        <v>-12100</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="J32" s="3">
-        <v>34500</v>
+        <v>33700</v>
       </c>
       <c r="K32" s="3">
         <v>13000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="E33" s="3">
-        <v>-18500</v>
+        <v>-18000</v>
       </c>
       <c r="F33" s="3">
-        <v>-41900</v>
+        <v>-40900</v>
       </c>
       <c r="G33" s="3">
-        <v>-28100</v>
+        <v>-27400</v>
       </c>
       <c r="H33" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="I33" s="3">
-        <v>-24600</v>
+        <v>-24100</v>
       </c>
       <c r="J33" s="3">
-        <v>-48900</v>
+        <v>-47800</v>
       </c>
       <c r="K33" s="3">
         <v>-42300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="E35" s="3">
-        <v>-18500</v>
+        <v>-18000</v>
       </c>
       <c r="F35" s="3">
-        <v>-41900</v>
+        <v>-40900</v>
       </c>
       <c r="G35" s="3">
-        <v>-28100</v>
+        <v>-27400</v>
       </c>
       <c r="H35" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="I35" s="3">
-        <v>-24600</v>
+        <v>-24100</v>
       </c>
       <c r="J35" s="3">
-        <v>-48900</v>
+        <v>-47800</v>
       </c>
       <c r="K35" s="3">
         <v>-42300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>185800</v>
+        <v>181500</v>
       </c>
       <c r="E41" s="3">
-        <v>66800</v>
+        <v>65200</v>
       </c>
       <c r="F41" s="3">
-        <v>41700</v>
+        <v>40800</v>
       </c>
       <c r="G41" s="3">
-        <v>35800</v>
+        <v>35000</v>
       </c>
       <c r="H41" s="3">
-        <v>63000</v>
+        <v>61500</v>
       </c>
       <c r="I41" s="3">
-        <v>69900</v>
+        <v>68300</v>
       </c>
       <c r="J41" s="3">
-        <v>53800</v>
+        <v>52500</v>
       </c>
       <c r="K41" s="3">
         <v>41800</v>
@@ -1872,7 +1872,7 @@
         <v>600</v>
       </c>
       <c r="G42" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H42" s="3">
         <v>1900</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E43" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F43" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="G43" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="H43" s="3">
-        <v>17000</v>
+        <v>16600</v>
       </c>
       <c r="I43" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J43" s="3">
         <v>10100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>10400</v>
       </c>
       <c r="K43" s="3">
         <v>31200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62700</v>
+        <v>61200</v>
       </c>
       <c r="E44" s="3">
-        <v>46200</v>
+        <v>45100</v>
       </c>
       <c r="F44" s="3">
-        <v>34200</v>
+        <v>33400</v>
       </c>
       <c r="G44" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="H44" s="3">
+        <v>30400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>46400</v>
+      </c>
+      <c r="J44" s="3">
         <v>31100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>47500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>31900</v>
       </c>
       <c r="K44" s="3">
         <v>28300</v>
@@ -1980,13 +1980,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="3">
         <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
         <v>1100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>264600</v>
+        <v>258500</v>
       </c>
       <c r="E46" s="3">
-        <v>123400</v>
+        <v>120500</v>
       </c>
       <c r="F46" s="3">
-        <v>89300</v>
+        <v>87300</v>
       </c>
       <c r="G46" s="3">
-        <v>82000</v>
+        <v>80100</v>
       </c>
       <c r="H46" s="3">
-        <v>114400</v>
+        <v>111700</v>
       </c>
       <c r="I46" s="3">
-        <v>129700</v>
+        <v>126700</v>
       </c>
       <c r="J46" s="3">
-        <v>98500</v>
+        <v>96300</v>
       </c>
       <c r="K46" s="3">
         <v>107300</v>
@@ -2064,19 +2064,19 @@
         <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I47" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="J47" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="K47" s="3">
         <v>22300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>657500</v>
+        <v>642300</v>
       </c>
       <c r="E48" s="3">
-        <v>582800</v>
+        <v>569300</v>
       </c>
       <c r="F48" s="3">
-        <v>594800</v>
+        <v>581100</v>
       </c>
       <c r="G48" s="3">
-        <v>644500</v>
+        <v>629600</v>
       </c>
       <c r="H48" s="3">
-        <v>625600</v>
+        <v>611200</v>
       </c>
       <c r="I48" s="3">
-        <v>573000</v>
+        <v>559800</v>
       </c>
       <c r="J48" s="3">
-        <v>1247400</v>
+        <v>1218600</v>
       </c>
       <c r="K48" s="3">
         <v>623100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4100</v>
       </c>
-      <c r="E49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>4400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4500</v>
       </c>
       <c r="K49" s="3">
         <v>3800</v>
@@ -2256,22 +2256,22 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="3">
         <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="H52" s="3">
-        <v>29900</v>
+        <v>29200</v>
       </c>
       <c r="I52" s="3">
-        <v>29800</v>
+        <v>29200</v>
       </c>
       <c r="J52" s="3">
-        <v>42200</v>
+        <v>41300</v>
       </c>
       <c r="K52" s="3">
         <v>22800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>928500</v>
+        <v>907100</v>
       </c>
       <c r="E54" s="3">
-        <v>714400</v>
+        <v>697900</v>
       </c>
       <c r="F54" s="3">
-        <v>693700</v>
+        <v>677700</v>
       </c>
       <c r="G54" s="3">
-        <v>763300</v>
+        <v>745700</v>
       </c>
       <c r="H54" s="3">
-        <v>775900</v>
+        <v>758000</v>
       </c>
       <c r="I54" s="3">
-        <v>745100</v>
+        <v>727900</v>
       </c>
       <c r="J54" s="3">
-        <v>764500</v>
+        <v>746900</v>
       </c>
       <c r="K54" s="3">
         <v>779200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="E57" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="F57" s="3">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="G57" s="3">
-        <v>17200</v>
+        <v>16800</v>
       </c>
       <c r="H57" s="3">
-        <v>18700</v>
+        <v>18300</v>
       </c>
       <c r="I57" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="J57" s="3">
-        <v>44300</v>
+        <v>43300</v>
       </c>
       <c r="K57" s="3">
         <v>28900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="F58" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H58" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="I58" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="J58" s="3">
-        <v>46900</v>
+        <v>45800</v>
       </c>
       <c r="K58" s="3">
         <v>15800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43200</v>
+        <v>42200</v>
       </c>
       <c r="E59" s="3">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="F59" s="3">
-        <v>20900</v>
+        <v>20400</v>
       </c>
       <c r="G59" s="3">
-        <v>20200</v>
+        <v>19700</v>
       </c>
       <c r="H59" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="I59" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="J59" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="K59" s="3">
         <v>7400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81200</v>
+        <v>79300</v>
       </c>
       <c r="E60" s="3">
-        <v>61600</v>
+        <v>60200</v>
       </c>
       <c r="F60" s="3">
-        <v>52800</v>
+        <v>51600</v>
       </c>
       <c r="G60" s="3">
-        <v>45100</v>
+        <v>44000</v>
       </c>
       <c r="H60" s="3">
-        <v>48200</v>
+        <v>47100</v>
       </c>
       <c r="I60" s="3">
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="J60" s="3">
-        <v>74900</v>
+        <v>73200</v>
       </c>
       <c r="K60" s="3">
         <v>52200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>404000</v>
+        <v>394700</v>
       </c>
       <c r="E61" s="3">
-        <v>271400</v>
+        <v>265100</v>
       </c>
       <c r="F61" s="3">
-        <v>280200</v>
+        <v>273700</v>
       </c>
       <c r="G61" s="3">
-        <v>271200</v>
+        <v>265000</v>
       </c>
       <c r="H61" s="3">
-        <v>249500</v>
+        <v>243800</v>
       </c>
       <c r="I61" s="3">
-        <v>292800</v>
+        <v>286100</v>
       </c>
       <c r="J61" s="3">
-        <v>239700</v>
+        <v>234100</v>
       </c>
       <c r="K61" s="3">
         <v>230400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>162000</v>
+        <v>158200</v>
       </c>
       <c r="E62" s="3">
-        <v>132400</v>
+        <v>129300</v>
       </c>
       <c r="F62" s="3">
-        <v>124000</v>
+        <v>121100</v>
       </c>
       <c r="G62" s="3">
-        <v>174700</v>
+        <v>170600</v>
       </c>
       <c r="H62" s="3">
-        <v>190100</v>
+        <v>185700</v>
       </c>
       <c r="I62" s="3">
-        <v>143300</v>
+        <v>140000</v>
       </c>
       <c r="J62" s="3">
-        <v>159700</v>
+        <v>156000</v>
       </c>
       <c r="K62" s="3">
         <v>165100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>647200</v>
+        <v>632200</v>
       </c>
       <c r="E66" s="3">
-        <v>465300</v>
+        <v>454600</v>
       </c>
       <c r="F66" s="3">
-        <v>457000</v>
+        <v>446400</v>
       </c>
       <c r="G66" s="3">
-        <v>491000</v>
+        <v>479600</v>
       </c>
       <c r="H66" s="3">
-        <v>487800</v>
+        <v>476600</v>
       </c>
       <c r="I66" s="3">
-        <v>479100</v>
+        <v>468000</v>
       </c>
       <c r="J66" s="3">
-        <v>473900</v>
+        <v>463000</v>
       </c>
       <c r="K66" s="3">
         <v>447700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-141400</v>
+        <v>-138100</v>
       </c>
       <c r="E72" s="3">
-        <v>-170000</v>
+        <v>-166100</v>
       </c>
       <c r="F72" s="3">
-        <v>-151500</v>
+        <v>-148000</v>
       </c>
       <c r="G72" s="3">
-        <v>-109600</v>
+        <v>-107100</v>
       </c>
       <c r="H72" s="3">
-        <v>-80700</v>
+        <v>-78900</v>
       </c>
       <c r="I72" s="3">
-        <v>-107600</v>
+        <v>-105100</v>
       </c>
       <c r="J72" s="3">
-        <v>-83000</v>
+        <v>-81100</v>
       </c>
       <c r="K72" s="3">
         <v>-34100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>281300</v>
+        <v>274900</v>
       </c>
       <c r="E76" s="3">
-        <v>249100</v>
+        <v>243300</v>
       </c>
       <c r="F76" s="3">
-        <v>236700</v>
+        <v>231300</v>
       </c>
       <c r="G76" s="3">
-        <v>272400</v>
+        <v>266100</v>
       </c>
       <c r="H76" s="3">
-        <v>288100</v>
+        <v>281400</v>
       </c>
       <c r="I76" s="3">
-        <v>266000</v>
+        <v>259800</v>
       </c>
       <c r="J76" s="3">
-        <v>290600</v>
+        <v>283900</v>
       </c>
       <c r="K76" s="3">
         <v>331500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28600</v>
+        <v>28000</v>
       </c>
       <c r="E81" s="3">
-        <v>-18500</v>
+        <v>-18000</v>
       </c>
       <c r="F81" s="3">
-        <v>-41900</v>
+        <v>-40900</v>
       </c>
       <c r="G81" s="3">
-        <v>-28100</v>
+        <v>-27400</v>
       </c>
       <c r="H81" s="3">
-        <v>26900</v>
+        <v>26300</v>
       </c>
       <c r="I81" s="3">
-        <v>-24600</v>
+        <v>-24100</v>
       </c>
       <c r="J81" s="3">
-        <v>-48900</v>
+        <v>-47800</v>
       </c>
       <c r="K81" s="3">
         <v>-42300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52300</v>
+        <v>51000</v>
       </c>
       <c r="E83" s="3">
-        <v>74800</v>
+        <v>73100</v>
       </c>
       <c r="F83" s="3">
-        <v>86100</v>
+        <v>84100</v>
       </c>
       <c r="G83" s="3">
-        <v>55500</v>
+        <v>54300</v>
       </c>
       <c r="H83" s="3">
-        <v>37400</v>
+        <v>36600</v>
       </c>
       <c r="I83" s="3">
-        <v>41600</v>
+        <v>40700</v>
       </c>
       <c r="J83" s="3">
-        <v>38900</v>
+        <v>38000</v>
       </c>
       <c r="K83" s="3">
         <v>37200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>137100</v>
+        <v>134000</v>
       </c>
       <c r="E89" s="3">
-        <v>83300</v>
+        <v>81400</v>
       </c>
       <c r="F89" s="3">
-        <v>33500</v>
+        <v>32700</v>
       </c>
       <c r="G89" s="3">
-        <v>73800</v>
+        <v>72100</v>
       </c>
       <c r="H89" s="3">
-        <v>165600</v>
+        <v>161800</v>
       </c>
       <c r="I89" s="3">
-        <v>26600</v>
+        <v>26000</v>
       </c>
       <c r="J89" s="3">
-        <v>40600</v>
+        <v>39600</v>
       </c>
       <c r="K89" s="3">
         <v>39700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55500</v>
+        <v>-54200</v>
       </c>
       <c r="E91" s="3">
-        <v>-51400</v>
+        <v>-50200</v>
       </c>
       <c r="F91" s="3">
-        <v>-39800</v>
+        <v>-38900</v>
       </c>
       <c r="G91" s="3">
-        <v>-74400</v>
+        <v>-72700</v>
       </c>
       <c r="H91" s="3">
-        <v>-76300</v>
+        <v>-74500</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-14400</v>
       </c>
       <c r="J91" s="3">
-        <v>-14900</v>
+        <v>-14500</v>
       </c>
       <c r="K91" s="3">
         <v>-30500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115900</v>
+        <v>-113200</v>
       </c>
       <c r="E94" s="3">
-        <v>-46800</v>
+        <v>-45700</v>
       </c>
       <c r="F94" s="3">
-        <v>-13300</v>
+        <v>-13000</v>
       </c>
       <c r="G94" s="3">
-        <v>-74100</v>
+        <v>-72400</v>
       </c>
       <c r="H94" s="3">
-        <v>-79900</v>
+        <v>-78100</v>
       </c>
       <c r="I94" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K94" s="3">
         <v>-30900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>98700</v>
+        <v>96400</v>
       </c>
       <c r="E100" s="3">
-        <v>-9400</v>
+        <v>-9200</v>
       </c>
       <c r="F100" s="3">
-        <v>-13100</v>
+        <v>-12800</v>
       </c>
       <c r="G100" s="3">
-        <v>-26400</v>
+        <v>-25800</v>
       </c>
       <c r="H100" s="3">
-        <v>-88600</v>
+        <v>-86600</v>
       </c>
       <c r="I100" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="J100" s="3">
-        <v>-24000</v>
+        <v>-23500</v>
       </c>
       <c r="K100" s="3">
         <v>-34600</v>
@@ -3971,13 +3971,13 @@
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
         <v>-400</v>
       </c>
       <c r="J101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K101" s="3">
         <v>2600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>119000</v>
+        <v>116300</v>
       </c>
       <c r="E102" s="3">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="F102" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G102" s="3">
-        <v>-27100</v>
+        <v>-26500</v>
       </c>
       <c r="H102" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="I102" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="J102" s="3">
-        <v>17800</v>
+        <v>17400</v>
       </c>
       <c r="K102" s="3">
         <v>-23200</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>332200</v>
+        <v>335200</v>
       </c>
       <c r="E8" s="3">
-        <v>263200</v>
+        <v>265600</v>
       </c>
       <c r="F8" s="3">
-        <v>252300</v>
+        <v>254700</v>
       </c>
       <c r="G8" s="3">
-        <v>263600</v>
+        <v>266100</v>
       </c>
       <c r="H8" s="3">
-        <v>290000</v>
+        <v>292700</v>
       </c>
       <c r="I8" s="3">
-        <v>202300</v>
+        <v>204200</v>
       </c>
       <c r="J8" s="3">
-        <v>221800</v>
+        <v>223800</v>
       </c>
       <c r="K8" s="3">
         <v>269200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>206600</v>
+        <v>208500</v>
       </c>
       <c r="E9" s="3">
-        <v>245000</v>
+        <v>247200</v>
       </c>
       <c r="F9" s="3">
-        <v>282400</v>
+        <v>285000</v>
       </c>
       <c r="G9" s="3">
-        <v>232000</v>
+        <v>234200</v>
       </c>
       <c r="H9" s="3">
-        <v>190400</v>
+        <v>192100</v>
       </c>
       <c r="I9" s="3">
-        <v>200900</v>
+        <v>202800</v>
       </c>
       <c r="J9" s="3">
-        <v>220800</v>
+        <v>222800</v>
       </c>
       <c r="K9" s="3">
         <v>287400</v>
@@ -801,19 +801,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>125600</v>
+        <v>126700</v>
       </c>
       <c r="E10" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="F10" s="3">
-        <v>-30000</v>
+        <v>-30300</v>
       </c>
       <c r="G10" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="H10" s="3">
-        <v>99700</v>
+        <v>100600</v>
       </c>
       <c r="I10" s="3">
         <v>1400</v>
@@ -863,10 +863,10 @@
         <v>1100</v>
       </c>
       <c r="F12" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>242100</v>
+        <v>244300</v>
       </c>
       <c r="E17" s="3">
-        <v>258500</v>
+        <v>260900</v>
       </c>
       <c r="F17" s="3">
-        <v>299400</v>
+        <v>302200</v>
       </c>
       <c r="G17" s="3">
-        <v>242000</v>
+        <v>244200</v>
       </c>
       <c r="H17" s="3">
-        <v>229500</v>
+        <v>231600</v>
       </c>
       <c r="I17" s="3">
-        <v>222000</v>
+        <v>224000</v>
       </c>
       <c r="J17" s="3">
-        <v>222300</v>
+        <v>224400</v>
       </c>
       <c r="K17" s="3">
         <v>286300</v>
@@ -1066,22 +1066,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90100</v>
+        <v>90900</v>
       </c>
       <c r="E18" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F18" s="3">
-        <v>-47100</v>
+        <v>-47500</v>
       </c>
       <c r="G18" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="H18" s="3">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="I18" s="3">
-        <v>-19700</v>
+        <v>-19900</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
@@ -1122,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="E20" s="3">
         <v>-1100</v>
@@ -1131,16 +1131,16 @@
         <v>7900</v>
       </c>
       <c r="G20" s="3">
-        <v>-24100</v>
+        <v>-24400</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="I20" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J20" s="3">
-        <v>-33700</v>
+        <v>-34000</v>
       </c>
       <c r="K20" s="3">
         <v>-13000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>135300</v>
+        <v>136200</v>
       </c>
       <c r="E21" s="3">
-        <v>76900</v>
+        <v>77100</v>
       </c>
       <c r="F21" s="3">
-        <v>45300</v>
+        <v>45100</v>
       </c>
       <c r="G21" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="H21" s="3">
-        <v>109100</v>
+        <v>109900</v>
       </c>
       <c r="I21" s="3">
-        <v>26700</v>
+        <v>26600</v>
       </c>
       <c r="J21" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K21" s="3">
         <v>6900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29800</v>
+        <v>30100</v>
       </c>
       <c r="E22" s="3">
-        <v>28600</v>
+        <v>28900</v>
       </c>
       <c r="F22" s="3">
-        <v>26500</v>
+        <v>26800</v>
       </c>
       <c r="G22" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="H22" s="3">
-        <v>23700</v>
+        <v>24000</v>
       </c>
       <c r="I22" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="J22" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="K22" s="3">
         <v>19100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54300</v>
+        <v>54800</v>
       </c>
       <c r="E23" s="3">
-        <v>-25000</v>
+        <v>-25200</v>
       </c>
       <c r="F23" s="3">
-        <v>-65700</v>
+        <v>-66300</v>
       </c>
       <c r="G23" s="3">
-        <v>-27100</v>
+        <v>-27300</v>
       </c>
       <c r="H23" s="3">
-        <v>48600</v>
+        <v>49100</v>
       </c>
       <c r="I23" s="3">
-        <v>-35300</v>
+        <v>-35700</v>
       </c>
       <c r="J23" s="3">
-        <v>-52100</v>
+        <v>-52600</v>
       </c>
       <c r="K23" s="3">
         <v>-49200</v>
@@ -1278,22 +1278,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26300</v>
+        <v>26600</v>
       </c>
       <c r="E24" s="3">
         <v>-7000</v>
       </c>
       <c r="F24" s="3">
-        <v>-24800</v>
+        <v>-25000</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="I24" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="J24" s="3">
         <v>-4300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="E26" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="F26" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="G26" s="3">
-        <v>-27400</v>
+        <v>-27700</v>
       </c>
       <c r="H26" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I26" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="J26" s="3">
-        <v>-47800</v>
+        <v>-48200</v>
       </c>
       <c r="K26" s="3">
         <v>-42300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="E27" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="F27" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="G27" s="3">
-        <v>-27400</v>
+        <v>-27700</v>
       </c>
       <c r="H27" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I27" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="J27" s="3">
-        <v>-47800</v>
+        <v>-48200</v>
       </c>
       <c r="K27" s="3">
         <v>-42300</v>
@@ -1590,7 +1590,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E32" s="3">
         <v>1100</v>
@@ -1599,16 +1599,16 @@
         <v>-7900</v>
       </c>
       <c r="G32" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="I32" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="J32" s="3">
-        <v>33700</v>
+        <v>34000</v>
       </c>
       <c r="K32" s="3">
         <v>13000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="E33" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="F33" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="G33" s="3">
-        <v>-27400</v>
+        <v>-27700</v>
       </c>
       <c r="H33" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I33" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="J33" s="3">
-        <v>-47800</v>
+        <v>-48200</v>
       </c>
       <c r="K33" s="3">
         <v>-42300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="E35" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="F35" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="G35" s="3">
-        <v>-27400</v>
+        <v>-27700</v>
       </c>
       <c r="H35" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I35" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="J35" s="3">
-        <v>-47800</v>
+        <v>-48200</v>
       </c>
       <c r="K35" s="3">
         <v>-42300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181500</v>
+        <v>183200</v>
       </c>
       <c r="E41" s="3">
-        <v>65200</v>
+        <v>65900</v>
       </c>
       <c r="F41" s="3">
-        <v>40800</v>
+        <v>41200</v>
       </c>
       <c r="G41" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="H41" s="3">
-        <v>61500</v>
+        <v>62100</v>
       </c>
       <c r="I41" s="3">
-        <v>68300</v>
+        <v>68900</v>
       </c>
       <c r="J41" s="3">
-        <v>52500</v>
+        <v>53000</v>
       </c>
       <c r="K41" s="3">
         <v>41800</v>
@@ -1872,7 +1872,7 @@
         <v>600</v>
       </c>
       <c r="G42" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H42" s="3">
         <v>1900</v>
@@ -1905,22 +1905,22 @@
         <v>7400</v>
       </c>
       <c r="E43" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F43" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="G43" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="H43" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="I43" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J43" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="K43" s="3">
         <v>31200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61200</v>
+        <v>61800</v>
       </c>
       <c r="E44" s="3">
-        <v>45100</v>
+        <v>45500</v>
       </c>
       <c r="F44" s="3">
-        <v>33400</v>
+        <v>33800</v>
       </c>
       <c r="G44" s="3">
-        <v>29900</v>
+        <v>30200</v>
       </c>
       <c r="H44" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="I44" s="3">
-        <v>46400</v>
+        <v>46900</v>
       </c>
       <c r="J44" s="3">
-        <v>31100</v>
+        <v>31400</v>
       </c>
       <c r="K44" s="3">
         <v>28300</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E45" s="3">
         <v>3700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>258500</v>
+        <v>260900</v>
       </c>
       <c r="E46" s="3">
-        <v>120500</v>
+        <v>121600</v>
       </c>
       <c r="F46" s="3">
-        <v>87300</v>
+        <v>88100</v>
       </c>
       <c r="G46" s="3">
-        <v>80100</v>
+        <v>80800</v>
       </c>
       <c r="H46" s="3">
-        <v>111700</v>
+        <v>112800</v>
       </c>
       <c r="I46" s="3">
-        <v>126700</v>
+        <v>127900</v>
       </c>
       <c r="J46" s="3">
-        <v>96300</v>
+        <v>97200</v>
       </c>
       <c r="K46" s="3">
         <v>107300</v>
@@ -2064,19 +2064,19 @@
         <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H47" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I47" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J47" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="K47" s="3">
         <v>22300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>642300</v>
+        <v>648300</v>
       </c>
       <c r="E48" s="3">
-        <v>569300</v>
+        <v>574600</v>
       </c>
       <c r="F48" s="3">
-        <v>581100</v>
+        <v>586500</v>
       </c>
       <c r="G48" s="3">
-        <v>629600</v>
+        <v>635500</v>
       </c>
       <c r="H48" s="3">
-        <v>611200</v>
+        <v>616900</v>
       </c>
       <c r="I48" s="3">
-        <v>559800</v>
+        <v>565000</v>
       </c>
       <c r="J48" s="3">
-        <v>1218600</v>
+        <v>1229900</v>
       </c>
       <c r="K48" s="3">
         <v>623100</v>
@@ -2139,19 +2139,19 @@
         <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
         <v>4100</v>
       </c>
       <c r="G49" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H49" s="3">
         <v>4000</v>
       </c>
       <c r="I49" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J49" s="3">
         <v>4400</v>
@@ -2256,22 +2256,22 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
         <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>29900</v>
+        <v>30200</v>
       </c>
       <c r="H52" s="3">
-        <v>29200</v>
+        <v>29500</v>
       </c>
       <c r="I52" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="J52" s="3">
-        <v>41300</v>
+        <v>41700</v>
       </c>
       <c r="K52" s="3">
         <v>22800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>907100</v>
+        <v>915500</v>
       </c>
       <c r="E54" s="3">
-        <v>697900</v>
+        <v>704400</v>
       </c>
       <c r="F54" s="3">
-        <v>677700</v>
+        <v>684000</v>
       </c>
       <c r="G54" s="3">
-        <v>745700</v>
+        <v>752600</v>
       </c>
       <c r="H54" s="3">
-        <v>758000</v>
+        <v>765000</v>
       </c>
       <c r="I54" s="3">
-        <v>727900</v>
+        <v>734600</v>
       </c>
       <c r="J54" s="3">
-        <v>746900</v>
+        <v>753800</v>
       </c>
       <c r="K54" s="3">
         <v>779200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="E57" s="3">
-        <v>25100</v>
+        <v>25400</v>
       </c>
       <c r="F57" s="3">
+        <v>18700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H57" s="3">
         <v>18500</v>
       </c>
-      <c r="G57" s="3">
-        <v>16800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>18300</v>
-      </c>
       <c r="I57" s="3">
-        <v>21600</v>
+        <v>21800</v>
       </c>
       <c r="J57" s="3">
-        <v>43300</v>
+        <v>43700</v>
       </c>
       <c r="K57" s="3">
         <v>28900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="E58" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="F58" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G58" s="3">
         <v>7600</v>
       </c>
       <c r="H58" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="I58" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="J58" s="3">
-        <v>45800</v>
+        <v>46300</v>
       </c>
       <c r="K58" s="3">
         <v>15800</v>
@@ -2482,22 +2482,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42200</v>
+        <v>42600</v>
       </c>
       <c r="E59" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="F59" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>19900</v>
       </c>
       <c r="H59" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="I59" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="J59" s="3">
         <v>7200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>79300</v>
+        <v>80100</v>
       </c>
       <c r="E60" s="3">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="F60" s="3">
-        <v>51600</v>
+        <v>52100</v>
       </c>
       <c r="G60" s="3">
-        <v>44000</v>
+        <v>44400</v>
       </c>
       <c r="H60" s="3">
-        <v>47100</v>
+        <v>47500</v>
       </c>
       <c r="I60" s="3">
-        <v>42000</v>
+        <v>42400</v>
       </c>
       <c r="J60" s="3">
-        <v>73200</v>
+        <v>73900</v>
       </c>
       <c r="K60" s="3">
         <v>52200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>394700</v>
+        <v>398300</v>
       </c>
       <c r="E61" s="3">
-        <v>265100</v>
+        <v>267600</v>
       </c>
       <c r="F61" s="3">
-        <v>273700</v>
+        <v>276200</v>
       </c>
       <c r="G61" s="3">
-        <v>265000</v>
+        <v>267400</v>
       </c>
       <c r="H61" s="3">
-        <v>243800</v>
+        <v>246000</v>
       </c>
       <c r="I61" s="3">
-        <v>286100</v>
+        <v>288700</v>
       </c>
       <c r="J61" s="3">
-        <v>234100</v>
+        <v>236300</v>
       </c>
       <c r="K61" s="3">
         <v>230400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>158200</v>
+        <v>159700</v>
       </c>
       <c r="E62" s="3">
-        <v>129300</v>
+        <v>130500</v>
       </c>
       <c r="F62" s="3">
-        <v>121100</v>
+        <v>122200</v>
       </c>
       <c r="G62" s="3">
-        <v>170600</v>
+        <v>172200</v>
       </c>
       <c r="H62" s="3">
-        <v>185700</v>
+        <v>187500</v>
       </c>
       <c r="I62" s="3">
-        <v>140000</v>
+        <v>141300</v>
       </c>
       <c r="J62" s="3">
-        <v>156000</v>
+        <v>157400</v>
       </c>
       <c r="K62" s="3">
         <v>165100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>632200</v>
+        <v>638100</v>
       </c>
       <c r="E66" s="3">
-        <v>454600</v>
+        <v>458800</v>
       </c>
       <c r="F66" s="3">
-        <v>446400</v>
+        <v>450600</v>
       </c>
       <c r="G66" s="3">
-        <v>479600</v>
+        <v>484100</v>
       </c>
       <c r="H66" s="3">
-        <v>476600</v>
+        <v>481000</v>
       </c>
       <c r="I66" s="3">
-        <v>468000</v>
+        <v>472400</v>
       </c>
       <c r="J66" s="3">
-        <v>463000</v>
+        <v>467200</v>
       </c>
       <c r="K66" s="3">
         <v>447700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-138100</v>
+        <v>-139400</v>
       </c>
       <c r="E72" s="3">
-        <v>-166100</v>
+        <v>-167600</v>
       </c>
       <c r="F72" s="3">
-        <v>-148000</v>
+        <v>-149400</v>
       </c>
       <c r="G72" s="3">
-        <v>-107100</v>
+        <v>-108100</v>
       </c>
       <c r="H72" s="3">
-        <v>-78900</v>
+        <v>-79600</v>
       </c>
       <c r="I72" s="3">
-        <v>-105100</v>
+        <v>-106100</v>
       </c>
       <c r="J72" s="3">
-        <v>-81100</v>
+        <v>-81800</v>
       </c>
       <c r="K72" s="3">
         <v>-34100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>274900</v>
+        <v>277400</v>
       </c>
       <c r="E76" s="3">
-        <v>243300</v>
+        <v>245600</v>
       </c>
       <c r="F76" s="3">
-        <v>231300</v>
+        <v>233400</v>
       </c>
       <c r="G76" s="3">
-        <v>266100</v>
+        <v>268600</v>
       </c>
       <c r="H76" s="3">
-        <v>281400</v>
+        <v>284000</v>
       </c>
       <c r="I76" s="3">
-        <v>259800</v>
+        <v>262300</v>
       </c>
       <c r="J76" s="3">
-        <v>283900</v>
+        <v>286600</v>
       </c>
       <c r="K76" s="3">
         <v>331500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="E81" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="F81" s="3">
-        <v>-40900</v>
+        <v>-41300</v>
       </c>
       <c r="G81" s="3">
-        <v>-27400</v>
+        <v>-27700</v>
       </c>
       <c r="H81" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="I81" s="3">
-        <v>-24100</v>
+        <v>-24300</v>
       </c>
       <c r="J81" s="3">
-        <v>-47800</v>
+        <v>-48200</v>
       </c>
       <c r="K81" s="3">
         <v>-42300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51000</v>
+        <v>51500</v>
       </c>
       <c r="E83" s="3">
-        <v>73100</v>
+        <v>73700</v>
       </c>
       <c r="F83" s="3">
-        <v>84100</v>
+        <v>84900</v>
       </c>
       <c r="G83" s="3">
-        <v>54300</v>
+        <v>54800</v>
       </c>
       <c r="H83" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="I83" s="3">
-        <v>40700</v>
+        <v>41000</v>
       </c>
       <c r="J83" s="3">
-        <v>38000</v>
+        <v>38400</v>
       </c>
       <c r="K83" s="3">
         <v>37200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>134000</v>
+        <v>135200</v>
       </c>
       <c r="E89" s="3">
-        <v>81400</v>
+        <v>82200</v>
       </c>
       <c r="F89" s="3">
-        <v>32700</v>
+        <v>33000</v>
       </c>
       <c r="G89" s="3">
-        <v>72100</v>
+        <v>72800</v>
       </c>
       <c r="H89" s="3">
-        <v>161800</v>
+        <v>163300</v>
       </c>
       <c r="I89" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="J89" s="3">
-        <v>39600</v>
+        <v>40000</v>
       </c>
       <c r="K89" s="3">
         <v>39700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54200</v>
+        <v>-54700</v>
       </c>
       <c r="E91" s="3">
-        <v>-50200</v>
+        <v>-50700</v>
       </c>
       <c r="F91" s="3">
-        <v>-38900</v>
+        <v>-39300</v>
       </c>
       <c r="G91" s="3">
-        <v>-72700</v>
+        <v>-73400</v>
       </c>
       <c r="H91" s="3">
-        <v>-74500</v>
+        <v>-75200</v>
       </c>
       <c r="I91" s="3">
-        <v>-14400</v>
+        <v>-14600</v>
       </c>
       <c r="J91" s="3">
-        <v>-14500</v>
+        <v>-14700</v>
       </c>
       <c r="K91" s="3">
         <v>-30500</v>
@@ -3708,22 +3708,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-113200</v>
+        <v>-114300</v>
       </c>
       <c r="E94" s="3">
-        <v>-45700</v>
+        <v>-46100</v>
       </c>
       <c r="F94" s="3">
-        <v>-13000</v>
+        <v>-13100</v>
       </c>
       <c r="G94" s="3">
-        <v>-72400</v>
+        <v>-73000</v>
       </c>
       <c r="H94" s="3">
-        <v>-78100</v>
+        <v>-78800</v>
       </c>
       <c r="I94" s="3">
-        <v>-14600</v>
+        <v>-14800</v>
       </c>
       <c r="J94" s="3">
         <v>-2100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>96400</v>
+        <v>97300</v>
       </c>
       <c r="E100" s="3">
         <v>-9200</v>
       </c>
       <c r="F100" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="G100" s="3">
-        <v>-25800</v>
+        <v>-26000</v>
       </c>
       <c r="H100" s="3">
-        <v>-86600</v>
+        <v>-87400</v>
       </c>
       <c r="I100" s="3">
         <v>4800</v>
       </c>
       <c r="J100" s="3">
-        <v>-23500</v>
+        <v>-23700</v>
       </c>
       <c r="K100" s="3">
         <v>-34600</v>
@@ -3971,7 +3971,7 @@
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="I101" s="3">
         <v>-400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>116300</v>
+        <v>117300</v>
       </c>
       <c r="E102" s="3">
-        <v>24500</v>
+        <v>24700</v>
       </c>
       <c r="F102" s="3">
         <v>5800</v>
       </c>
       <c r="G102" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="H102" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="I102" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="J102" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="K102" s="3">
         <v>-23200</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>335200</v>
+        <v>325300</v>
       </c>
       <c r="E8" s="3">
-        <v>265600</v>
+        <v>257700</v>
       </c>
       <c r="F8" s="3">
-        <v>254700</v>
+        <v>247200</v>
       </c>
       <c r="G8" s="3">
-        <v>266100</v>
+        <v>258200</v>
       </c>
       <c r="H8" s="3">
-        <v>292700</v>
+        <v>284000</v>
       </c>
       <c r="I8" s="3">
-        <v>204200</v>
+        <v>198100</v>
       </c>
       <c r="J8" s="3">
-        <v>223800</v>
+        <v>217200</v>
       </c>
       <c r="K8" s="3">
         <v>269200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>208500</v>
+        <v>202300</v>
       </c>
       <c r="E9" s="3">
-        <v>247200</v>
+        <v>239900</v>
       </c>
       <c r="F9" s="3">
-        <v>285000</v>
+        <v>276500</v>
       </c>
       <c r="G9" s="3">
-        <v>234200</v>
+        <v>227200</v>
       </c>
       <c r="H9" s="3">
-        <v>192100</v>
+        <v>186400</v>
       </c>
       <c r="I9" s="3">
-        <v>202800</v>
+        <v>196800</v>
       </c>
       <c r="J9" s="3">
-        <v>222800</v>
+        <v>216200</v>
       </c>
       <c r="K9" s="3">
         <v>287400</v>
@@ -801,22 +801,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>126700</v>
+        <v>123000</v>
       </c>
       <c r="E10" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="F10" s="3">
-        <v>-30300</v>
+        <v>-29400</v>
       </c>
       <c r="G10" s="3">
-        <v>31900</v>
+        <v>31000</v>
       </c>
       <c r="H10" s="3">
-        <v>100600</v>
+        <v>97600</v>
       </c>
       <c r="I10" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J10" s="3">
         <v>1000</v>
@@ -860,13 +860,13 @@
         <v>-300</v>
       </c>
       <c r="E12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>244300</v>
+        <v>237100</v>
       </c>
       <c r="E17" s="3">
-        <v>260900</v>
+        <v>253200</v>
       </c>
       <c r="F17" s="3">
-        <v>302200</v>
+        <v>293200</v>
       </c>
       <c r="G17" s="3">
-        <v>244200</v>
+        <v>237000</v>
       </c>
       <c r="H17" s="3">
-        <v>231600</v>
+        <v>224700</v>
       </c>
       <c r="I17" s="3">
-        <v>224000</v>
+        <v>217400</v>
       </c>
       <c r="J17" s="3">
-        <v>224400</v>
+        <v>217700</v>
       </c>
       <c r="K17" s="3">
         <v>286300</v>
@@ -1066,22 +1066,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90900</v>
+        <v>88200</v>
       </c>
       <c r="E18" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F18" s="3">
-        <v>-47500</v>
+        <v>-46100</v>
       </c>
       <c r="G18" s="3">
-        <v>21800</v>
+        <v>21200</v>
       </c>
       <c r="H18" s="3">
-        <v>61100</v>
+        <v>59300</v>
       </c>
       <c r="I18" s="3">
-        <v>-19900</v>
+        <v>-19300</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="G20" s="3">
-        <v>-24400</v>
+        <v>-23600</v>
       </c>
       <c r="H20" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="I20" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J20" s="3">
-        <v>-34000</v>
+        <v>-33000</v>
       </c>
       <c r="K20" s="3">
         <v>-13000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>136200</v>
+        <v>131600</v>
       </c>
       <c r="E21" s="3">
-        <v>77100</v>
+        <v>74000</v>
       </c>
       <c r="F21" s="3">
-        <v>45100</v>
+        <v>42800</v>
       </c>
       <c r="G21" s="3">
-        <v>52100</v>
+        <v>49900</v>
       </c>
       <c r="H21" s="3">
-        <v>109900</v>
+        <v>106200</v>
       </c>
       <c r="I21" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="J21" s="3">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="K21" s="3">
         <v>6900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="E22" s="3">
-        <v>28900</v>
+        <v>28000</v>
       </c>
       <c r="F22" s="3">
-        <v>26800</v>
+        <v>26000</v>
       </c>
       <c r="G22" s="3">
-        <v>24800</v>
+        <v>24100</v>
       </c>
       <c r="H22" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="I22" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="J22" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="K22" s="3">
         <v>19100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54800</v>
+        <v>53200</v>
       </c>
       <c r="E23" s="3">
-        <v>-25200</v>
+        <v>-24500</v>
       </c>
       <c r="F23" s="3">
-        <v>-66300</v>
+        <v>-64400</v>
       </c>
       <c r="G23" s="3">
-        <v>-27300</v>
+        <v>-26500</v>
       </c>
       <c r="H23" s="3">
-        <v>49100</v>
+        <v>47600</v>
       </c>
       <c r="I23" s="3">
-        <v>-35700</v>
+        <v>-34600</v>
       </c>
       <c r="J23" s="3">
-        <v>-52600</v>
+        <v>-51000</v>
       </c>
       <c r="K23" s="3">
         <v>-49200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="E24" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="F24" s="3">
-        <v>-25000</v>
+        <v>-24300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="I24" s="3">
-        <v>-11400</v>
+        <v>-11000</v>
       </c>
       <c r="J24" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="K24" s="3">
         <v>-6900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="E26" s="3">
-        <v>-18200</v>
+        <v>-17700</v>
       </c>
       <c r="F26" s="3">
-        <v>-41300</v>
+        <v>-40100</v>
       </c>
       <c r="G26" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="H26" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="I26" s="3">
-        <v>-24300</v>
+        <v>-23600</v>
       </c>
       <c r="J26" s="3">
-        <v>-48200</v>
+        <v>-46800</v>
       </c>
       <c r="K26" s="3">
         <v>-42300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="E27" s="3">
-        <v>-18200</v>
+        <v>-17700</v>
       </c>
       <c r="F27" s="3">
-        <v>-41300</v>
+        <v>-40100</v>
       </c>
       <c r="G27" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="H27" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="I27" s="3">
-        <v>-24300</v>
+        <v>-23600</v>
       </c>
       <c r="J27" s="3">
-        <v>-48200</v>
+        <v>-46800</v>
       </c>
       <c r="K27" s="3">
         <v>-42300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7900</v>
+        <v>-7700</v>
       </c>
       <c r="G32" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="H32" s="3">
-        <v>-11900</v>
+        <v>-11600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="J32" s="3">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="K32" s="3">
         <v>13000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="E33" s="3">
-        <v>-18200</v>
+        <v>-17700</v>
       </c>
       <c r="F33" s="3">
-        <v>-41300</v>
+        <v>-40100</v>
       </c>
       <c r="G33" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="H33" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="I33" s="3">
-        <v>-24300</v>
+        <v>-23600</v>
       </c>
       <c r="J33" s="3">
-        <v>-48200</v>
+        <v>-46800</v>
       </c>
       <c r="K33" s="3">
         <v>-42300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="E35" s="3">
-        <v>-18200</v>
+        <v>-17700</v>
       </c>
       <c r="F35" s="3">
-        <v>-41300</v>
+        <v>-40100</v>
       </c>
       <c r="G35" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="H35" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="I35" s="3">
-        <v>-24300</v>
+        <v>-23600</v>
       </c>
       <c r="J35" s="3">
-        <v>-48200</v>
+        <v>-46800</v>
       </c>
       <c r="K35" s="3">
         <v>-42300</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>183200</v>
+        <v>177800</v>
       </c>
       <c r="E41" s="3">
-        <v>65900</v>
+        <v>63900</v>
       </c>
       <c r="F41" s="3">
-        <v>41200</v>
+        <v>39900</v>
       </c>
       <c r="G41" s="3">
-        <v>35300</v>
+        <v>34300</v>
       </c>
       <c r="H41" s="3">
-        <v>62100</v>
+        <v>60200</v>
       </c>
       <c r="I41" s="3">
-        <v>68900</v>
+        <v>66800</v>
       </c>
       <c r="J41" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="K41" s="3">
         <v>41800</v>
@@ -1863,19 +1863,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E42" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F42" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H42" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I42" s="3">
         <v>1100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="E43" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="F43" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="G43" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="H43" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="I43" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="J43" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="K43" s="3">
         <v>31200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61800</v>
+        <v>60000</v>
       </c>
       <c r="E44" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G44" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>29800</v>
+      </c>
+      <c r="I44" s="3">
         <v>45500</v>
       </c>
-      <c r="F44" s="3">
-        <v>33800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>30200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>30700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>46900</v>
-      </c>
       <c r="J44" s="3">
-        <v>31400</v>
+        <v>30500</v>
       </c>
       <c r="K44" s="3">
         <v>28300</v>
@@ -1980,10 +1980,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="E45" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
         <v>1900</v>
@@ -1998,7 +1998,7 @@
         <v>1100</v>
       </c>
       <c r="J45" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K45" s="3">
         <v>5100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>260900</v>
+        <v>253200</v>
       </c>
       <c r="E46" s="3">
-        <v>121600</v>
+        <v>118000</v>
       </c>
       <c r="F46" s="3">
-        <v>88100</v>
+        <v>85500</v>
       </c>
       <c r="G46" s="3">
-        <v>80800</v>
+        <v>78400</v>
       </c>
       <c r="H46" s="3">
-        <v>112800</v>
+        <v>109400</v>
       </c>
       <c r="I46" s="3">
-        <v>127900</v>
+        <v>124100</v>
       </c>
       <c r="J46" s="3">
-        <v>97200</v>
+        <v>94300</v>
       </c>
       <c r="K46" s="3">
         <v>107300</v>
@@ -2064,19 +2064,19 @@
         <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I47" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="J47" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="K47" s="3">
         <v>22300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>648300</v>
+        <v>629100</v>
       </c>
       <c r="E48" s="3">
-        <v>574600</v>
+        <v>557600</v>
       </c>
       <c r="F48" s="3">
-        <v>586500</v>
+        <v>569200</v>
       </c>
       <c r="G48" s="3">
-        <v>635500</v>
+        <v>616700</v>
       </c>
       <c r="H48" s="3">
-        <v>616900</v>
+        <v>598600</v>
       </c>
       <c r="I48" s="3">
-        <v>565000</v>
+        <v>548300</v>
       </c>
       <c r="J48" s="3">
-        <v>1229900</v>
+        <v>1193500</v>
       </c>
       <c r="K48" s="3">
         <v>623100</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F49" s="3">
         <v>4000</v>
       </c>
-      <c r="E49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4100</v>
-      </c>
       <c r="G49" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H49" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J49" s="3">
         <v>4300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4400</v>
       </c>
       <c r="K49" s="3">
         <v>3800</v>
@@ -2256,22 +2256,22 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G52" s="3">
-        <v>30200</v>
+        <v>29300</v>
       </c>
       <c r="H52" s="3">
-        <v>29500</v>
+        <v>28600</v>
       </c>
       <c r="I52" s="3">
-        <v>29400</v>
+        <v>28600</v>
       </c>
       <c r="J52" s="3">
-        <v>41700</v>
+        <v>40400</v>
       </c>
       <c r="K52" s="3">
         <v>22800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>915500</v>
+        <v>888400</v>
       </c>
       <c r="E54" s="3">
-        <v>704400</v>
+        <v>683600</v>
       </c>
       <c r="F54" s="3">
-        <v>684000</v>
+        <v>663800</v>
       </c>
       <c r="G54" s="3">
-        <v>752600</v>
+        <v>730400</v>
       </c>
       <c r="H54" s="3">
-        <v>765000</v>
+        <v>742400</v>
       </c>
       <c r="I54" s="3">
-        <v>734600</v>
+        <v>712900</v>
       </c>
       <c r="J54" s="3">
-        <v>753800</v>
+        <v>731500</v>
       </c>
       <c r="K54" s="3">
         <v>779200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23300</v>
+        <v>22600</v>
       </c>
       <c r="E57" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="F57" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="G57" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="H57" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="I57" s="3">
-        <v>21800</v>
+        <v>21200</v>
       </c>
       <c r="J57" s="3">
-        <v>43700</v>
+        <v>42400</v>
       </c>
       <c r="K57" s="3">
         <v>28900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="E58" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="F58" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="G58" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="H58" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="I58" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="J58" s="3">
-        <v>46300</v>
+        <v>44900</v>
       </c>
       <c r="K58" s="3">
         <v>15800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42600</v>
+        <v>41400</v>
       </c>
       <c r="E59" s="3">
-        <v>21700</v>
+        <v>21100</v>
       </c>
       <c r="F59" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="G59" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="H59" s="3">
-        <v>20300</v>
+        <v>19700</v>
       </c>
       <c r="I59" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="J59" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="K59" s="3">
         <v>7400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>80100</v>
+        <v>77700</v>
       </c>
       <c r="E60" s="3">
-        <v>60700</v>
+        <v>58900</v>
       </c>
       <c r="F60" s="3">
-        <v>52100</v>
+        <v>50500</v>
       </c>
       <c r="G60" s="3">
-        <v>44400</v>
+        <v>43100</v>
       </c>
       <c r="H60" s="3">
-        <v>47500</v>
+        <v>46100</v>
       </c>
       <c r="I60" s="3">
-        <v>42400</v>
+        <v>41100</v>
       </c>
       <c r="J60" s="3">
-        <v>73900</v>
+        <v>71700</v>
       </c>
       <c r="K60" s="3">
         <v>52200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>398300</v>
+        <v>386500</v>
       </c>
       <c r="E61" s="3">
-        <v>267600</v>
+        <v>259600</v>
       </c>
       <c r="F61" s="3">
-        <v>276200</v>
+        <v>268100</v>
       </c>
       <c r="G61" s="3">
-        <v>267400</v>
+        <v>259500</v>
       </c>
       <c r="H61" s="3">
-        <v>246000</v>
+        <v>238700</v>
       </c>
       <c r="I61" s="3">
-        <v>288700</v>
+        <v>280200</v>
       </c>
       <c r="J61" s="3">
-        <v>236300</v>
+        <v>229300</v>
       </c>
       <c r="K61" s="3">
         <v>230400</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>159700</v>
+        <v>155000</v>
       </c>
       <c r="E62" s="3">
-        <v>130500</v>
+        <v>126700</v>
       </c>
       <c r="F62" s="3">
-        <v>122200</v>
+        <v>118600</v>
       </c>
       <c r="G62" s="3">
-        <v>172200</v>
+        <v>167100</v>
       </c>
       <c r="H62" s="3">
-        <v>187500</v>
+        <v>181900</v>
       </c>
       <c r="I62" s="3">
-        <v>141300</v>
+        <v>137100</v>
       </c>
       <c r="J62" s="3">
-        <v>157400</v>
+        <v>152800</v>
       </c>
       <c r="K62" s="3">
         <v>165100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>638100</v>
+        <v>619200</v>
       </c>
       <c r="E66" s="3">
-        <v>458800</v>
+        <v>445300</v>
       </c>
       <c r="F66" s="3">
-        <v>450600</v>
+        <v>437200</v>
       </c>
       <c r="G66" s="3">
-        <v>484100</v>
+        <v>469800</v>
       </c>
       <c r="H66" s="3">
-        <v>481000</v>
+        <v>466800</v>
       </c>
       <c r="I66" s="3">
-        <v>472400</v>
+        <v>458400</v>
       </c>
       <c r="J66" s="3">
-        <v>467200</v>
+        <v>453400</v>
       </c>
       <c r="K66" s="3">
         <v>447700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-139400</v>
+        <v>-135300</v>
       </c>
       <c r="E72" s="3">
-        <v>-167600</v>
+        <v>-162600</v>
       </c>
       <c r="F72" s="3">
-        <v>-149400</v>
+        <v>-145000</v>
       </c>
       <c r="G72" s="3">
-        <v>-108100</v>
+        <v>-104900</v>
       </c>
       <c r="H72" s="3">
-        <v>-79600</v>
+        <v>-77200</v>
       </c>
       <c r="I72" s="3">
-        <v>-106100</v>
+        <v>-103000</v>
       </c>
       <c r="J72" s="3">
-        <v>-81800</v>
+        <v>-79400</v>
       </c>
       <c r="K72" s="3">
         <v>-34100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>277400</v>
+        <v>269200</v>
       </c>
       <c r="E76" s="3">
-        <v>245600</v>
+        <v>238300</v>
       </c>
       <c r="F76" s="3">
-        <v>233400</v>
+        <v>226500</v>
       </c>
       <c r="G76" s="3">
-        <v>268600</v>
+        <v>260600</v>
       </c>
       <c r="H76" s="3">
-        <v>284000</v>
+        <v>275600</v>
       </c>
       <c r="I76" s="3">
-        <v>262300</v>
+        <v>254500</v>
       </c>
       <c r="J76" s="3">
-        <v>286600</v>
+        <v>278100</v>
       </c>
       <c r="K76" s="3">
         <v>331500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28200</v>
+        <v>27400</v>
       </c>
       <c r="E81" s="3">
-        <v>-18200</v>
+        <v>-17700</v>
       </c>
       <c r="F81" s="3">
-        <v>-41300</v>
+        <v>-40100</v>
       </c>
       <c r="G81" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="H81" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="I81" s="3">
-        <v>-24300</v>
+        <v>-23600</v>
       </c>
       <c r="J81" s="3">
-        <v>-48200</v>
+        <v>-46800</v>
       </c>
       <c r="K81" s="3">
         <v>-42300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51500</v>
+        <v>50000</v>
       </c>
       <c r="E83" s="3">
-        <v>73700</v>
+        <v>71600</v>
       </c>
       <c r="F83" s="3">
-        <v>84900</v>
+        <v>82400</v>
       </c>
       <c r="G83" s="3">
-        <v>54800</v>
+        <v>53100</v>
       </c>
       <c r="H83" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="I83" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="J83" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="K83" s="3">
         <v>37200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>135200</v>
+        <v>131200</v>
       </c>
       <c r="E89" s="3">
-        <v>82200</v>
+        <v>79700</v>
       </c>
       <c r="F89" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="G89" s="3">
-        <v>72800</v>
+        <v>70600</v>
       </c>
       <c r="H89" s="3">
-        <v>163300</v>
+        <v>158500</v>
       </c>
       <c r="I89" s="3">
-        <v>26200</v>
+        <v>25400</v>
       </c>
       <c r="J89" s="3">
-        <v>40000</v>
+        <v>38800</v>
       </c>
       <c r="K89" s="3">
         <v>39700</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54700</v>
+        <v>-53100</v>
       </c>
       <c r="E91" s="3">
-        <v>-50700</v>
+        <v>-49200</v>
       </c>
       <c r="F91" s="3">
-        <v>-39300</v>
+        <v>-38100</v>
       </c>
       <c r="G91" s="3">
-        <v>-73400</v>
+        <v>-71200</v>
       </c>
       <c r="H91" s="3">
-        <v>-75200</v>
+        <v>-73000</v>
       </c>
       <c r="I91" s="3">
-        <v>-14600</v>
+        <v>-14100</v>
       </c>
       <c r="J91" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="K91" s="3">
         <v>-30500</v>
@@ -3708,22 +3708,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-114300</v>
+        <v>-110900</v>
       </c>
       <c r="E94" s="3">
-        <v>-46100</v>
+        <v>-44800</v>
       </c>
       <c r="F94" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="G94" s="3">
-        <v>-73000</v>
+        <v>-70900</v>
       </c>
       <c r="H94" s="3">
-        <v>-78800</v>
+        <v>-76400</v>
       </c>
       <c r="I94" s="3">
-        <v>-14800</v>
+        <v>-14300</v>
       </c>
       <c r="J94" s="3">
         <v>-2100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>97300</v>
+        <v>94400</v>
       </c>
       <c r="E100" s="3">
-        <v>-9200</v>
+        <v>-9000</v>
       </c>
       <c r="F100" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="G100" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="H100" s="3">
-        <v>-87400</v>
+        <v>-84800</v>
       </c>
       <c r="I100" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J100" s="3">
-        <v>-23700</v>
+        <v>-23000</v>
       </c>
       <c r="K100" s="3">
         <v>-34600</v>
@@ -3962,7 +3962,7 @@
         <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F101" s="3">
         <v>-1100</v>
@@ -3971,13 +3971,13 @@
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
         <v>-400</v>
       </c>
       <c r="J101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K101" s="3">
         <v>2600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117300</v>
+        <v>113900</v>
       </c>
       <c r="E102" s="3">
-        <v>24700</v>
+        <v>24000</v>
       </c>
       <c r="F102" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G102" s="3">
-        <v>-26700</v>
+        <v>-26000</v>
       </c>
       <c r="H102" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="I102" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="J102" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="K102" s="3">
         <v>-23200</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>325300</v>
+        <v>283200</v>
       </c>
       <c r="E8" s="3">
-        <v>257700</v>
+        <v>313400</v>
       </c>
       <c r="F8" s="3">
-        <v>247200</v>
+        <v>248300</v>
       </c>
       <c r="G8" s="3">
-        <v>258200</v>
+        <v>238100</v>
       </c>
       <c r="H8" s="3">
-        <v>284000</v>
+        <v>248700</v>
       </c>
       <c r="I8" s="3">
-        <v>198100</v>
+        <v>273600</v>
       </c>
       <c r="J8" s="3">
+        <v>190800</v>
+      </c>
+      <c r="K8" s="3">
         <v>217200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>269200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>223300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>190900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>193500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>202300</v>
+        <v>244000</v>
       </c>
       <c r="E9" s="3">
-        <v>239900</v>
+        <v>194900</v>
       </c>
       <c r="F9" s="3">
-        <v>276500</v>
+        <v>231100</v>
       </c>
       <c r="G9" s="3">
-        <v>227200</v>
+        <v>266400</v>
       </c>
       <c r="H9" s="3">
-        <v>186400</v>
+        <v>218900</v>
       </c>
       <c r="I9" s="3">
-        <v>196800</v>
+        <v>179600</v>
       </c>
       <c r="J9" s="3">
+        <v>189500</v>
+      </c>
+      <c r="K9" s="3">
         <v>216200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>287400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>190200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>297500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>127200</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>123000</v>
+        <v>39200</v>
       </c>
       <c r="E10" s="3">
-        <v>17800</v>
+        <v>118500</v>
       </c>
       <c r="F10" s="3">
-        <v>-29400</v>
+        <v>17200</v>
       </c>
       <c r="G10" s="3">
-        <v>31000</v>
+        <v>-28300</v>
       </c>
       <c r="H10" s="3">
-        <v>97600</v>
+        <v>29800</v>
       </c>
       <c r="I10" s="3">
+        <v>94000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-18200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-106600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>-300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
-        <v>2700</v>
-      </c>
       <c r="G12" s="3">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
       </c>
       <c r="I12" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H14" s="3">
-        <v>15400</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,12 +1025,15 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>237100</v>
+        <v>242800</v>
       </c>
       <c r="E17" s="3">
-        <v>253200</v>
+        <v>228400</v>
       </c>
       <c r="F17" s="3">
-        <v>293200</v>
+        <v>243900</v>
       </c>
       <c r="G17" s="3">
-        <v>237000</v>
+        <v>282400</v>
       </c>
       <c r="H17" s="3">
-        <v>224700</v>
+        <v>228300</v>
       </c>
       <c r="I17" s="3">
-        <v>217400</v>
+        <v>216500</v>
       </c>
       <c r="J17" s="3">
+        <v>209400</v>
+      </c>
+      <c r="K17" s="3">
         <v>217700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>286300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>223600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>195200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>145800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88200</v>
+        <v>40400</v>
       </c>
       <c r="E18" s="3">
-        <v>4500</v>
+        <v>85000</v>
       </c>
       <c r="F18" s="3">
-        <v>-46100</v>
+        <v>4400</v>
       </c>
       <c r="G18" s="3">
-        <v>21200</v>
+        <v>-44400</v>
       </c>
       <c r="H18" s="3">
-        <v>59300</v>
+        <v>20400</v>
       </c>
       <c r="I18" s="3">
-        <v>-19300</v>
+        <v>57100</v>
       </c>
       <c r="J18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>47700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5900</v>
+        <v>-26500</v>
       </c>
       <c r="E20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>7700</v>
-      </c>
       <c r="G20" s="3">
-        <v>-23600</v>
+        <v>7400</v>
       </c>
       <c r="H20" s="3">
-        <v>11600</v>
+        <v>-22800</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>11200</v>
       </c>
       <c r="J20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>131600</v>
+        <v>51600</v>
       </c>
       <c r="E21" s="3">
-        <v>74000</v>
+        <v>127600</v>
       </c>
       <c r="F21" s="3">
-        <v>42800</v>
+        <v>72400</v>
       </c>
       <c r="G21" s="3">
-        <v>49900</v>
+        <v>42500</v>
       </c>
       <c r="H21" s="3">
-        <v>106200</v>
+        <v>48900</v>
       </c>
       <c r="I21" s="3">
-        <v>25300</v>
+        <v>102800</v>
       </c>
       <c r="J21" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>61200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="E22" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="F22" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="G22" s="3">
-        <v>24100</v>
+        <v>25000</v>
       </c>
       <c r="H22" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="I22" s="3">
-        <v>20800</v>
+        <v>22400</v>
       </c>
       <c r="J22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K22" s="3">
         <v>17500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>53200</v>
+        <v>-13800</v>
       </c>
       <c r="E23" s="3">
-        <v>-24500</v>
+        <v>51200</v>
       </c>
       <c r="F23" s="3">
-        <v>-64400</v>
+        <v>-23600</v>
       </c>
       <c r="G23" s="3">
-        <v>-26500</v>
+        <v>-62000</v>
       </c>
       <c r="H23" s="3">
-        <v>47600</v>
+        <v>-25500</v>
       </c>
       <c r="I23" s="3">
-        <v>-34600</v>
+        <v>45900</v>
       </c>
       <c r="J23" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-51000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-49200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25800</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="3">
-        <v>-6800</v>
+        <v>24800</v>
       </c>
       <c r="F24" s="3">
-        <v>-24300</v>
+        <v>-6600</v>
       </c>
       <c r="G24" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>21900</v>
-      </c>
       <c r="I24" s="3">
-        <v>-11000</v>
+        <v>21100</v>
       </c>
       <c r="J24" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27400</v>
+        <v>-18800</v>
       </c>
       <c r="E26" s="3">
-        <v>-17700</v>
+        <v>26400</v>
       </c>
       <c r="F26" s="3">
-        <v>-40100</v>
+        <v>-17000</v>
       </c>
       <c r="G26" s="3">
-        <v>-26900</v>
+        <v>-38600</v>
       </c>
       <c r="H26" s="3">
-        <v>25700</v>
+        <v>-25900</v>
       </c>
       <c r="I26" s="3">
-        <v>-23600</v>
+        <v>24800</v>
       </c>
       <c r="J26" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-46800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27400</v>
+        <v>-18800</v>
       </c>
       <c r="E27" s="3">
-        <v>-17700</v>
+        <v>26400</v>
       </c>
       <c r="F27" s="3">
-        <v>-40100</v>
+        <v>-17000</v>
       </c>
       <c r="G27" s="3">
-        <v>-26900</v>
+        <v>-38600</v>
       </c>
       <c r="H27" s="3">
-        <v>25700</v>
+        <v>-25900</v>
       </c>
       <c r="I27" s="3">
-        <v>-23600</v>
+        <v>24800</v>
       </c>
       <c r="J27" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-46800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5900</v>
+        <v>26500</v>
       </c>
       <c r="E32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-7700</v>
-      </c>
       <c r="G32" s="3">
-        <v>23600</v>
+        <v>-7400</v>
       </c>
       <c r="H32" s="3">
-        <v>-11600</v>
+        <v>22800</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-11200</v>
       </c>
       <c r="J32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K32" s="3">
         <v>33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27400</v>
+        <v>-18800</v>
       </c>
       <c r="E33" s="3">
-        <v>-17700</v>
+        <v>26400</v>
       </c>
       <c r="F33" s="3">
-        <v>-40100</v>
+        <v>-17000</v>
       </c>
       <c r="G33" s="3">
-        <v>-26900</v>
+        <v>-38600</v>
       </c>
       <c r="H33" s="3">
-        <v>25700</v>
+        <v>-25900</v>
       </c>
       <c r="I33" s="3">
-        <v>-23600</v>
+        <v>24800</v>
       </c>
       <c r="J33" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-46800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27400</v>
+        <v>-18800</v>
       </c>
       <c r="E35" s="3">
-        <v>-17700</v>
+        <v>26400</v>
       </c>
       <c r="F35" s="3">
-        <v>-40100</v>
+        <v>-17000</v>
       </c>
       <c r="G35" s="3">
-        <v>-26900</v>
+        <v>-38600</v>
       </c>
       <c r="H35" s="3">
-        <v>25700</v>
+        <v>-25900</v>
       </c>
       <c r="I35" s="3">
-        <v>-23600</v>
+        <v>24800</v>
       </c>
       <c r="J35" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-46800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,242 +1903,261 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>177800</v>
+        <v>87400</v>
       </c>
       <c r="E41" s="3">
-        <v>63900</v>
+        <v>171200</v>
       </c>
       <c r="F41" s="3">
-        <v>39900</v>
+        <v>61600</v>
       </c>
       <c r="G41" s="3">
-        <v>34300</v>
+        <v>38500</v>
       </c>
       <c r="H41" s="3">
-        <v>60200</v>
+        <v>33000</v>
       </c>
       <c r="I41" s="3">
-        <v>66800</v>
+        <v>58000</v>
       </c>
       <c r="J41" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K41" s="3">
         <v>51400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>203200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>213400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="E42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F42" s="3">
         <v>1300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
-        <v>2700</v>
-      </c>
       <c r="H42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I42" s="3">
         <v>1800</v>
       </c>
-      <c r="I42" s="3">
-        <v>1100</v>
-      </c>
       <c r="J42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>31200</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7200</v>
+        <v>9600</v>
       </c>
       <c r="E43" s="3">
-        <v>5000</v>
+        <v>6900</v>
       </c>
       <c r="F43" s="3">
-        <v>10400</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="3">
-        <v>11100</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
-        <v>16200</v>
+        <v>10700</v>
       </c>
       <c r="I43" s="3">
-        <v>9700</v>
+        <v>15600</v>
       </c>
       <c r="J43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K43" s="3">
         <v>9900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>42700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>60000</v>
+        <v>67100</v>
       </c>
       <c r="E44" s="3">
-        <v>44200</v>
+        <v>57800</v>
       </c>
       <c r="F44" s="3">
-        <v>32800</v>
+        <v>42600</v>
       </c>
       <c r="G44" s="3">
-        <v>29300</v>
+        <v>31500</v>
       </c>
       <c r="H44" s="3">
-        <v>29800</v>
+        <v>28200</v>
       </c>
       <c r="I44" s="3">
-        <v>45500</v>
+        <v>28700</v>
       </c>
       <c r="J44" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K44" s="3">
         <v>30500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>17900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>30500</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>253200</v>
+        <v>174200</v>
       </c>
       <c r="E46" s="3">
-        <v>118000</v>
+        <v>243900</v>
       </c>
       <c r="F46" s="3">
-        <v>85500</v>
+        <v>113700</v>
       </c>
       <c r="G46" s="3">
-        <v>78400</v>
+        <v>82300</v>
       </c>
       <c r="H46" s="3">
-        <v>109400</v>
+        <v>75500</v>
       </c>
       <c r="I46" s="3">
-        <v>124100</v>
+        <v>105400</v>
       </c>
       <c r="J46" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K46" s="3">
         <v>94300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>107300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>176200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>172200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>335700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2064,113 +2168,122 @@
         <v>900</v>
       </c>
       <c r="F47" s="3">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I47" s="3">
-        <v>7800</v>
+        <v>1700</v>
       </c>
       <c r="J47" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K47" s="3">
         <v>19800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>118100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>629100</v>
+        <v>744400</v>
       </c>
       <c r="E48" s="3">
-        <v>557600</v>
+        <v>605900</v>
       </c>
       <c r="F48" s="3">
-        <v>569200</v>
+        <v>537100</v>
       </c>
       <c r="G48" s="3">
-        <v>616700</v>
+        <v>548200</v>
       </c>
       <c r="H48" s="3">
-        <v>598600</v>
+        <v>594000</v>
       </c>
       <c r="I48" s="3">
-        <v>548300</v>
+        <v>576600</v>
       </c>
       <c r="J48" s="3">
+        <v>528100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1193500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>623100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>522400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>426600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>338500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G49" s="3">
         <v>3900</v>
       </c>
-      <c r="E49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J49" s="3">
         <v>4000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="K49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O49" s="3">
         <v>4200</v>
       </c>
-      <c r="H49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,9 +2362,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2256,38 +2375,41 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>3100</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="3">
-        <v>29300</v>
+        <v>3200</v>
       </c>
       <c r="H52" s="3">
-        <v>28600</v>
+        <v>28200</v>
       </c>
       <c r="I52" s="3">
-        <v>28600</v>
+        <v>27600</v>
       </c>
       <c r="J52" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K52" s="3">
         <v>40400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>888400</v>
+        <v>924800</v>
       </c>
       <c r="E54" s="3">
-        <v>683600</v>
+        <v>855700</v>
       </c>
       <c r="F54" s="3">
-        <v>663800</v>
+        <v>658400</v>
       </c>
       <c r="G54" s="3">
-        <v>730400</v>
+        <v>639300</v>
       </c>
       <c r="H54" s="3">
-        <v>742400</v>
+        <v>703500</v>
       </c>
       <c r="I54" s="3">
-        <v>712900</v>
+        <v>715100</v>
       </c>
       <c r="J54" s="3">
+        <v>686700</v>
+      </c>
+      <c r="K54" s="3">
         <v>731500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>779200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>746900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>750100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>764200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22600</v>
+        <v>22900</v>
       </c>
       <c r="E57" s="3">
-        <v>24600</v>
+        <v>21800</v>
       </c>
       <c r="F57" s="3">
-        <v>18100</v>
+        <v>23700</v>
       </c>
       <c r="G57" s="3">
-        <v>16400</v>
+        <v>17500</v>
       </c>
       <c r="H57" s="3">
-        <v>17900</v>
+        <v>15800</v>
       </c>
       <c r="I57" s="3">
-        <v>21200</v>
+        <v>17300</v>
       </c>
       <c r="J57" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K57" s="3">
         <v>42400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="E58" s="3">
         <v>13200</v>
       </c>
       <c r="F58" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G58" s="3">
-        <v>7400</v>
+        <v>11900</v>
       </c>
       <c r="H58" s="3">
-        <v>8500</v>
+        <v>7100</v>
       </c>
       <c r="I58" s="3">
-        <v>12100</v>
+        <v>8200</v>
       </c>
       <c r="J58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K58" s="3">
         <v>44900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41400</v>
+        <v>45200</v>
       </c>
       <c r="E59" s="3">
-        <v>21100</v>
+        <v>39800</v>
       </c>
       <c r="F59" s="3">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="G59" s="3">
         <v>19300</v>
       </c>
       <c r="H59" s="3">
-        <v>19700</v>
+        <v>18600</v>
       </c>
       <c r="I59" s="3">
-        <v>7900</v>
+        <v>19000</v>
       </c>
       <c r="J59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>77700</v>
+        <v>81500</v>
       </c>
       <c r="E60" s="3">
-        <v>58900</v>
+        <v>74800</v>
       </c>
       <c r="F60" s="3">
-        <v>50500</v>
+        <v>56800</v>
       </c>
       <c r="G60" s="3">
-        <v>43100</v>
+        <v>48700</v>
       </c>
       <c r="H60" s="3">
-        <v>46100</v>
+        <v>41500</v>
       </c>
       <c r="I60" s="3">
-        <v>41100</v>
+        <v>44400</v>
       </c>
       <c r="J60" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K60" s="3">
         <v>71700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>386500</v>
+        <v>411600</v>
       </c>
       <c r="E61" s="3">
-        <v>259600</v>
+        <v>372300</v>
       </c>
       <c r="F61" s="3">
-        <v>268100</v>
+        <v>250100</v>
       </c>
       <c r="G61" s="3">
-        <v>259500</v>
+        <v>258200</v>
       </c>
       <c r="H61" s="3">
-        <v>238700</v>
+        <v>250000</v>
       </c>
       <c r="I61" s="3">
-        <v>280200</v>
+        <v>229900</v>
       </c>
       <c r="J61" s="3">
+        <v>269900</v>
+      </c>
+      <c r="K61" s="3">
         <v>229300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>230400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>199800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>176700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>167900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>155000</v>
+        <v>174000</v>
       </c>
       <c r="E62" s="3">
-        <v>126700</v>
+        <v>149300</v>
       </c>
       <c r="F62" s="3">
-        <v>118600</v>
+        <v>122000</v>
       </c>
       <c r="G62" s="3">
-        <v>167100</v>
+        <v>114300</v>
       </c>
       <c r="H62" s="3">
-        <v>181900</v>
+        <v>161000</v>
       </c>
       <c r="I62" s="3">
-        <v>137100</v>
+        <v>175200</v>
       </c>
       <c r="J62" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K62" s="3">
         <v>152800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>165100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>129000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>181400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>167800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>619200</v>
+        <v>667000</v>
       </c>
       <c r="E66" s="3">
-        <v>445300</v>
+        <v>596400</v>
       </c>
       <c r="F66" s="3">
-        <v>437200</v>
+        <v>428900</v>
       </c>
       <c r="G66" s="3">
-        <v>469800</v>
+        <v>421100</v>
       </c>
       <c r="H66" s="3">
-        <v>466800</v>
+        <v>452500</v>
       </c>
       <c r="I66" s="3">
-        <v>458400</v>
+        <v>449600</v>
       </c>
       <c r="J66" s="3">
+        <v>441500</v>
+      </c>
+      <c r="K66" s="3">
         <v>453400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>447700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>418800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>414700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>382500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-135300</v>
+        <v>-149100</v>
       </c>
       <c r="E72" s="3">
-        <v>-162600</v>
+        <v>-130300</v>
       </c>
       <c r="F72" s="3">
-        <v>-145000</v>
+        <v>-156700</v>
       </c>
       <c r="G72" s="3">
-        <v>-104900</v>
+        <v>-139600</v>
       </c>
       <c r="H72" s="3">
-        <v>-77200</v>
+        <v>-101000</v>
       </c>
       <c r="I72" s="3">
-        <v>-103000</v>
+        <v>-74400</v>
       </c>
       <c r="J72" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-79400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>66700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>269200</v>
+        <v>257800</v>
       </c>
       <c r="E76" s="3">
-        <v>238300</v>
+        <v>259300</v>
       </c>
       <c r="F76" s="3">
-        <v>226500</v>
+        <v>229500</v>
       </c>
       <c r="G76" s="3">
-        <v>260600</v>
+        <v>218200</v>
       </c>
       <c r="H76" s="3">
-        <v>275600</v>
+        <v>251000</v>
       </c>
       <c r="I76" s="3">
-        <v>254500</v>
+        <v>265500</v>
       </c>
       <c r="J76" s="3">
+        <v>245100</v>
+      </c>
+      <c r="K76" s="3">
         <v>278100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>331500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>328100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>335400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>381700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27400</v>
+        <v>-18800</v>
       </c>
       <c r="E81" s="3">
-        <v>-17700</v>
+        <v>26400</v>
       </c>
       <c r="F81" s="3">
-        <v>-40100</v>
+        <v>-17000</v>
       </c>
       <c r="G81" s="3">
-        <v>-26900</v>
+        <v>-38600</v>
       </c>
       <c r="H81" s="3">
-        <v>25700</v>
+        <v>-25900</v>
       </c>
       <c r="I81" s="3">
-        <v>-23600</v>
+        <v>24800</v>
       </c>
       <c r="J81" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-46800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50000</v>
+        <v>37600</v>
       </c>
       <c r="E83" s="3">
-        <v>71600</v>
+        <v>48200</v>
       </c>
       <c r="F83" s="3">
-        <v>82400</v>
+        <v>68900</v>
       </c>
       <c r="G83" s="3">
-        <v>53100</v>
+        <v>79400</v>
       </c>
       <c r="H83" s="3">
-        <v>35800</v>
+        <v>51200</v>
       </c>
       <c r="I83" s="3">
-        <v>39800</v>
+        <v>34500</v>
       </c>
       <c r="J83" s="3">
-        <v>37200</v>
+        <v>38300</v>
       </c>
       <c r="K83" s="3">
         <v>37200</v>
       </c>
       <c r="L83" s="3">
+        <v>37200</v>
+      </c>
+      <c r="M83" s="3">
         <v>26600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>131200</v>
+        <v>58800</v>
       </c>
       <c r="E89" s="3">
-        <v>79700</v>
+        <v>126400</v>
       </c>
       <c r="F89" s="3">
-        <v>32000</v>
+        <v>76800</v>
       </c>
       <c r="G89" s="3">
-        <v>70600</v>
+        <v>30800</v>
       </c>
       <c r="H89" s="3">
-        <v>158500</v>
+        <v>68000</v>
       </c>
       <c r="I89" s="3">
-        <v>25400</v>
+        <v>152700</v>
       </c>
       <c r="J89" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K89" s="3">
         <v>38800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>51300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53100</v>
+        <v>-107700</v>
       </c>
       <c r="E91" s="3">
-        <v>-49200</v>
+        <v>-51200</v>
       </c>
       <c r="F91" s="3">
-        <v>-38100</v>
+        <v>-47400</v>
       </c>
       <c r="G91" s="3">
-        <v>-71200</v>
+        <v>-36700</v>
       </c>
       <c r="H91" s="3">
-        <v>-73000</v>
+        <v>-68600</v>
       </c>
       <c r="I91" s="3">
-        <v>-14100</v>
+        <v>-70300</v>
       </c>
       <c r="J91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-145200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-110900</v>
+        <v>-120300</v>
       </c>
       <c r="E94" s="3">
-        <v>-44800</v>
+        <v>-106800</v>
       </c>
       <c r="F94" s="3">
-        <v>-12700</v>
+        <v>-43100</v>
       </c>
       <c r="G94" s="3">
-        <v>-70900</v>
+        <v>-12200</v>
       </c>
       <c r="H94" s="3">
-        <v>-76400</v>
+        <v>-68300</v>
       </c>
       <c r="I94" s="3">
-        <v>-14300</v>
+        <v>-73600</v>
       </c>
       <c r="J94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-127900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-89900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>94400</v>
+        <v>-25500</v>
       </c>
       <c r="E100" s="3">
-        <v>-9000</v>
+        <v>91000</v>
       </c>
       <c r="F100" s="3">
-        <v>-12600</v>
+        <v>-8600</v>
       </c>
       <c r="G100" s="3">
-        <v>-25200</v>
+        <v>-12100</v>
       </c>
       <c r="H100" s="3">
-        <v>-84800</v>
+        <v>-24300</v>
       </c>
       <c r="I100" s="3">
-        <v>4700</v>
+        <v>-81700</v>
       </c>
       <c r="J100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>133300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1100</v>
-      </c>
       <c r="G101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3900</v>
-      </c>
       <c r="I101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>113900</v>
+        <v>-83800</v>
       </c>
       <c r="E102" s="3">
-        <v>24000</v>
+        <v>109700</v>
       </c>
       <c r="F102" s="3">
-        <v>5700</v>
+        <v>23100</v>
       </c>
       <c r="G102" s="3">
-        <v>-26000</v>
+        <v>5400</v>
       </c>
       <c r="H102" s="3">
-        <v>-6600</v>
+        <v>-25000</v>
       </c>
       <c r="I102" s="3">
-        <v>15400</v>
+        <v>-6400</v>
       </c>
       <c r="J102" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K102" s="3">
         <v>17100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-107500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>283200</v>
+        <v>290100</v>
       </c>
       <c r="E8" s="3">
-        <v>313400</v>
+        <v>320900</v>
       </c>
       <c r="F8" s="3">
-        <v>248300</v>
+        <v>254300</v>
       </c>
       <c r="G8" s="3">
-        <v>238100</v>
+        <v>243800</v>
       </c>
       <c r="H8" s="3">
-        <v>248700</v>
+        <v>254700</v>
       </c>
       <c r="I8" s="3">
-        <v>273600</v>
+        <v>280200</v>
       </c>
       <c r="J8" s="3">
-        <v>190800</v>
+        <v>195500</v>
       </c>
       <c r="K8" s="3">
         <v>217200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>244000</v>
+        <v>249900</v>
       </c>
       <c r="E9" s="3">
-        <v>194900</v>
+        <v>199600</v>
       </c>
       <c r="F9" s="3">
-        <v>231100</v>
+        <v>236700</v>
       </c>
       <c r="G9" s="3">
-        <v>266400</v>
+        <v>272800</v>
       </c>
       <c r="H9" s="3">
-        <v>218900</v>
+        <v>224200</v>
       </c>
       <c r="I9" s="3">
-        <v>179600</v>
+        <v>183900</v>
       </c>
       <c r="J9" s="3">
-        <v>189500</v>
+        <v>194100</v>
       </c>
       <c r="K9" s="3">
         <v>216200</v>
@@ -810,22 +810,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39200</v>
+        <v>40200</v>
       </c>
       <c r="E10" s="3">
-        <v>118500</v>
+        <v>121300</v>
       </c>
       <c r="F10" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="G10" s="3">
-        <v>-28300</v>
+        <v>-29000</v>
       </c>
       <c r="H10" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="I10" s="3">
-        <v>94000</v>
+        <v>96300</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>242800</v>
+        <v>248700</v>
       </c>
       <c r="E17" s="3">
-        <v>228400</v>
+        <v>233900</v>
       </c>
       <c r="F17" s="3">
-        <v>243900</v>
+        <v>249800</v>
       </c>
       <c r="G17" s="3">
-        <v>282400</v>
+        <v>289300</v>
       </c>
       <c r="H17" s="3">
-        <v>228300</v>
+        <v>233800</v>
       </c>
       <c r="I17" s="3">
-        <v>216500</v>
+        <v>221700</v>
       </c>
       <c r="J17" s="3">
-        <v>209400</v>
+        <v>214500</v>
       </c>
       <c r="K17" s="3">
         <v>217700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>40400</v>
+        <v>41400</v>
       </c>
       <c r="E18" s="3">
-        <v>85000</v>
+        <v>87000</v>
       </c>
       <c r="F18" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G18" s="3">
-        <v>-44400</v>
+        <v>-45500</v>
       </c>
       <c r="H18" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="I18" s="3">
-        <v>57100</v>
+        <v>58500</v>
       </c>
       <c r="J18" s="3">
-        <v>-18600</v>
+        <v>-19000</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26500</v>
+        <v>-27100</v>
       </c>
       <c r="E20" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="F20" s="3">
         <v>-1000</v>
       </c>
       <c r="G20" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="H20" s="3">
-        <v>-22800</v>
+        <v>-23300</v>
       </c>
       <c r="I20" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J20" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K20" s="3">
         <v>-33000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>51600</v>
+        <v>52900</v>
       </c>
       <c r="E21" s="3">
-        <v>127600</v>
+        <v>130700</v>
       </c>
       <c r="F21" s="3">
-        <v>72400</v>
+        <v>74300</v>
       </c>
       <c r="G21" s="3">
-        <v>42500</v>
+        <v>43700</v>
       </c>
       <c r="H21" s="3">
-        <v>48900</v>
+        <v>50200</v>
       </c>
       <c r="I21" s="3">
-        <v>102800</v>
+        <v>105400</v>
       </c>
       <c r="J21" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="K21" s="3">
         <v>3200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="E22" s="3">
-        <v>28100</v>
+        <v>28800</v>
       </c>
       <c r="F22" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="G22" s="3">
-        <v>25000</v>
+        <v>25600</v>
       </c>
       <c r="H22" s="3">
-        <v>23200</v>
+        <v>23800</v>
       </c>
       <c r="I22" s="3">
-        <v>22400</v>
+        <v>22900</v>
       </c>
       <c r="J22" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="K22" s="3">
         <v>17500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13800</v>
+        <v>-14200</v>
       </c>
       <c r="E23" s="3">
-        <v>51200</v>
+        <v>52500</v>
       </c>
       <c r="F23" s="3">
-        <v>-23600</v>
+        <v>-24200</v>
       </c>
       <c r="G23" s="3">
-        <v>-62000</v>
+        <v>-63500</v>
       </c>
       <c r="H23" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="I23" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="J23" s="3">
-        <v>-33300</v>
+        <v>-34200</v>
       </c>
       <c r="K23" s="3">
         <v>-51000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E24" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="F24" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="G24" s="3">
-        <v>-23400</v>
+        <v>-24000</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>21100</v>
+        <v>21600</v>
       </c>
       <c r="J24" s="3">
-        <v>-10600</v>
+        <v>-10900</v>
       </c>
       <c r="K24" s="3">
         <v>-4200</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="E26" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="F26" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="G26" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="H26" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="I26" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="J26" s="3">
-        <v>-22700</v>
+        <v>-23300</v>
       </c>
       <c r="K26" s="3">
         <v>-46800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="E27" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="F27" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="G27" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="H27" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="I27" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="J27" s="3">
-        <v>-22700</v>
+        <v>-23300</v>
       </c>
       <c r="K27" s="3">
         <v>-46800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="E32" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F32" s="3">
         <v>1000</v>
       </c>
       <c r="G32" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="H32" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="I32" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="J32" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="K32" s="3">
         <v>33000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="E33" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="F33" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="G33" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="H33" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="I33" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="J33" s="3">
-        <v>-22700</v>
+        <v>-23300</v>
       </c>
       <c r="K33" s="3">
         <v>-46800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="E35" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="F35" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="G35" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="H35" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="I35" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="J35" s="3">
-        <v>-22700</v>
+        <v>-23300</v>
       </c>
       <c r="K35" s="3">
         <v>-46800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>87400</v>
+        <v>89500</v>
       </c>
       <c r="E41" s="3">
-        <v>171200</v>
+        <v>175400</v>
       </c>
       <c r="F41" s="3">
-        <v>61600</v>
+        <v>63000</v>
       </c>
       <c r="G41" s="3">
-        <v>38500</v>
+        <v>39400</v>
       </c>
       <c r="H41" s="3">
-        <v>33000</v>
+        <v>33800</v>
       </c>
       <c r="I41" s="3">
-        <v>58000</v>
+        <v>59400</v>
       </c>
       <c r="J41" s="3">
-        <v>64400</v>
+        <v>65900</v>
       </c>
       <c r="K41" s="3">
         <v>51400</v>
@@ -1955,7 +1955,7 @@
         <v>1900</v>
       </c>
       <c r="E42" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F42" s="3">
         <v>1300</v>
@@ -1964,13 +1964,13 @@
         <v>500</v>
       </c>
       <c r="H42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I42" s="3">
         <v>1800</v>
       </c>
       <c r="J42" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K42" s="3">
         <v>700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J43" s="3">
         <v>9600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>15600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>9300</v>
       </c>
       <c r="K43" s="3">
         <v>9900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67100</v>
+        <v>68800</v>
       </c>
       <c r="E44" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="F44" s="3">
-        <v>42600</v>
+        <v>43600</v>
       </c>
       <c r="G44" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="H44" s="3">
-        <v>28200</v>
+        <v>28900</v>
       </c>
       <c r="I44" s="3">
-        <v>28700</v>
+        <v>29400</v>
       </c>
       <c r="J44" s="3">
-        <v>43800</v>
+        <v>44900</v>
       </c>
       <c r="K44" s="3">
         <v>30500</v>
@@ -2078,16 +2078,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="E45" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F45" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H45" s="3">
         <v>1100</v>
@@ -2096,7 +2096,7 @@
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>1700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>174200</v>
+        <v>178400</v>
       </c>
       <c r="E46" s="3">
-        <v>243900</v>
+        <v>249800</v>
       </c>
       <c r="F46" s="3">
-        <v>113700</v>
+        <v>116400</v>
       </c>
       <c r="G46" s="3">
-        <v>82300</v>
+        <v>84300</v>
       </c>
       <c r="H46" s="3">
-        <v>75500</v>
+        <v>77400</v>
       </c>
       <c r="I46" s="3">
-        <v>105400</v>
+        <v>108000</v>
       </c>
       <c r="J46" s="3">
-        <v>119600</v>
+        <v>122500</v>
       </c>
       <c r="K46" s="3">
         <v>94300</v>
@@ -2171,16 +2171,16 @@
         <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I47" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J47" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="K47" s="3">
         <v>19800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>744400</v>
+        <v>762400</v>
       </c>
       <c r="E48" s="3">
-        <v>605900</v>
+        <v>620600</v>
       </c>
       <c r="F48" s="3">
-        <v>537100</v>
+        <v>550100</v>
       </c>
       <c r="G48" s="3">
-        <v>548200</v>
+        <v>561500</v>
       </c>
       <c r="H48" s="3">
-        <v>594000</v>
+        <v>608400</v>
       </c>
       <c r="I48" s="3">
-        <v>576600</v>
+        <v>590600</v>
       </c>
       <c r="J48" s="3">
-        <v>528100</v>
+        <v>540900</v>
       </c>
       <c r="K48" s="3">
         <v>1193500</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G49" s="3">
         <v>4000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I49" s="3">
         <v>3800</v>
       </c>
-      <c r="F49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4000</v>
       </c>
       <c r="K49" s="3">
         <v>4300</v>
@@ -2375,7 +2375,7 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>3000</v>
@@ -2384,13 +2384,13 @@
         <v>3200</v>
       </c>
       <c r="H52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="I52" s="3">
         <v>28200</v>
       </c>
-      <c r="I52" s="3">
-        <v>27600</v>
-      </c>
       <c r="J52" s="3">
-        <v>27500</v>
+        <v>28200</v>
       </c>
       <c r="K52" s="3">
         <v>40400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>924800</v>
+        <v>947200</v>
       </c>
       <c r="E54" s="3">
-        <v>855700</v>
+        <v>876400</v>
       </c>
       <c r="F54" s="3">
-        <v>658400</v>
+        <v>674300</v>
       </c>
       <c r="G54" s="3">
-        <v>639300</v>
+        <v>654800</v>
       </c>
       <c r="H54" s="3">
-        <v>703500</v>
+        <v>720500</v>
       </c>
       <c r="I54" s="3">
-        <v>715100</v>
+        <v>732400</v>
       </c>
       <c r="J54" s="3">
-        <v>686700</v>
+        <v>703300</v>
       </c>
       <c r="K54" s="3">
         <v>731500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="E57" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="F57" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="G57" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="H57" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="I57" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="J57" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="K57" s="3">
         <v>42400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="E58" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="F58" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="G58" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="H58" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I58" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="J58" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="K58" s="3">
         <v>44900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45200</v>
+        <v>46300</v>
       </c>
       <c r="E59" s="3">
-        <v>39800</v>
+        <v>40800</v>
       </c>
       <c r="F59" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="G59" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="H59" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="I59" s="3">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="J59" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="K59" s="3">
         <v>7000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>81500</v>
+        <v>83400</v>
       </c>
       <c r="E60" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="F60" s="3">
-        <v>56800</v>
+        <v>58100</v>
       </c>
       <c r="G60" s="3">
-        <v>48700</v>
+        <v>49800</v>
       </c>
       <c r="H60" s="3">
-        <v>41500</v>
+        <v>42500</v>
       </c>
       <c r="I60" s="3">
-        <v>44400</v>
+        <v>45500</v>
       </c>
       <c r="J60" s="3">
-        <v>39600</v>
+        <v>40600</v>
       </c>
       <c r="K60" s="3">
         <v>71700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>411600</v>
+        <v>421500</v>
       </c>
       <c r="E61" s="3">
-        <v>372300</v>
+        <v>381300</v>
       </c>
       <c r="F61" s="3">
-        <v>250100</v>
+        <v>256100</v>
       </c>
       <c r="G61" s="3">
-        <v>258200</v>
+        <v>264500</v>
       </c>
       <c r="H61" s="3">
-        <v>250000</v>
+        <v>256000</v>
       </c>
       <c r="I61" s="3">
-        <v>229900</v>
+        <v>235500</v>
       </c>
       <c r="J61" s="3">
-        <v>269900</v>
+        <v>276400</v>
       </c>
       <c r="K61" s="3">
         <v>229300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>174000</v>
+        <v>178200</v>
       </c>
       <c r="E62" s="3">
-        <v>149300</v>
+        <v>152900</v>
       </c>
       <c r="F62" s="3">
-        <v>122000</v>
+        <v>125000</v>
       </c>
       <c r="G62" s="3">
-        <v>114300</v>
+        <v>117000</v>
       </c>
       <c r="H62" s="3">
-        <v>161000</v>
+        <v>164900</v>
       </c>
       <c r="I62" s="3">
-        <v>175200</v>
+        <v>179500</v>
       </c>
       <c r="J62" s="3">
-        <v>132000</v>
+        <v>135200</v>
       </c>
       <c r="K62" s="3">
         <v>152800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>667000</v>
+        <v>683200</v>
       </c>
       <c r="E66" s="3">
-        <v>596400</v>
+        <v>610900</v>
       </c>
       <c r="F66" s="3">
-        <v>428900</v>
+        <v>439300</v>
       </c>
       <c r="G66" s="3">
-        <v>421100</v>
+        <v>431300</v>
       </c>
       <c r="H66" s="3">
-        <v>452500</v>
+        <v>463400</v>
       </c>
       <c r="I66" s="3">
-        <v>449600</v>
+        <v>460500</v>
       </c>
       <c r="J66" s="3">
-        <v>441500</v>
+        <v>452200</v>
       </c>
       <c r="K66" s="3">
         <v>453400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-149100</v>
+        <v>-152700</v>
       </c>
       <c r="E72" s="3">
-        <v>-130300</v>
+        <v>-133400</v>
       </c>
       <c r="F72" s="3">
-        <v>-156700</v>
+        <v>-160400</v>
       </c>
       <c r="G72" s="3">
-        <v>-139600</v>
+        <v>-143000</v>
       </c>
       <c r="H72" s="3">
-        <v>-101000</v>
+        <v>-103500</v>
       </c>
       <c r="I72" s="3">
-        <v>-74400</v>
+        <v>-76200</v>
       </c>
       <c r="J72" s="3">
-        <v>-99200</v>
+        <v>-101600</v>
       </c>
       <c r="K72" s="3">
         <v>-79400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>257800</v>
+        <v>264000</v>
       </c>
       <c r="E76" s="3">
-        <v>259300</v>
+        <v>265600</v>
       </c>
       <c r="F76" s="3">
-        <v>229500</v>
+        <v>235100</v>
       </c>
       <c r="G76" s="3">
-        <v>218200</v>
+        <v>223500</v>
       </c>
       <c r="H76" s="3">
-        <v>251000</v>
+        <v>257100</v>
       </c>
       <c r="I76" s="3">
-        <v>265500</v>
+        <v>271900</v>
       </c>
       <c r="J76" s="3">
-        <v>245100</v>
+        <v>251100</v>
       </c>
       <c r="K76" s="3">
         <v>278100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="E81" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="F81" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="G81" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="H81" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="I81" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="J81" s="3">
-        <v>-22700</v>
+        <v>-23300</v>
       </c>
       <c r="K81" s="3">
         <v>-46800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37600</v>
+        <v>38500</v>
       </c>
       <c r="E83" s="3">
-        <v>48200</v>
+        <v>49300</v>
       </c>
       <c r="F83" s="3">
-        <v>68900</v>
+        <v>70600</v>
       </c>
       <c r="G83" s="3">
-        <v>79400</v>
+        <v>81300</v>
       </c>
       <c r="H83" s="3">
-        <v>51200</v>
+        <v>52400</v>
       </c>
       <c r="I83" s="3">
-        <v>34500</v>
+        <v>35300</v>
       </c>
       <c r="J83" s="3">
-        <v>38300</v>
+        <v>39300</v>
       </c>
       <c r="K83" s="3">
         <v>37200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>58800</v>
+        <v>60200</v>
       </c>
       <c r="E89" s="3">
-        <v>126400</v>
+        <v>129500</v>
       </c>
       <c r="F89" s="3">
-        <v>76800</v>
+        <v>78700</v>
       </c>
       <c r="G89" s="3">
-        <v>30800</v>
+        <v>31600</v>
       </c>
       <c r="H89" s="3">
-        <v>68000</v>
+        <v>69700</v>
       </c>
       <c r="I89" s="3">
-        <v>152700</v>
+        <v>156400</v>
       </c>
       <c r="J89" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="K89" s="3">
         <v>38800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107700</v>
+        <v>-110300</v>
       </c>
       <c r="E91" s="3">
-        <v>-51200</v>
+        <v>-52400</v>
       </c>
       <c r="F91" s="3">
-        <v>-47400</v>
+        <v>-48500</v>
       </c>
       <c r="G91" s="3">
-        <v>-36700</v>
+        <v>-37600</v>
       </c>
       <c r="H91" s="3">
-        <v>-68600</v>
+        <v>-70300</v>
       </c>
       <c r="I91" s="3">
-        <v>-70300</v>
+        <v>-72000</v>
       </c>
       <c r="J91" s="3">
-        <v>-13600</v>
+        <v>-14000</v>
       </c>
       <c r="K91" s="3">
         <v>-14200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120300</v>
+        <v>-123300</v>
       </c>
       <c r="E94" s="3">
-        <v>-106800</v>
+        <v>-109400</v>
       </c>
       <c r="F94" s="3">
-        <v>-43100</v>
+        <v>-44200</v>
       </c>
       <c r="G94" s="3">
-        <v>-12200</v>
+        <v>-12500</v>
       </c>
       <c r="H94" s="3">
-        <v>-68300</v>
+        <v>-69900</v>
       </c>
       <c r="I94" s="3">
-        <v>-73600</v>
+        <v>-75400</v>
       </c>
       <c r="J94" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="K94" s="3">
         <v>-2100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25500</v>
+        <v>-26100</v>
       </c>
       <c r="E100" s="3">
-        <v>91000</v>
+        <v>93200</v>
       </c>
       <c r="F100" s="3">
-        <v>-8600</v>
+        <v>-8800</v>
       </c>
       <c r="G100" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="H100" s="3">
-        <v>-24300</v>
+        <v>-24900</v>
       </c>
       <c r="I100" s="3">
-        <v>-81700</v>
+        <v>-83700</v>
       </c>
       <c r="J100" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K100" s="3">
         <v>-23000</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E101" s="3">
         <v>-900</v>
@@ -4216,13 +4216,13 @@
         <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H101" s="3">
         <v>-500</v>
       </c>
       <c r="I101" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-83800</v>
+        <v>-85900</v>
       </c>
       <c r="E102" s="3">
-        <v>109700</v>
+        <v>112300</v>
       </c>
       <c r="F102" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="G102" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H102" s="3">
-        <v>-25000</v>
+        <v>-25600</v>
       </c>
       <c r="I102" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="J102" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="K102" s="3">
         <v>17100</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>290100</v>
+        <v>289900</v>
       </c>
       <c r="E8" s="3">
-        <v>320900</v>
+        <v>320800</v>
       </c>
       <c r="F8" s="3">
-        <v>254300</v>
+        <v>254100</v>
       </c>
       <c r="G8" s="3">
-        <v>243800</v>
+        <v>243700</v>
       </c>
       <c r="H8" s="3">
-        <v>254700</v>
+        <v>254600</v>
       </c>
       <c r="I8" s="3">
-        <v>280200</v>
+        <v>280100</v>
       </c>
       <c r="J8" s="3">
-        <v>195500</v>
+        <v>195400</v>
       </c>
       <c r="K8" s="3">
         <v>217200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>249900</v>
+        <v>249800</v>
       </c>
       <c r="E9" s="3">
-        <v>199600</v>
+        <v>199500</v>
       </c>
       <c r="F9" s="3">
-        <v>236700</v>
+        <v>236600</v>
       </c>
       <c r="G9" s="3">
-        <v>272800</v>
+        <v>272700</v>
       </c>
       <c r="H9" s="3">
-        <v>224200</v>
+        <v>224100</v>
       </c>
       <c r="I9" s="3">
-        <v>183900</v>
+        <v>183800</v>
       </c>
       <c r="J9" s="3">
-        <v>194100</v>
+        <v>194000</v>
       </c>
       <c r="K9" s="3">
         <v>216200</v>
@@ -825,7 +825,7 @@
         <v>30500</v>
       </c>
       <c r="I10" s="3">
-        <v>96300</v>
+        <v>96200</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248700</v>
+        <v>248600</v>
       </c>
       <c r="E17" s="3">
-        <v>233900</v>
+        <v>233800</v>
       </c>
       <c r="F17" s="3">
-        <v>249800</v>
+        <v>249700</v>
       </c>
       <c r="G17" s="3">
-        <v>289300</v>
+        <v>289100</v>
       </c>
       <c r="H17" s="3">
-        <v>233800</v>
+        <v>233700</v>
       </c>
       <c r="I17" s="3">
-        <v>221700</v>
+        <v>221600</v>
       </c>
       <c r="J17" s="3">
-        <v>214500</v>
+        <v>214400</v>
       </c>
       <c r="K17" s="3">
         <v>217700</v>
@@ -1104,7 +1104,7 @@
         <v>4500</v>
       </c>
       <c r="G18" s="3">
-        <v>-45500</v>
+        <v>-45400</v>
       </c>
       <c r="H18" s="3">
         <v>20900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52900</v>
+        <v>52700</v>
       </c>
       <c r="E21" s="3">
-        <v>130700</v>
+        <v>130500</v>
       </c>
       <c r="F21" s="3">
-        <v>74300</v>
+        <v>74000</v>
       </c>
       <c r="G21" s="3">
-        <v>43700</v>
+        <v>43400</v>
       </c>
       <c r="H21" s="3">
-        <v>50200</v>
+        <v>50000</v>
       </c>
       <c r="I21" s="3">
-        <v>105400</v>
+        <v>105200</v>
       </c>
       <c r="J21" s="3">
-        <v>25700</v>
+        <v>25600</v>
       </c>
       <c r="K21" s="3">
         <v>3200</v>
@@ -1251,7 +1251,7 @@
         <v>25600</v>
       </c>
       <c r="H22" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="I22" s="3">
         <v>22900</v>
@@ -1284,7 +1284,7 @@
         <v>-14200</v>
       </c>
       <c r="E23" s="3">
-        <v>52500</v>
+        <v>52400</v>
       </c>
       <c r="F23" s="3">
         <v>-24200</v>
@@ -1299,7 +1299,7 @@
         <v>47000</v>
       </c>
       <c r="J23" s="3">
-        <v>-34200</v>
+        <v>-34100</v>
       </c>
       <c r="K23" s="3">
         <v>-51000</v>
@@ -1332,7 +1332,7 @@
         <v>-6700</v>
       </c>
       <c r="G24" s="3">
-        <v>-24000</v>
+        <v>-23900</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
@@ -1425,7 +1425,7 @@
         <v>25400</v>
       </c>
       <c r="J26" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="K26" s="3">
         <v>-46800</v>
@@ -1467,7 +1467,7 @@
         <v>25400</v>
       </c>
       <c r="J27" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="K27" s="3">
         <v>-46800</v>
@@ -1719,7 +1719,7 @@
         <v>25400</v>
       </c>
       <c r="J33" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="K33" s="3">
         <v>-46800</v>
@@ -1803,7 +1803,7 @@
         <v>25400</v>
       </c>
       <c r="J35" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="K35" s="3">
         <v>-46800</v>
@@ -1913,7 +1913,7 @@
         <v>89500</v>
       </c>
       <c r="E41" s="3">
-        <v>175400</v>
+        <v>175300</v>
       </c>
       <c r="F41" s="3">
         <v>63000</v>
@@ -2036,10 +2036,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68800</v>
+        <v>68700</v>
       </c>
       <c r="E44" s="3">
-        <v>59200</v>
+        <v>59100</v>
       </c>
       <c r="F44" s="3">
         <v>43600</v>
@@ -2051,10 +2051,10 @@
         <v>28900</v>
       </c>
       <c r="I44" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="J44" s="3">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="K44" s="3">
         <v>30500</v>
@@ -2120,10 +2120,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>178400</v>
+        <v>178300</v>
       </c>
       <c r="E46" s="3">
-        <v>249800</v>
+        <v>249700</v>
       </c>
       <c r="F46" s="3">
         <v>116400</v>
@@ -2132,13 +2132,13 @@
         <v>84300</v>
       </c>
       <c r="H46" s="3">
-        <v>77400</v>
+        <v>77300</v>
       </c>
       <c r="I46" s="3">
-        <v>108000</v>
+        <v>107900</v>
       </c>
       <c r="J46" s="3">
-        <v>122500</v>
+        <v>122400</v>
       </c>
       <c r="K46" s="3">
         <v>94300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>762400</v>
+        <v>762000</v>
       </c>
       <c r="E48" s="3">
-        <v>620600</v>
+        <v>620300</v>
       </c>
       <c r="F48" s="3">
-        <v>550100</v>
+        <v>549800</v>
       </c>
       <c r="G48" s="3">
-        <v>561500</v>
+        <v>561200</v>
       </c>
       <c r="H48" s="3">
-        <v>608400</v>
+        <v>608000</v>
       </c>
       <c r="I48" s="3">
-        <v>590600</v>
+        <v>590300</v>
       </c>
       <c r="J48" s="3">
-        <v>540900</v>
+        <v>540600</v>
       </c>
       <c r="K48" s="3">
         <v>1193500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>947200</v>
+        <v>946700</v>
       </c>
       <c r="E54" s="3">
-        <v>876400</v>
+        <v>876000</v>
       </c>
       <c r="F54" s="3">
-        <v>674300</v>
+        <v>674000</v>
       </c>
       <c r="G54" s="3">
-        <v>654800</v>
+        <v>654500</v>
       </c>
       <c r="H54" s="3">
-        <v>720500</v>
+        <v>720200</v>
       </c>
       <c r="I54" s="3">
-        <v>732400</v>
+        <v>732000</v>
       </c>
       <c r="J54" s="3">
-        <v>703300</v>
+        <v>702900</v>
       </c>
       <c r="K54" s="3">
         <v>731500</v>
@@ -2633,7 +2633,7 @@
         <v>19000</v>
       </c>
       <c r="I59" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="J59" s="3">
         <v>7700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>421500</v>
+        <v>421300</v>
       </c>
       <c r="E61" s="3">
-        <v>381300</v>
+        <v>381100</v>
       </c>
       <c r="F61" s="3">
-        <v>256100</v>
+        <v>256000</v>
       </c>
       <c r="G61" s="3">
-        <v>264500</v>
+        <v>264300</v>
       </c>
       <c r="H61" s="3">
-        <v>256000</v>
+        <v>255900</v>
       </c>
       <c r="I61" s="3">
-        <v>235500</v>
+        <v>235400</v>
       </c>
       <c r="J61" s="3">
-        <v>276400</v>
+        <v>276300</v>
       </c>
       <c r="K61" s="3">
         <v>229300</v>
@@ -2744,22 +2744,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>178200</v>
+        <v>178100</v>
       </c>
       <c r="E62" s="3">
-        <v>152900</v>
+        <v>152800</v>
       </c>
       <c r="F62" s="3">
-        <v>125000</v>
+        <v>124900</v>
       </c>
       <c r="G62" s="3">
         <v>117000</v>
       </c>
       <c r="H62" s="3">
-        <v>164900</v>
+        <v>164800</v>
       </c>
       <c r="I62" s="3">
-        <v>179500</v>
+        <v>179400</v>
       </c>
       <c r="J62" s="3">
         <v>135200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>683200</v>
+        <v>682800</v>
       </c>
       <c r="E66" s="3">
-        <v>610900</v>
+        <v>610600</v>
       </c>
       <c r="F66" s="3">
-        <v>439300</v>
+        <v>439000</v>
       </c>
       <c r="G66" s="3">
-        <v>431300</v>
+        <v>431100</v>
       </c>
       <c r="H66" s="3">
-        <v>463400</v>
+        <v>463200</v>
       </c>
       <c r="I66" s="3">
-        <v>460500</v>
+        <v>460200</v>
       </c>
       <c r="J66" s="3">
-        <v>452200</v>
+        <v>452000</v>
       </c>
       <c r="K66" s="3">
         <v>453400</v>
@@ -3140,7 +3140,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-152700</v>
+        <v>-152600</v>
       </c>
       <c r="E72" s="3">
         <v>-133400</v>
@@ -3149,16 +3149,16 @@
         <v>-160400</v>
       </c>
       <c r="G72" s="3">
-        <v>-143000</v>
+        <v>-142900</v>
       </c>
       <c r="H72" s="3">
-        <v>-103500</v>
+        <v>-103400</v>
       </c>
       <c r="I72" s="3">
         <v>-76200</v>
       </c>
       <c r="J72" s="3">
-        <v>-101600</v>
+        <v>-101500</v>
       </c>
       <c r="K72" s="3">
         <v>-79400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>264000</v>
+        <v>263900</v>
       </c>
       <c r="E76" s="3">
-        <v>265600</v>
+        <v>265400</v>
       </c>
       <c r="F76" s="3">
-        <v>235100</v>
+        <v>235000</v>
       </c>
       <c r="G76" s="3">
-        <v>223500</v>
+        <v>223400</v>
       </c>
       <c r="H76" s="3">
-        <v>257100</v>
+        <v>257000</v>
       </c>
       <c r="I76" s="3">
-        <v>271900</v>
+        <v>271800</v>
       </c>
       <c r="J76" s="3">
-        <v>251100</v>
+        <v>250900</v>
       </c>
       <c r="K76" s="3">
         <v>278100</v>
@@ -3457,7 +3457,7 @@
         <v>25400</v>
       </c>
       <c r="J81" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="K81" s="3">
         <v>-46800</v>
@@ -3754,10 +3754,10 @@
         <v>60200</v>
       </c>
       <c r="E89" s="3">
-        <v>129500</v>
+        <v>129400</v>
       </c>
       <c r="F89" s="3">
-        <v>78700</v>
+        <v>78600</v>
       </c>
       <c r="G89" s="3">
         <v>31600</v>
@@ -3766,7 +3766,7 @@
         <v>69700</v>
       </c>
       <c r="I89" s="3">
-        <v>156400</v>
+        <v>156300</v>
       </c>
       <c r="J89" s="3">
         <v>25100</v>
@@ -3823,7 +3823,7 @@
         <v>-37600</v>
       </c>
       <c r="H91" s="3">
-        <v>-70300</v>
+        <v>-70200</v>
       </c>
       <c r="I91" s="3">
         <v>-72000</v>
@@ -3937,7 +3937,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-123300</v>
+        <v>-123200</v>
       </c>
       <c r="E94" s="3">
         <v>-109400</v>
@@ -4168,7 +4168,7 @@
         <v>-26100</v>
       </c>
       <c r="E100" s="3">
-        <v>93200</v>
+        <v>93100</v>
       </c>
       <c r="F100" s="3">
         <v>-8800</v>
@@ -4180,7 +4180,7 @@
         <v>-24900</v>
       </c>
       <c r="I100" s="3">
-        <v>-83700</v>
+        <v>-83600</v>
       </c>
       <c r="J100" s="3">
         <v>4600</v>
@@ -4249,7 +4249,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-85900</v>
+        <v>-85800</v>
       </c>
       <c r="E102" s="3">
         <v>112300</v>

--- a/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TGB_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>289900</v>
+        <v>284700</v>
       </c>
       <c r="E8" s="3">
-        <v>320800</v>
+        <v>315000</v>
       </c>
       <c r="F8" s="3">
-        <v>254100</v>
+        <v>249600</v>
       </c>
       <c r="G8" s="3">
-        <v>243700</v>
+        <v>239300</v>
       </c>
       <c r="H8" s="3">
-        <v>254600</v>
+        <v>250000</v>
       </c>
       <c r="I8" s="3">
-        <v>280100</v>
+        <v>275000</v>
       </c>
       <c r="J8" s="3">
-        <v>195400</v>
+        <v>191800</v>
       </c>
       <c r="K8" s="3">
         <v>217200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>249800</v>
+        <v>245300</v>
       </c>
       <c r="E9" s="3">
-        <v>199500</v>
+        <v>195900</v>
       </c>
       <c r="F9" s="3">
-        <v>236600</v>
+        <v>232300</v>
       </c>
       <c r="G9" s="3">
-        <v>272700</v>
+        <v>267800</v>
       </c>
       <c r="H9" s="3">
-        <v>224100</v>
+        <v>220000</v>
       </c>
       <c r="I9" s="3">
-        <v>183800</v>
+        <v>180500</v>
       </c>
       <c r="J9" s="3">
-        <v>194000</v>
+        <v>190500</v>
       </c>
       <c r="K9" s="3">
         <v>216200</v>
@@ -810,22 +810,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>40200</v>
+        <v>39400</v>
       </c>
       <c r="E10" s="3">
-        <v>121300</v>
+        <v>119100</v>
       </c>
       <c r="F10" s="3">
-        <v>17600</v>
+        <v>17200</v>
       </c>
       <c r="G10" s="3">
-        <v>-29000</v>
+        <v>-28500</v>
       </c>
       <c r="H10" s="3">
-        <v>30500</v>
+        <v>30000</v>
       </c>
       <c r="I10" s="3">
-        <v>96200</v>
+        <v>94500</v>
       </c>
       <c r="J10" s="3">
         <v>1300</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248600</v>
+        <v>244100</v>
       </c>
       <c r="E17" s="3">
-        <v>233800</v>
+        <v>229600</v>
       </c>
       <c r="F17" s="3">
-        <v>249700</v>
+        <v>245200</v>
       </c>
       <c r="G17" s="3">
-        <v>289100</v>
+        <v>283900</v>
       </c>
       <c r="H17" s="3">
-        <v>233700</v>
+        <v>229500</v>
       </c>
       <c r="I17" s="3">
-        <v>221600</v>
+        <v>217600</v>
       </c>
       <c r="J17" s="3">
-        <v>214400</v>
+        <v>210500</v>
       </c>
       <c r="K17" s="3">
         <v>217700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>41400</v>
+        <v>40600</v>
       </c>
       <c r="E18" s="3">
-        <v>87000</v>
+        <v>85400</v>
       </c>
       <c r="F18" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="G18" s="3">
-        <v>-45400</v>
+        <v>-44600</v>
       </c>
       <c r="H18" s="3">
-        <v>20900</v>
+        <v>20500</v>
       </c>
       <c r="I18" s="3">
-        <v>58500</v>
+        <v>57400</v>
       </c>
       <c r="J18" s="3">
-        <v>-19000</v>
+        <v>-18700</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27100</v>
+        <v>-26600</v>
       </c>
       <c r="E20" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F20" s="3">
         <v>-1000</v>
       </c>
       <c r="G20" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H20" s="3">
-        <v>-23300</v>
+        <v>-22900</v>
       </c>
       <c r="I20" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="J20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="K20" s="3">
         <v>-33000</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52700</v>
+        <v>52000</v>
       </c>
       <c r="E21" s="3">
-        <v>130500</v>
+        <v>128400</v>
       </c>
       <c r="F21" s="3">
-        <v>74000</v>
+        <v>73100</v>
       </c>
       <c r="G21" s="3">
-        <v>43400</v>
+        <v>43100</v>
       </c>
       <c r="H21" s="3">
-        <v>50000</v>
+        <v>49400</v>
       </c>
       <c r="I21" s="3">
-        <v>105200</v>
+        <v>103500</v>
       </c>
       <c r="J21" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="K21" s="3">
         <v>3200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28400</v>
+        <v>27900</v>
       </c>
       <c r="E22" s="3">
-        <v>28800</v>
+        <v>28200</v>
       </c>
       <c r="F22" s="3">
-        <v>27600</v>
+        <v>27100</v>
       </c>
       <c r="G22" s="3">
-        <v>25600</v>
+        <v>25100</v>
       </c>
       <c r="H22" s="3">
-        <v>23700</v>
+        <v>23300</v>
       </c>
       <c r="I22" s="3">
-        <v>22900</v>
+        <v>22500</v>
       </c>
       <c r="J22" s="3">
-        <v>20500</v>
+        <v>20100</v>
       </c>
       <c r="K22" s="3">
         <v>17500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14200</v>
+        <v>-13900</v>
       </c>
       <c r="E23" s="3">
-        <v>52400</v>
+        <v>51500</v>
       </c>
       <c r="F23" s="3">
-        <v>-24200</v>
+        <v>-23700</v>
       </c>
       <c r="G23" s="3">
-        <v>-63500</v>
+        <v>-62300</v>
       </c>
       <c r="H23" s="3">
-        <v>-26200</v>
+        <v>-25700</v>
       </c>
       <c r="I23" s="3">
-        <v>47000</v>
+        <v>46100</v>
       </c>
       <c r="J23" s="3">
-        <v>-34100</v>
+        <v>-33500</v>
       </c>
       <c r="K23" s="3">
         <v>-51000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="3">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="F24" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G24" s="3">
-        <v>-23900</v>
+        <v>-23500</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>21600</v>
+        <v>21200</v>
       </c>
       <c r="J24" s="3">
-        <v>-10900</v>
+        <v>-10700</v>
       </c>
       <c r="K24" s="3">
         <v>-4200</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="E26" s="3">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="F26" s="3">
-        <v>-17400</v>
+        <v>-17100</v>
       </c>
       <c r="G26" s="3">
-        <v>-39500</v>
+        <v>-38800</v>
       </c>
       <c r="H26" s="3">
-        <v>-26500</v>
+        <v>-26000</v>
       </c>
       <c r="I26" s="3">
-        <v>25400</v>
+        <v>24900</v>
       </c>
       <c r="J26" s="3">
-        <v>-23200</v>
+        <v>-22800</v>
       </c>
       <c r="K26" s="3">
         <v>-46800</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="E27" s="3">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="F27" s="3">
-        <v>-17400</v>
+        <v>-17100</v>
       </c>
       <c r="G27" s="3">
-        <v>-39500</v>
+        <v>-38800</v>
       </c>
       <c r="H27" s="3">
-        <v>-26500</v>
+        <v>-26000</v>
       </c>
       <c r="I27" s="3">
-        <v>25400</v>
+        <v>24900</v>
       </c>
       <c r="J27" s="3">
-        <v>-23200</v>
+        <v>-22800</v>
       </c>
       <c r="K27" s="3">
         <v>-46800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27100</v>
+        <v>26600</v>
       </c>
       <c r="E32" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F32" s="3">
         <v>1000</v>
       </c>
       <c r="G32" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="H32" s="3">
-        <v>23300</v>
+        <v>22900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="J32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="K32" s="3">
         <v>33000</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="E33" s="3">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="F33" s="3">
-        <v>-17400</v>
+        <v>-17100</v>
       </c>
       <c r="G33" s="3">
-        <v>-39500</v>
+        <v>-38800</v>
       </c>
       <c r="H33" s="3">
-        <v>-26500</v>
+        <v>-26000</v>
       </c>
       <c r="I33" s="3">
-        <v>25400</v>
+        <v>24900</v>
       </c>
       <c r="J33" s="3">
-        <v>-23200</v>
+        <v>-22800</v>
       </c>
       <c r="K33" s="3">
         <v>-46800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="E35" s="3">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="F35" s="3">
-        <v>-17400</v>
+        <v>-17100</v>
       </c>
       <c r="G35" s="3">
-        <v>-39500</v>
+        <v>-38800</v>
       </c>
       <c r="H35" s="3">
-        <v>-26500</v>
+        <v>-26000</v>
       </c>
       <c r="I35" s="3">
-        <v>25400</v>
+        <v>24900</v>
       </c>
       <c r="J35" s="3">
-        <v>-23200</v>
+        <v>-22800</v>
       </c>
       <c r="K35" s="3">
         <v>-46800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>89500</v>
+        <v>87900</v>
       </c>
       <c r="E41" s="3">
-        <v>175300</v>
+        <v>172100</v>
       </c>
       <c r="F41" s="3">
-        <v>63000</v>
+        <v>61900</v>
       </c>
       <c r="G41" s="3">
-        <v>39400</v>
+        <v>38700</v>
       </c>
       <c r="H41" s="3">
-        <v>33800</v>
+        <v>33200</v>
       </c>
       <c r="I41" s="3">
-        <v>59400</v>
+        <v>58300</v>
       </c>
       <c r="J41" s="3">
-        <v>65900</v>
+        <v>64700</v>
       </c>
       <c r="K41" s="3">
         <v>51400</v>
@@ -1964,13 +1964,13 @@
         <v>500</v>
       </c>
       <c r="H42" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I42" s="3">
         <v>1800</v>
       </c>
       <c r="J42" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K42" s="3">
         <v>700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="E43" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="F43" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G43" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="H43" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="I43" s="3">
-        <v>16000</v>
+        <v>15700</v>
       </c>
       <c r="J43" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="K43" s="3">
         <v>9900</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68700</v>
+        <v>67500</v>
       </c>
       <c r="E44" s="3">
-        <v>59100</v>
+        <v>58100</v>
       </c>
       <c r="F44" s="3">
-        <v>43600</v>
+        <v>42800</v>
       </c>
       <c r="G44" s="3">
-        <v>32300</v>
+        <v>31700</v>
       </c>
       <c r="H44" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="I44" s="3">
-        <v>29300</v>
+        <v>28800</v>
       </c>
       <c r="J44" s="3">
-        <v>44800</v>
+        <v>44000</v>
       </c>
       <c r="K44" s="3">
         <v>30500</v>
@@ -2078,16 +2078,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E45" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F45" s="3">
         <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H45" s="3">
         <v>1100</v>
@@ -2096,7 +2096,7 @@
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K45" s="3">
         <v>1700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>178300</v>
+        <v>175100</v>
       </c>
       <c r="E46" s="3">
-        <v>249700</v>
+        <v>245200</v>
       </c>
       <c r="F46" s="3">
-        <v>116400</v>
+        <v>114300</v>
       </c>
       <c r="G46" s="3">
-        <v>84300</v>
+        <v>82800</v>
       </c>
       <c r="H46" s="3">
-        <v>77300</v>
+        <v>75900</v>
       </c>
       <c r="I46" s="3">
-        <v>107900</v>
+        <v>106000</v>
       </c>
       <c r="J46" s="3">
-        <v>122400</v>
+        <v>120200</v>
       </c>
       <c r="K46" s="3">
         <v>94300</v>
@@ -2171,16 +2171,16 @@
         <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I47" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J47" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="K47" s="3">
         <v>19800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>762000</v>
+        <v>748300</v>
       </c>
       <c r="E48" s="3">
-        <v>620300</v>
+        <v>609100</v>
       </c>
       <c r="F48" s="3">
-        <v>549800</v>
+        <v>539900</v>
       </c>
       <c r="G48" s="3">
-        <v>561200</v>
+        <v>551100</v>
       </c>
       <c r="H48" s="3">
-        <v>608000</v>
+        <v>597100</v>
       </c>
       <c r="I48" s="3">
-        <v>590300</v>
+        <v>579600</v>
       </c>
       <c r="J48" s="3">
-        <v>540600</v>
+        <v>530900</v>
       </c>
       <c r="K48" s="3">
         <v>1193500</v>
@@ -2249,22 +2249,22 @@
         <v>4100</v>
       </c>
       <c r="E49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G49" s="3">
         <v>3900</v>
       </c>
-      <c r="F49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4000</v>
-      </c>
       <c r="H49" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
         <v>3800</v>
       </c>
       <c r="J49" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K49" s="3">
         <v>4300</v>
@@ -2375,7 +2375,7 @@
         <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>3000</v>
@@ -2384,13 +2384,13 @@
         <v>3200</v>
       </c>
       <c r="H52" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="I52" s="3">
-        <v>28200</v>
+        <v>27700</v>
       </c>
       <c r="J52" s="3">
-        <v>28200</v>
+        <v>27700</v>
       </c>
       <c r="K52" s="3">
         <v>40400</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>946700</v>
+        <v>929600</v>
       </c>
       <c r="E54" s="3">
-        <v>876000</v>
+        <v>860200</v>
       </c>
       <c r="F54" s="3">
-        <v>674000</v>
+        <v>661800</v>
       </c>
       <c r="G54" s="3">
-        <v>654500</v>
+        <v>642700</v>
       </c>
       <c r="H54" s="3">
-        <v>720200</v>
+        <v>707200</v>
       </c>
       <c r="I54" s="3">
-        <v>732000</v>
+        <v>718800</v>
       </c>
       <c r="J54" s="3">
-        <v>702900</v>
+        <v>690300</v>
       </c>
       <c r="K54" s="3">
         <v>731500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="E57" s="3">
-        <v>22300</v>
+        <v>21900</v>
       </c>
       <c r="F57" s="3">
-        <v>24300</v>
+        <v>23800</v>
       </c>
       <c r="G57" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="H57" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="I57" s="3">
-        <v>17700</v>
+        <v>17400</v>
       </c>
       <c r="J57" s="3">
-        <v>20900</v>
+        <v>20500</v>
       </c>
       <c r="K57" s="3">
         <v>42400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="E58" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="F58" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="G58" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="H58" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="J58" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="K58" s="3">
         <v>44900</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46300</v>
+        <v>45400</v>
       </c>
       <c r="E59" s="3">
-        <v>40800</v>
+        <v>40000</v>
       </c>
       <c r="F59" s="3">
-        <v>20800</v>
+        <v>20400</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="H59" s="3">
-        <v>19000</v>
+        <v>18700</v>
       </c>
       <c r="I59" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="J59" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="K59" s="3">
         <v>7000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83400</v>
+        <v>81900</v>
       </c>
       <c r="E60" s="3">
-        <v>76600</v>
+        <v>75200</v>
       </c>
       <c r="F60" s="3">
-        <v>58100</v>
+        <v>57100</v>
       </c>
       <c r="G60" s="3">
-        <v>49800</v>
+        <v>48900</v>
       </c>
       <c r="H60" s="3">
-        <v>42500</v>
+        <v>41800</v>
       </c>
       <c r="I60" s="3">
-        <v>45500</v>
+        <v>44600</v>
       </c>
       <c r="J60" s="3">
-        <v>40600</v>
+        <v>39800</v>
       </c>
       <c r="K60" s="3">
         <v>71700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>421300</v>
+        <v>413700</v>
       </c>
       <c r="E61" s="3">
-        <v>381100</v>
+        <v>374300</v>
       </c>
       <c r="F61" s="3">
-        <v>256000</v>
+        <v>251400</v>
       </c>
       <c r="G61" s="3">
-        <v>264300</v>
+        <v>259600</v>
       </c>
       <c r="H61" s="3">
-        <v>255900</v>
+        <v>251300</v>
       </c>
       <c r="I61" s="3">
-        <v>235400</v>
+        <v>231200</v>
       </c>
       <c r="J61" s="3">
-        <v>276300</v>
+        <v>271300</v>
       </c>
       <c r="K61" s="3">
         <v>229300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>178100</v>
+        <v>174900</v>
       </c>
       <c r="E62" s="3">
-        <v>152800</v>
+        <v>150100</v>
       </c>
       <c r="F62" s="3">
-        <v>124900</v>
+        <v>122700</v>
       </c>
       <c r="G62" s="3">
-        <v>117000</v>
+        <v>114900</v>
       </c>
       <c r="H62" s="3">
-        <v>164800</v>
+        <v>161800</v>
       </c>
       <c r="I62" s="3">
-        <v>179400</v>
+        <v>176100</v>
       </c>
       <c r="J62" s="3">
-        <v>135200</v>
+        <v>132700</v>
       </c>
       <c r="K62" s="3">
         <v>152800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>682800</v>
+        <v>670500</v>
       </c>
       <c r="E66" s="3">
-        <v>610600</v>
+        <v>599500</v>
       </c>
       <c r="F66" s="3">
-        <v>439000</v>
+        <v>431100</v>
       </c>
       <c r="G66" s="3">
-        <v>431100</v>
+        <v>423300</v>
       </c>
       <c r="H66" s="3">
-        <v>463200</v>
+        <v>454900</v>
       </c>
       <c r="I66" s="3">
-        <v>460200</v>
+        <v>451900</v>
       </c>
       <c r="J66" s="3">
-        <v>452000</v>
+        <v>443800</v>
       </c>
       <c r="K66" s="3">
         <v>453400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-152600</v>
+        <v>-149800</v>
       </c>
       <c r="E72" s="3">
-        <v>-133400</v>
+        <v>-131000</v>
       </c>
       <c r="F72" s="3">
-        <v>-160400</v>
+        <v>-157500</v>
       </c>
       <c r="G72" s="3">
-        <v>-142900</v>
+        <v>-140400</v>
       </c>
       <c r="H72" s="3">
-        <v>-103400</v>
+        <v>-101600</v>
       </c>
       <c r="I72" s="3">
-        <v>-76200</v>
+        <v>-74800</v>
       </c>
       <c r="J72" s="3">
-        <v>-101500</v>
+        <v>-99700</v>
       </c>
       <c r="K72" s="3">
         <v>-79400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>263900</v>
+        <v>259100</v>
       </c>
       <c r="E76" s="3">
-        <v>265400</v>
+        <v>260600</v>
       </c>
       <c r="F76" s="3">
-        <v>235000</v>
+        <v>230700</v>
       </c>
       <c r="G76" s="3">
-        <v>223400</v>
+        <v>219300</v>
       </c>
       <c r="H76" s="3">
-        <v>257000</v>
+        <v>252300</v>
       </c>
       <c r="I76" s="3">
-        <v>271800</v>
+        <v>266900</v>
       </c>
       <c r="J76" s="3">
-        <v>250900</v>
+        <v>246400</v>
       </c>
       <c r="K76" s="3">
         <v>278100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="E81" s="3">
-        <v>27000</v>
+        <v>26500</v>
       </c>
       <c r="F81" s="3">
-        <v>-17400</v>
+        <v>-17100</v>
       </c>
       <c r="G81" s="3">
-        <v>-39500</v>
+        <v>-38800</v>
       </c>
       <c r="H81" s="3">
-        <v>-26500</v>
+        <v>-26000</v>
       </c>
       <c r="I81" s="3">
-        <v>25400</v>
+        <v>24900</v>
       </c>
       <c r="J81" s="3">
-        <v>-23200</v>
+        <v>-22800</v>
       </c>
       <c r="K81" s="3">
         <v>-46800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>69300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>79800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>51500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="J83" s="3">
         <v>38500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>49300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>70600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>81300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>52400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>35300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>39300</v>
       </c>
       <c r="K83" s="3">
         <v>37200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>60200</v>
+        <v>59100</v>
       </c>
       <c r="E89" s="3">
-        <v>129400</v>
+        <v>127100</v>
       </c>
       <c r="F89" s="3">
-        <v>78600</v>
+        <v>77200</v>
       </c>
       <c r="G89" s="3">
-        <v>31600</v>
+        <v>31000</v>
       </c>
       <c r="H89" s="3">
-        <v>69700</v>
+        <v>68400</v>
       </c>
       <c r="I89" s="3">
-        <v>156300</v>
+        <v>153500</v>
       </c>
       <c r="J89" s="3">
-        <v>25100</v>
+        <v>24600</v>
       </c>
       <c r="K89" s="3">
         <v>38800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-110300</v>
+        <v>-108300</v>
       </c>
       <c r="E91" s="3">
-        <v>-52400</v>
+        <v>-51400</v>
       </c>
       <c r="F91" s="3">
-        <v>-48500</v>
+        <v>-47600</v>
       </c>
       <c r="G91" s="3">
-        <v>-37600</v>
+        <v>-36900</v>
       </c>
       <c r="H91" s="3">
-        <v>-70200</v>
+        <v>-69000</v>
       </c>
       <c r="I91" s="3">
-        <v>-72000</v>
+        <v>-70700</v>
       </c>
       <c r="J91" s="3">
-        <v>-14000</v>
+        <v>-13700</v>
       </c>
       <c r="K91" s="3">
         <v>-14200</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-123200</v>
+        <v>-121000</v>
       </c>
       <c r="E94" s="3">
-        <v>-109400</v>
+        <v>-107400</v>
       </c>
       <c r="F94" s="3">
-        <v>-44200</v>
+        <v>-43400</v>
       </c>
       <c r="G94" s="3">
-        <v>-12500</v>
+        <v>-12300</v>
       </c>
       <c r="H94" s="3">
-        <v>-69900</v>
+        <v>-68600</v>
       </c>
       <c r="I94" s="3">
-        <v>-75400</v>
+        <v>-74000</v>
       </c>
       <c r="J94" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="K94" s="3">
         <v>-2100</v>
@@ -4165,22 +4165,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-26100</v>
+        <v>-25600</v>
       </c>
       <c r="E100" s="3">
-        <v>93100</v>
+        <v>91400</v>
       </c>
       <c r="F100" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="G100" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="H100" s="3">
-        <v>-24900</v>
+        <v>-24400</v>
       </c>
       <c r="I100" s="3">
-        <v>-83600</v>
+        <v>-82100</v>
       </c>
       <c r="J100" s="3">
         <v>4600</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E101" s="3">
         <v>-900</v>
@@ -4216,13 +4216,13 @@
         <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="H101" s="3">
         <v>-500</v>
       </c>
       <c r="I101" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-85800</v>
+        <v>-84300</v>
       </c>
       <c r="E102" s="3">
-        <v>112300</v>
+        <v>110300</v>
       </c>
       <c r="F102" s="3">
-        <v>23600</v>
+        <v>23200</v>
       </c>
       <c r="G102" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H102" s="3">
-        <v>-25600</v>
+        <v>-25100</v>
       </c>
       <c r="I102" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="J102" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="K102" s="3">
         <v>17100</v>
